--- a/Tarefa 0/Tarefa_3.1.xlsx
+++ b/Tarefa 0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.3192333393047471</v>
+        <v>1.2104226210299764</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>1.980187885698398</v>
+        <v>0.19853364917543026</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>1.9633477028343032</v>
+        <v>-1.0684626220363203</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1.0766422891670084</v>
+        <v>0.32590062796871117</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.07482803704200901</v>
+        <v>0.8508205363686563</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>-1.1603478378216903</v>
+        <v>1.3675127682336083</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.2642989340136488</v>
+        <v>0.4627018133460981</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1.7544328223926373</v>
+        <v>0.17592166278073257</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.1758810953063068</v>
+        <v>-0.41555067704216325</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>-1.3034635948129143</v>
+        <v>2.191916154276861</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>2.7211782052616442</v>
+        <v>-0.6058721336564283</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.8992951412369734</v>
+        <v>-1.576492987833945</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.40136780245797293</v>
+        <v>0.496770755824002</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6055198997619013</v>
+        <v>-0.2229761985162269</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.26850238760443645</v>
+        <v>-0.508742180357093</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>2.3398926219425196</v>
+        <v>0.7749200479973224</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.4561972405126161</v>
+        <v>0.7653356922205252</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>-2.0381915303255105</v>
+        <v>0.2703760767967113</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>2.2187056147518747</v>
+        <v>0.32624383148525476</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>2.7751047362889767</v>
+        <v>-0.1437655330144399</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.37230124917904744</v>
+        <v>-0.392048822046986</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.08937331225315166</v>
+        <v>-0.04940441343428766</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.7341598532481707</v>
+        <v>-0.6041346978450931</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.13536418034588366</v>
+        <v>-0.7941800979612931</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.26842559463227167</v>
+        <v>0.3013262002733654</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>1.4981403431643228</v>
+        <v>-0.05483291018064164</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.288091033620387</v>
+        <v>0.8362460574218332</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.8546970712183483</v>
+        <v>0.42222180183851266</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>-1.0477610476433186</v>
+        <v>2.1571230520436404</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.5148398292102427</v>
+        <v>-2.173728228846523</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.23448139741076043</v>
+        <v>-0.38858711670004153</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5754386584500211</v>
+        <v>1.3043905552920343</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09194016057592168</v>
+        <v>-0.03336650594408369</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.14270971073272182</v>
+        <v>1.484091089881249</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-1.2415522943782795</v>
+        <v>-0.37942675173942736</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>-1.3888397601493336</v>
+        <v>0.9716587277921227</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.6844133618885025</v>
+        <v>-0.5221902509518476</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.4448561957367674</v>
+        <v>-0.6045141148258124</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-0.04060426471093265</v>
+        <v>-1.2264546760374881</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>-0.30594786930108003</v>
+        <v>0.1892218906746154</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.5892410819070044</v>
+        <v>1.0711862886548826</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.31569421304910417</v>
+        <v>-0.5411684904288843</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>-0.5570099871667141</v>
+        <v>0.8705619902659593</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>2.321375742487293</v>
+        <v>-0.756405162739291</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9087656135765194</v>
+        <v>1.4189177924860255</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>-0.6352163176589818</v>
+        <v>0.6036826202907085</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>-0.7412764284871773</v>
+        <v>0.29831732814650685</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>-0.4768847808741393</v>
+        <v>1.4464593158022199</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>-1.4142966359144318</v>
+        <v>0.3148729132057118</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.491972387136195</v>
+        <v>-1.7065789256309098</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7992668254838063</v>
+        <v>0.7089858805672228</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.024474661369045508</v>
+        <v>-0.768060917276657</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>-0.006779864698359512</v>
+        <v>0.6220478064785204</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.7555906648280224</v>
+        <v>0.07558611913973665</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>-0.9741331530943546</v>
+        <v>1.0500808188163835</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-0.8513463363890794</v>
+        <v>-1.1125557451084047</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.5690198266192972</v>
+        <v>-0.9507250957263816</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>0.33427502066746484</v>
+        <v>-0.17488761234006037</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>-0.7117653450824064</v>
+        <v>0.604035385946951</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>-0.163310479067833</v>
+        <v>0.23117913941241783</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.022407875305908508</v>
+        <v>-0.3337691875650696</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>0.4887301947263521</v>
+        <v>-0.7671376539507067</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>0.0025738157467223143</v>
+        <v>2.1275218781982463</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.235063100348277</v>
+        <v>-1.441419804672631</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>0.9413691732945205</v>
+        <v>1.0100840061044627</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>-0.20496925402816166</v>
+        <v>2.4710581725077394</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.5652924679156069</v>
+        <v>-1.6672656235363057</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.6065407355995229</v>
+        <v>-1.6783377517551408</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>1.0856025993278409</v>
+        <v>-1.648366250557797</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>3.423071188710539</v>
+        <v>-0.9179073520306781</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.24209211636304143</v>
+        <v>-0.4555539782988114</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>0.5777606839133891</v>
+        <v>-0.6617258234745627</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.4951054069313743</v>
+        <v>-1.812907973930972</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>2.2434254278154526</v>
+        <v>0.7776978270276722</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.7863540245781531</v>
+        <v>-0.8242933444281549</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.8227981952571666</v>
+        <v>-1.2002865245468517</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>1.1889824079530154</v>
+        <v>0.4259226877486283</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.2024902984232314</v>
+        <v>1.292238448961968</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.11927978502246028</v>
+        <v>-2.132387373855172</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>0.9807199336628446</v>
+        <v>-1.4348661953678972</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>0.5454123842309747</v>
+        <v>1.050808761258357</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>1.4868447217809009</v>
+        <v>-0.5638603662600754</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>1.5904749274693775</v>
+        <v>0.5463834216176703</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.2309834591615954</v>
+        <v>-1.1099357943698565</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>0.3528621032895915</v>
+        <v>-1.2536674211768715</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.2643644558557645</v>
+        <v>2.034316792532244</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1.6868920485673473</v>
+        <v>1.1456064187651611</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>-0.9197451197458468</v>
+        <v>0.35202697990600784</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0944234997492425</v>
+        <v>-0.13689520095081845</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>1.0887438477796212</v>
+        <v>-0.38992088720517937</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.09144055318339028</v>
+        <v>-0.33127889923041337</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6504318137804851</v>
+        <v>0.6041911083919227</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>-0.16824043381607137</v>
+        <v>0.17325624571606457</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>1.8190917587674575</v>
+        <v>-0.9497763467099496</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>-0.0732295917227348</v>
+        <v>-1.9972532173115134</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>0.29016300974551035</v>
+        <v>1.3890612191261713</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>1.5136958926764774</v>
+        <v>0.5136658699333573</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>-0.6785970574696132</v>
+        <v>-1.4950843546124049</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>2.1179276153363666</v>
+        <v>-3.1124172425260346</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.8349572895050515</v>
+        <v>-0.701844295667855</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>-0.7818806837170924</v>
+        <v>-3.5668155115444633</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>1.136439451760186</v>
+        <v>0.8071259896407803</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>0.3711350000569463</v>
+        <v>-0.9572812593043389</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>1.4745635562408625</v>
+        <v>-2.0332059971704726</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>0.5809810294551006</v>
+        <v>-0.680261367406921</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>0.5111412786085556</v>
+        <v>-2.0066923006848802</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>0.04477459037778732</v>
+        <v>-0.2858595764750941</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.11834201773709101</v>
+        <v>0.05268059110658709</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>1.0955248603259786</v>
+        <v>0.42853097368167886</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1.1219128165331609</v>
+        <v>1.5164287124730111</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.535190118469772</v>
+        <v>-0.8367889698219332</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.639391096434181</v>
+        <v>0.22010516966961896</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>0.769405195873871</v>
+        <v>-1.6602816310035906</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>0.13331692606648013</v>
+        <v>-0.916424712255601</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>0.3834137683389026</v>
+        <v>-0.29517728567529516</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>0.8812293098663599</v>
+        <v>-0.5622119064905258</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>0.12323169783547348</v>
+        <v>1.2570586505133472</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.08734328399124268</v>
+        <v>0.1967497322842911</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>0.28958143554750343</v>
+        <v>-0.45056236721128257</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>0.6967020924157595</v>
+        <v>-0.010374627741797725</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>-0.6233554135224197</v>
+        <v>0.7224284538193403</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>-1.3074003077145955</v>
+        <v>0.6280977360947246</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>1.8605916343099422</v>
+        <v>-0.7569035698452821</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>0.1199446035437942</v>
+        <v>1.074361310814091</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>-0.2947030595403767</v>
+        <v>0.4244192266532164</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.22013821325645566</v>
+        <v>-0.7168178456509667</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1.512669264694973</v>
+        <v>1.6160929554360512</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>0.08741423667419847</v>
+        <v>-0.671654643577179</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.5724677204515497</v>
+        <v>-0.14630249517915805</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>0.30186174603670124</v>
+        <v>-0.22297300192988645</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>-1.179523217931366</v>
+        <v>-0.516093378481593</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>0.4065805420630498</v>
+        <v>1.1190212830989106</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>0.03773301602811362</v>
+        <v>-0.8610434797607442</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>0.9830514061190988</v>
+        <v>-0.20077411059244946</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>0.9074115818257001</v>
+        <v>2.2461982247363554</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>0.49055536269995964</v>
+        <v>-0.4625744053270806</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>2.782480609786019</v>
+        <v>0.8190510378670078</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>0.32454593202877097</v>
+        <v>-0.14869193953908064</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>-2.0861975341812604</v>
+        <v>-0.8378336888947813</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>-0.6210096078847345</v>
+        <v>-1.1129266597766225</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>1.6386338128367008</v>
+        <v>-0.9876334764547474</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>-0.8177467207742797</v>
+        <v>0.18164867304608237</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>0.18854196258390749</v>
+        <v>-0.21570915957998008</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.4216035951731268</v>
+        <v>0.30227446067927694</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>1.4204386612880004</v>
+        <v>1.6826351738632033</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.004333184257623434</v>
+        <v>0.6555742735850595</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>1.0666692873774875</v>
+        <v>-1.8354650662670382</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>1.1993325116746787</v>
+        <v>0.6375400146126577</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>0.037538070977799154</v>
+        <v>-0.402406356845514</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>0.9847842915654692</v>
+        <v>-0.6003404407471233</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>1.3510288326604545</v>
+        <v>-0.8336406595283402</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.056826828964414294</v>
+        <v>0.9248659840265089</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>-0.4945902358598018</v>
+        <v>-1.997360790206319</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5549992278343683</v>
+        <v>0.5212842225957512</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>-0.9219237691021094</v>
+        <v>0.6464790240016318</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>-0.004658737131172367</v>
+        <v>-2.77840274843269</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>0.19031928422311303</v>
+        <v>1.8296598761303486</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.9093314551249786</v>
+        <v>-0.7951778211318491</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>-0.32026858226368426</v>
+        <v>0.24444701628861457</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>-0.32459419307688925</v>
+        <v>2.0978034546387834</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.9253624814740381</v>
+        <v>-0.11686362977409444</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>-0.17753385628821888</v>
+        <v>0.7399483419434989</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>-0.31349603019839206</v>
+        <v>0.3653106351470803</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>1.046266199053664</v>
+        <v>-0.018151500165353704</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>1.3338487771017553</v>
+        <v>-0.6562888351626168</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>-0.8662397227648493</v>
+        <v>0.18009950842914924</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>0.8902158613353081</v>
+        <v>-0.8614571392790757</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>0.6977463038442987</v>
+        <v>-0.37479278897857526</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.6156521884377987</v>
+        <v>0.38771541177436086</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.9619510560443695</v>
+        <v>0.11219130662063291</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>2.4804647568618363</v>
+        <v>0.7918238578947859</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.36852137538981067</v>
+        <v>-0.0038204426747682264</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>-0.5027452199938818</v>
+        <v>1.137533025517081</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>-0.1924281546567494</v>
+        <v>1.1217747229786525</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.9545946443694733</v>
+        <v>-1.4517866716437169</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>1.72026328308802</v>
+        <v>0.1215634905745737</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>-0.22418147397534882</v>
+        <v>0.07740147522971508</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>-0.7174002721411558</v>
+        <v>-1.0734811477204278</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>1.1746960305247578</v>
+        <v>-0.4278598557301664</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>1.495251918718258</v>
+        <v>0.3487706049497273</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>-0.18062930815239567</v>
+        <v>1.0454540670015051</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>1.5349695922995636</v>
+        <v>1.148094125047616</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>1.3349994125400035</v>
+        <v>0.09106078922535688</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.5034973985955676</v>
+        <v>0.591774494669623</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.30383589441034237</v>
+        <v>-0.7325362754196925</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.6841128745593402</v>
+        <v>0.12402068074075169</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>-0.33162425621879116</v>
+        <v>0.04821963451428538</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.8373154214004681</v>
+        <v>0.602082214343178</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>-0.7925379060873973</v>
+        <v>-1.0686503474983815</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>1.2299705286936025</v>
+        <v>-1.1259623821439826</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>0.9886715792406334</v>
+        <v>1.0154975242230282</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>1.0718915496927863</v>
+        <v>0.015450673335246341</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>1.9290809561328208</v>
+        <v>-0.7826001479060217</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>-1.510676587804511</v>
+        <v>-0.4640318473164351</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>-1.3835907659290696</v>
+        <v>-0.13042159370362663</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.7982095441965398</v>
+        <v>-0.23102070960315682</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>-1.0827297991924112</v>
+        <v>0.6370781256865339</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>1.2705736483719896</v>
+        <v>1.0877470431015914</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.9540573074702369</v>
+        <v>0.4453387349746674</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>1.675617070335779</v>
+        <v>-0.09971367206565344</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.6218131407567072</v>
+        <v>-0.3537342061417577</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.11443032514859344</v>
+        <v>-0.8274044156660355</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>0.583432809918805</v>
+        <v>0.6672746432686757</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>0.04228937652962076</v>
+        <v>-0.49102822084196235</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>0.9171418214639574</v>
+        <v>-0.5563599204801174</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>-0.055909169241942225</v>
+        <v>1.5756618397163356</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>-0.07402775535070805</v>
+        <v>0.9040227708448162</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>0.5881405685212963</v>
+        <v>1.2985060865146303</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>-1.3610157788205912</v>
+        <v>1.0763398129666293</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>-0.9923804469077439</v>
+        <v>0.27700938930302055</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>0.19401038208472127</v>
+        <v>0.02692191291291199</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>-0.6902913154646855</v>
+        <v>0.06430402782476098</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>-0.47846294475929846</v>
+        <v>0.9930506064202301</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>-0.2904136275929702</v>
+        <v>0.6689753187222066</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>-0.2838446489689717</v>
+        <v>0.09636827024929141</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>1.726878863951197</v>
+        <v>-1.2373398338035202</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>0.21384108576854907</v>
+        <v>0.33778630630021694</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>-0.691117264620503</v>
+        <v>-1.4690535310108659</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>0.4017266743050478</v>
+        <v>0.8041837405004061</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>-0.3083620649838815</v>
+        <v>-1.187682253386211</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.37991119979748855</v>
+        <v>-0.15056940774165953</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>0.7673069735569921</v>
+        <v>0.15136495392179236</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>-1.8926631571412456</v>
+        <v>1.5760696332467834</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.10660505118580205</v>
+        <v>-0.5237885474582966</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.20990326838998066</v>
+        <v>-0.37672668993130864</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>-1.6443810458405246</v>
+        <v>-0.1687431367100549</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.4530288821096726</v>
+        <v>-1.3218752620849454</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>0.18751580518964853</v>
+        <v>-1.243340346270179</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>-0.3439388141473414</v>
+        <v>0.545928606019357</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>-2.5549243353245275</v>
+        <v>0.9734721695914914</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>0.12979832300456604</v>
+        <v>-0.221952734328814</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>0.8400206068107482</v>
+        <v>0.32380089668781914</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.365411351250399</v>
+        <v>-0.933079585672937</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>0.1958802554907909</v>
+        <v>1.3656046357154838</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>0.8352605683392146</v>
+        <v>-0.02839852347735872</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>-0.8408105423256003</v>
+        <v>0.3508397590002102</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.08691168510728807</v>
+        <v>-0.13023028481430216</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>-1.2048245515132867</v>
+        <v>-0.02285032823931989</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>-1.7016460488538225</v>
+        <v>-0.057688108284181853</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>-1.2670496051047706</v>
+        <v>0.6271664744113665</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>-1.153664531854087</v>
+        <v>-0.42353192374844667</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>-0.23710931336569066</v>
+        <v>-1.748031697854375</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>-0.015599109460167002</v>
+        <v>0.20775066602676504</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>-0.16808816103668991</v>
+        <v>-1.5959321577208307</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>0.19917128230567288</v>
+        <v>0.21940378710954522</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>1.281133141019605</v>
+        <v>-0.7443418275378757</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>-1.1265039468317146</v>
+        <v>-0.12307256666022215</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>1.273596716312453</v>
+        <v>-1.5973029851315288</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>0.07823354035293717</v>
+        <v>-0.3161468286945087</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>0.677624369339874</v>
+        <v>0.7759998324382307</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>0.31579804692338725</v>
+        <v>-0.6778799347820914</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>1.7900792282524527</v>
+        <v>-0.12448230652317256</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>-0.7932393298177961</v>
+        <v>0.40483096907520344</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.14486954736702964</v>
+        <v>-0.9701851082034411</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>0.38013907118624163</v>
+        <v>0.0075150343790649984</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>-1.8108836644088366</v>
+        <v>-0.7182496216556489</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>1.4385246553463784</v>
+        <v>-0.0711411882410372</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>2.062746527321176</v>
+        <v>1.1681441983047591</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>-0.9575691635666865</v>
+        <v>0.15301372650980627</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>-0.40330066484317456</v>
+        <v>0.641261754219912</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>-0.017339457200088382</v>
+        <v>-2.5587737553320298</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>-1.40378673353643</v>
+        <v>0.20980885772993899</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>0.04099737099085877</v>
+        <v>-0.3219454312634558</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>-1.79673413217188</v>
+        <v>0.5594846020236048</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>-0.4508644041000278</v>
+        <v>0.16420879031648725</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>0.3733292743698126</v>
+        <v>-2.0450701103615776</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>0.4487044892740795</v>
+        <v>-0.7201066315084778</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>-0.761592149846506</v>
+        <v>0.36620023904076365</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>0.08032905348007434</v>
+        <v>-1.9121996218362352</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>0.27632943817077044</v>
+        <v>0.798345224269301</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>-1.7251190898936573</v>
+        <v>0.4662790917646436</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>-0.358697042808848</v>
+        <v>-1.2620076565028389</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>0.2286448030593703</v>
+        <v>0.5053483731066089</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>-0.40260781738142953</v>
+        <v>1.7620511062708561</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>-1.6492222357535373</v>
+        <v>0.2605699129217679</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>0.015972499570079037</v>
+        <v>0.47480582065128807</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>-0.25770558722904413</v>
+        <v>0.567749201813267</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.28749522996509264</v>
+        <v>-0.6441715422918821</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.015087432122326935</v>
+        <v>-0.1904848453586343</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>0.644151427337816</v>
+        <v>-0.3476085625900679</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>0.20487612200601413</v>
+        <v>1.5873754344965063</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>0.6040311687090079</v>
+        <v>0.8021699028676732</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.45354078450105034</v>
+        <v>-0.16535445198814092</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>0.8000209499011061</v>
+        <v>-0.07936249433871535</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>-0.1868584285841989</v>
+        <v>0.28206897031974365</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>0.551798582869278</v>
+        <v>0.6354832550854632</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>0.5298623100098</v>
+        <v>-0.3780295697987805</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>0.5075140065136181</v>
+        <v>0.0031829209787871183</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>-2.8541480888780124</v>
+        <v>-0.4106183973345919</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>-0.20172887516555557</v>
+        <v>-1.0196538479053443</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.16554291148417438</v>
+        <v>-0.6286598629937675</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>0.37136942209704793</v>
+        <v>0.3497801813196298</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>0.49032819863844657</v>
+        <v>1.0039386434372994</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>1.7800096517275805</v>
+        <v>0.44560933522798757</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>-1.17576914215045</v>
+        <v>-1.3495313076973143</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>0.7564509458805497</v>
+        <v>0.15937338801954926</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>-0.8079859559921728</v>
+        <v>-1.8262684817603783</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>0.9975942576738637</v>
+        <v>-0.2652812760273907</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>-0.2732636570661357</v>
+        <v>-1.137592155972979</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>0.7084608676588169</v>
+        <v>0.12883151638469895</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>-0.8299773011837221</v>
+        <v>0.9670792057556451</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>-1.9792996715202034</v>
+        <v>-0.24681329398827212</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>-0.8716650444500484</v>
+        <v>0.15951486667040352</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>1.5964732838591174</v>
+        <v>0.26870769592139476</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>-0.6318051392249363</v>
+        <v>-1.668300317739223</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>0.03363720706142513</v>
+        <v>-0.7407691179106632</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>0.11641081426314484</v>
+        <v>0.9275032703855078</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>-2.3097752540699332</v>
+        <v>0.30876026956019553</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>-0.8840329444980154</v>
+        <v>0.8766603644968488</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>0.00922429334785003</v>
+        <v>1.0804534536811619</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.5559673567804921</v>
+        <v>-0.0900309548328022</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>-0.19897018902292413</v>
+        <v>-1.865250529683787</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>-0.2800513364750525</v>
+        <v>0.1769801174659995</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>0.023964603743566567</v>
+        <v>0.6945169587106522</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>0.3835013464430002</v>
+        <v>-0.08466983653774866</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>-1.0703944367932066</v>
+        <v>-0.621540028299933</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>1.4677091562107418</v>
+        <v>-1.8738538964447478</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>-2.100857847718779</v>
+        <v>-1.3697238635973423</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>-1.8509505410494738</v>
+        <v>-0.6745367748315855</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>0.15748221918934102</v>
+        <v>1.0355520897026476</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.22836409289622805</v>
+        <v>-0.02642933130872364</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>0.09922517434158587</v>
+        <v>-0.1774827306463921</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>0.918444701619754</v>
+        <v>-0.8742697128991468</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>-2.297618628323602</v>
+        <v>0.06964851054959124</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>-1.4062770333361756</v>
+        <v>1.5598866567866396</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>0.22238472860858863</v>
+        <v>0.40345464697835676</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>-0.5141102223421424</v>
+        <v>0.08843803464634249</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.44669880296835834</v>
+        <v>-0.7124684485797945</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.644146883624406</v>
+        <v>-0.12424400423455041</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>0.34717100419576175</v>
+        <v>1.1879008448704562</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>-1.0002526075926763</v>
+        <v>-1.6209975160758852</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>-0.8047816230905339</v>
+        <v>-1.480272212905495</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>1.4794989161081453</v>
+        <v>0.7328744655111455</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>1.028096662182864</v>
+        <v>-0.047173077042909364</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>0.47659541552516177</v>
+        <v>0.47815187255541686</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>-0.8218248834513469</v>
+        <v>0.3545885447318564</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>1.971876025811204</v>
+        <v>0.8299542947633578</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>0.7217817805918737</v>
+        <v>-0.47735031429704866</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.8711427739956832</v>
+        <v>-0.5260022897455005</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.13467640382922724</v>
+        <v>-0.9009286170690324</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>0.629657502023272</v>
+        <v>-2.8615677685754557</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>0.7788525253841412</v>
+        <v>0.7019204966884518</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>-1.4131757218420775</v>
+        <v>-0.5651676665060095</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>-0.7587261712446552</v>
+        <v>0.3403380815353351</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>-1.607633036928189</v>
+        <v>-1.2496884071586756</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>0.6010519483085605</v>
+        <v>0.33320817323801144</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>-2.1444716830790633</v>
+        <v>1.2736050679326953</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>-2.1355407329411693</v>
+        <v>2.087425466981098</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>0.18744068337190095</v>
+        <v>0.17864861968215534</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.19195189948221938</v>
+        <v>-0.13246889930047287</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>0.5321311837505875</v>
+        <v>-0.7140657721374107</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>1.6386383880775055</v>
+        <v>-1.2040892172097757</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>0.3908420252009611</v>
+        <v>-0.2801786031804761</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>0.5193296147763383</v>
+        <v>0.6245116355471076</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>1.518081853069097</v>
+        <v>-2.5544097978174594</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>0.3619560139411113</v>
+        <v>-2.697374835078886</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.18202335789696644</v>
+        <v>-0.813025699827996</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>2.1242953353342187</v>
+        <v>0.9191743540942516</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>1.0856633979247345</v>
+        <v>0.5863936295356036</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>-0.37732348923185405</v>
+        <v>-2.01873230100531</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.0770651234066898</v>
+        <v>-0.33148814956214395</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>-0.6498462406157709</v>
+        <v>0.9336293699922357</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>-0.3761883327383061</v>
+        <v>0.8897647022267331</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>0.8104688260956195</v>
+        <v>-1.1221554414647235</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>-0.27560647795974746</v>
+        <v>1.722266411653967</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.8436043651724323</v>
+        <v>-0.08465965411049364</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>2.0903794864808383</v>
+        <v>0.7019520973264127</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>-0.15634194078363925</v>
+        <v>0.10688922041335448</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>-1.3140194320339746</v>
+        <v>1.025568149901172</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.6543928698693667</v>
+        <v>-0.782541995604252</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>1.0273303091687631</v>
+        <v>0.28333598380848724</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>-1.5764196965938302</v>
+        <v>-0.18339314019360206</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>-0.5387404145543571</v>
+        <v>0.13045125850613737</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>0.43191916802990354</v>
+        <v>0.30744012308864216</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>-0.7837578483884643</v>
+        <v>-1.172443149541805</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>0.6536952882759338</v>
+        <v>-0.7564871496789995</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>0.2647087093045246</v>
+        <v>1.0473973359390394</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>0.3712170814169737</v>
+        <v>-0.4430496174036708</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.1333399700370571</v>
+        <v>-0.5819449562976109</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>0.5267005525844691</v>
+        <v>0.7821594109999945</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>0.15194207609248242</v>
+        <v>-0.5782797870705187</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>-1.7771273310907043</v>
+        <v>0.13508022748302614</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.16609418693532324</v>
+        <v>0.624067568813715</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>0.44016781605986527</v>
+        <v>1.2898373547592545</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.046687200102953665</v>
+        <v>-0.5933285453269225</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>1.1182506133573302</v>
+        <v>2.066794785192593</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>-0.0672557827769728</v>
+        <v>1.1348704650565373</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.9350220295707463</v>
+        <v>-0.5701461801734153</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>-0.5082031773803228</v>
+        <v>0.2560571512012784</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>0.9158854455061204</v>
+        <v>-1.2734623730670425</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>-0.26808849334136103</v>
+        <v>2.6705158890274583</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>0.27626738504951637</v>
+        <v>-0.44430250851846426</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>-0.22172064571397918</v>
+        <v>0.1026485996419547</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>-0.8190009179810435</v>
+        <v>1.283368181710213</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>0.8233060438678711</v>
+        <v>0.6663581095596778</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>1.7730380440721583</v>
+        <v>0.3749420401411583</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>1.5202804218090085</v>
+        <v>0.5592540688899601</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>1.0185777081725433</v>
+        <v>2.1068954792443697</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>-1.1313361530030523</v>
+        <v>1.7782059701856698</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>0.8731253666900227</v>
+        <v>0.28825994849275477</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>0.687916176099557</v>
+        <v>1.0054532497266233</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>1.1369360521941665</v>
+        <v>-0.3085805152561652</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>1.503349778194467</v>
+        <v>0.4307970130758189</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>1.2426537372211939</v>
+        <v>1.0296456718026687</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>-1.353466905397554</v>
+        <v>0.06153597281545805</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>-0.34495125228554563</v>
+        <v>1.689164212619029</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>0.6199749359100363</v>
+        <v>0.12499118367472747</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>-0.1300492597838399</v>
+        <v>0.1810090613281652</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>-0.8547850174396011</v>
+        <v>0.4841546842891448</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>0.9959548767119717</v>
+        <v>-0.5757058322290348</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>0.7404393234274298</v>
+        <v>-0.941525553496603</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.14693630708354805</v>
+        <v>-0.351871983144355</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>1.2384002251712012</v>
+        <v>-0.1647116610809369</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>1.6733857777803114</v>
+        <v>0.75836581663036</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>2.8771942454572867</v>
+        <v>0.5457668567673769</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.18266178407115438</v>
+        <v>-0.25230111763894403</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.5127130397511627</v>
+        <v>-0.5408670529710753</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>0.24644715468081463</v>
+        <v>2.4953352517609098</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>-0.12520312568183511</v>
+        <v>-1.506332412847312</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>-0.6504489548774378</v>
+        <v>0.2013452892723774</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.6549755276529388</v>
+        <v>-0.9268934917753345</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>1.4702524729073856</v>
+        <v>-0.6026770111148348</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.22338031539391137</v>
+        <v>-0.6378803001270843</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>0.9770484741883126</v>
+        <v>-0.13750304867797655</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.7578211017359398</v>
+        <v>-0.7921285235263553</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>-0.4535750085346438</v>
+        <v>1.7690468325723074</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>-0.5771823802784444</v>
+        <v>0.08376582141715981</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>0.17835511486998057</v>
+        <v>0.14802831300332747</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>1.439692265136789</v>
+        <v>0.7878096266676498</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>0.2544166156779344</v>
+        <v>-0.608201782420859</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>0.9097035949593475</v>
+        <v>-2.1578633157747853</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>-0.39082690969883094</v>
+        <v>0.4192678095974345</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>-0.44601153902789026</v>
+        <v>-1.4595444227529515</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>-0.2536090974690504</v>
+        <v>0.07499101597483776</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>0.21256800679747176</v>
+        <v>0.47904119877172857</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>-0.7370873904232912</v>
+        <v>0.78398397149894</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>-2.3610379152650554</v>
+        <v>0.3784100232175909</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>0.27092144529419526</v>
+        <v>0.748577450324846</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>0.8340853173795445</v>
+        <v>-1.3339298049889274</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>0.578317364887505</v>
+        <v>-1.0290807110141666</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.6709288858111837</v>
+        <v>-0.5094069102764072</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>-2.278077464548384</v>
+        <v>0.25385668123099525</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.19807153930534924</v>
+        <v>-0.07449138685024924</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>-0.5703452223693682</v>
+        <v>0.3478553674390763</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.26213178561428024</v>
+        <v>-0.9983768355516086</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>1.0094043216595603</v>
+        <v>-0.14747274975310243</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>0.06291489540849897</v>
+        <v>1.1000047566743445</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>0.13649249819515094</v>
+        <v>0.029149958150688483</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>0.37152573866589284</v>
+        <v>0.8105125063440531</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>-0.04263631349365101</v>
+        <v>1.0912332192305023</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>0.48370935859650427</v>
+        <v>0.7347765503847019</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>-0.5550522696437373</v>
+        <v>1.8867429483400209</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>0.9666691308954665</v>
+        <v>0.8153269509485576</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>1.9636078086832074</v>
+        <v>-0.4857087410351736</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>-0.6627520010903835</v>
+        <v>-1.0980411728272361</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>0.10354872097642102</v>
+        <v>1.3314536353450002</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>-2.35729821192119</v>
+        <v>0.9453509719988187</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>-0.8130446254008526</v>
+        <v>1.1179815293883042</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>0.7209907797440308</v>
+        <v>-0.6840591890537033</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>0.710149538431907</v>
+        <v>0.5234142646629879</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.4912179815371087</v>
+        <v>-0.4540294682950209</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>-0.797384386421626</v>
+        <v>0.16956482278904852</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.067615420257841</v>
+        <v>-0.43004018500804514</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>-1.121289715372772</v>
+        <v>-0.30795975086087984</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>-3.1324374654696197</v>
+        <v>-0.4381298438952973</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.9214974714446855</v>
+        <v>-0.23434953513409934</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>-0.4828665123323509</v>
+        <v>1.0583924154477324</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>-0.4210147477310191</v>
+        <v>0.21569641073721188</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.030092202718914517</v>
+        <v>-0.9970863631960657</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>-0.7166341234846829</v>
+        <v>0.40665409265490804</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>0.9741278308792185</v>
+        <v>0.04412058919745423</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>0.3337515330029387</v>
+        <v>1.2256120284645786</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.45452394481781594</v>
+        <v>-0.2940037284326418</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.9577630559689251</v>
+        <v>-0.47849789672199555</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>-1.854899464209064</v>
+        <v>0.47276550081487556</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.8092437195401347</v>
+        <v>-0.7149864619221861</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>-3.202186158553989</v>
+        <v>-0.8110317177051071</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6918440999325428</v>
+        <v>0.6141752983953706</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>1.0984047052385046</v>
+        <v>-0.9477085426612876</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>1.7379528619308853</v>
+        <v>-0.7486524131342354</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>-1.1092957926403577</v>
+        <v>1.4311581614161983</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.3990071342991993</v>
+        <v>-0.4483913429209242</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>-0.5506047877300977</v>
+        <v>1.2260076359434178</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>-0.7574908336838196</v>
+        <v>0.04368554522497991</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>-0.14681217913947117</v>
+        <v>0.36864665432808724</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>-0.8272456142886144</v>
+        <v>0.9355794411779568</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>-0.20238877752063533</v>
+        <v>0.9449773766522073</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>1.480711584031024</v>
+        <v>-0.7991693195497103</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.7126995713110711</v>
+        <v>-0.2914951546508132</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>-1.2831072612964929</v>
+        <v>-2.1615242278118347</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>-0.7070063160550382</v>
+        <v>0.11791747243438387</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>0.9900684080007688</v>
+        <v>0.5984630679056515</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>0.27127728856000827</v>
+        <v>-1.69886917326893</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>-0.9082102059383799</v>
+        <v>1.7609074021326026</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.5929348681227615</v>
+        <v>-0.33866714455824837</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>-1.6050745691594754</v>
+        <v>0.26842517626031953</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>-1.15740044707781</v>
+        <v>-0.29312862637896314</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>-2.4765038541936444</v>
+        <v>-0.8601340173709628</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>-0.5804964573433251</v>
+        <v>1.2030672787376349</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>-1.3059509099896578</v>
+        <v>0.8306271562991077</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>0.15667250722759773</v>
+        <v>1.5663496296431216</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>-0.05385873320512293</v>
+        <v>-1.4690839678858043</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>-1.6233659857089056</v>
+        <v>-1.1653391605104213</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>1.2471742992231323</v>
+        <v>-0.17101503032760304</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>1.5348673641760582</v>
+        <v>0.390846566317593</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>-1.068782844016339</v>
+        <v>2.461888369806766</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>0.12839375788127733</v>
+        <v>-1.182543140152583</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>-2.4912966988120306</v>
+        <v>0.352327286593178</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>1.075898106828268</v>
+        <v>0.2884832043217762</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>0.15677199694535746</v>
+        <v>0.45084842478318404</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>1.8138245244434579</v>
+        <v>-0.1881070536919109</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>1.8723924037126536</v>
+        <v>-0.40598435876497563</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>-1.231233689166244</v>
+        <v>0.18057014250633452</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>-0.5351990474643868</v>
+        <v>1.350729086005322</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>-1.1035718000331292</v>
+        <v>0.5859150392659691</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>0.1450140938076766</v>
+        <v>-0.3872375245458625</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>1.4347882240091228</v>
+        <v>-0.968685493338201</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>0.542186300464901</v>
+        <v>-1.0422739640380094</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>-1.1718763888457577</v>
+        <v>-0.3591953391619638</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.6852447191742896</v>
+        <v>-0.5590540264182834</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>-1.2578744040481777</v>
+        <v>0.2211728084048191</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>0.07775810286286983</v>
+        <v>-0.5042553579260663</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>0.27748728182852656</v>
+        <v>1.0599125576086033</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>-2.494308041739539</v>
+        <v>-0.4823676731843835</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>0.8153107336719911</v>
+        <v>-1.1350248324546393</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>-2.169964549130058</v>
+        <v>0.5882358344369535</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.20412973805090634</v>
+        <v>-0.5934522826732311</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>-1.1168179334486117</v>
+        <v>0.0466691566043733</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>-0.12541643802661348</v>
+        <v>0.6704744264460178</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.9167455820831212</v>
+        <v>-0.7996004232850229</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.30578026663320795</v>
+        <v>-0.35525906881060865</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>-1.0778319343913403</v>
+        <v>-1.8561854066755592</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>-0.7505169401923938</v>
+        <v>0.8960850628058066</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>-0.34701095799466153</v>
+        <v>0.818784919993359</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>0.29018554678121633</v>
+        <v>0.42294829229442826</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>0.1270206592334127</v>
+        <v>0.15431139798043733</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>-1.352446885348027</v>
+        <v>0.008752772637139616</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>0.488819278959677</v>
+        <v>1.914257717515314</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>1.0692229873245483E-4</v>
+        <v>0.18029630818810943</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>-1.275059593098259</v>
+        <v>-0.8203150758996804</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>-0.7707577316767442</v>
+        <v>1.2558559984312212</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>2.417257498143879</v>
+        <v>2.0542954542003424</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>0.8593685251292676</v>
+        <v>0.7402460545494216</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>1.5589432256178894</v>
+        <v>1.5964139427312378</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>1.820246274663502</v>
+        <v>-0.7396070693181386</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>1.2049488716789696</v>
+        <v>0.7150649380073788</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>0.3620661001704448</v>
+        <v>0.7760769619182789</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>1.670983344274123</v>
+        <v>1.1874636372559992</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>-0.9966500396312501</v>
+        <v>0.45540407447043585</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>-0.7285229518600048</v>
+        <v>0.6684110882734594</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>-1.8474488597643746</v>
+        <v>-1.5426378826577827</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>0.22371722170320635</v>
+        <v>0.8250368299244238</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>-1.0575946690610216</v>
+        <v>-1.7412814115825364</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>-2.1416096660669073</v>
+        <v>0.3429142760104741</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>0.9311914947994748</v>
+        <v>-0.2451964881692109</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>0.5807630475599581</v>
+        <v>-1.1276707955490248</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>0.3245385183134417</v>
+        <v>-0.41644420276539856</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>-0.8427351555947621</v>
+        <v>-2.000267503297457</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>0.2647975886418848</v>
+        <v>-0.9082401134239823</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>-1.6679560610606852</v>
+        <v>0.48197335387110024</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>1.6264084592042871</v>
+        <v>0.17260821745756866</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>-0.5210491493145638</v>
+        <v>0.5034165105242847</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>0.6383347680217341</v>
+        <v>0.6700631765753815</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>1.0269402338649092</v>
+        <v>-1.0024849267478166</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>-0.6450521336124344</v>
+        <v>0.13284630035105607</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>1.0931835928622968</v>
+        <v>0.8702724083474549</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.19971165757517406</v>
+        <v>-0.8020679769486806</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>0.8975466592139711</v>
+        <v>0.5616727234421481</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>0.7767240203789318</v>
+        <v>-1.8882447586032987</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>1.300027997624406</v>
+        <v>1.270862323236186</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>-0.6133478499277337</v>
+        <v>-0.2734469500643396</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>0.17765203497644189</v>
+        <v>0.03481493102937932</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.7607484375631287</v>
+        <v>-0.6219081436254291</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>0.5098902198164071</v>
+        <v>-0.046850955798136334</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>1.3708241707693587</v>
+        <v>2.0125072137952933</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.5465020695888833</v>
+        <v>-0.3954555767305645</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>0.16256760575337437</v>
+        <v>-1.1714218521066206</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>0.44065388855086296</v>
+        <v>-0.37776301356796793</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>-1.7037058023100902</v>
+        <v>0.28264245854876274</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>-0.5519883753809827</v>
+        <v>0.0015695092306792172</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>-0.15600525320896363</v>
+        <v>0.9495854095985117</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>0.12091442546221783</v>
+        <v>0.38929836652422045</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>1.8068586879103266</v>
+        <v>-0.29571523458905724</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>1.9244469499321653</v>
+        <v>0.15860822490115323</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>-0.2458690312535164</v>
+        <v>0.518918655541928</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>0.34001232502895673</v>
+        <v>0.40150066738311424</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.316202690104666</v>
+        <v>-0.4025733771468606</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>0.34490258419982783</v>
+        <v>-0.8801830532065976</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>-0.1411452001841663</v>
+        <v>1.21595230438406</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>0.12845148439201906</v>
+        <v>-0.2945636932560915</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.18166578531630065</v>
+        <v>-0.19952827443606416</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>0.28787929671612117</v>
+        <v>-0.322511217130224</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>0.04442654624030803</v>
+        <v>-0.7211703983643367</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>-0.4627956713653428</v>
+        <v>0.6217312773652998</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>-1.1086369799637645</v>
+        <v>-1.4846929579586179</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>0.5000192685954843</v>
+        <v>-0.8435955705048608</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>0.30333176509614435</v>
+        <v>-2.4905333528075673</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.1039358851884949</v>
+        <v>-0.4667082029039722</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>-0.27024801554740147</v>
+        <v>0.24525016969056246</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>0.08166541994869404</v>
+        <v>-0.26901413415675596</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>0.6179742359914052</v>
+        <v>-2.345275599450017</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>1.4434806652088372</v>
+        <v>0.7538462628140423</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.15397063021834798</v>
+        <v>-0.5115034686217923</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>-1.0103760533708823</v>
+        <v>-2.3394925723789335</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>0.29644216064277695</v>
+        <v>1.0309049307289275</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>-0.9771187589051025</v>
+        <v>0.6727800302806545</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>-1.3239984648270002</v>
+        <v>-1.2173068638671403</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>1.628954833266034</v>
+        <v>0.2831674683540598</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>-1.1729723966739038</v>
+        <v>0.7825881239358103</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>1.2210580136512326</v>
+        <v>-1.1614158483853598</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>-0.07978863559844643</v>
+        <v>0.7354710531779924</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>-0.26676706679516776</v>
+        <v>0.37958292476222266</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>0.5842952420870058</v>
+        <v>-0.23826789114998131</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>0.42572730000151493</v>
+        <v>1.6746275276096683</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>-1.2905931501871382</v>
+        <v>-1.05115329106069</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>2.205580118064216</v>
+        <v>1.0113454513497944</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>1.2533140700375232</v>
+        <v>-0.27381658547382765</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.20141225226805143</v>
+        <v>-0.6994278833499686</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>-1.040088280604351</v>
+        <v>-1.0518490437878103</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>-1.1110781677286863</v>
+        <v>1.273003700317852</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>-0.3544248271619146</v>
+        <v>0.4338715722039077</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>0.858799484470513</v>
+        <v>0.8985487638115711</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>-2.6119903348094495</v>
+        <v>0.12460702717309917</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>1.0264541948557577</v>
+        <v>-2.2571629268774394</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>0.7651377123439288</v>
+        <v>0.6402195207910414</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>1.3452398800562575</v>
+        <v>1.0280612621263336</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.45748899322211795</v>
+        <v>-0.08058018987228854</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>-1.5983963427262011</v>
+        <v>-0.20052727585361882</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>-0.4674260081849077</v>
+        <v>0.0840587426302332</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>0.3691859322194216</v>
+        <v>0.12490893653354791</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>0.4870487521139516</v>
+        <v>-0.34381993782825915</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>-0.4477491108614993</v>
+        <v>1.0796060362798967</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>1.0994836719962944</v>
+        <v>0.5263826015058116</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>-0.41205861898464796</v>
+        <v>0.17016984273778565</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>0.8034888725027894</v>
+        <v>1.0176711822853648</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>-1.824835454171983</v>
+        <v>0.4171904805623691</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>-1.4488470151891883</v>
+        <v>0.7092396094552483</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>-0.6471067836473735</v>
+        <v>-1.4826426767443266</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>-0.6371350247830506</v>
+        <v>-2.4062829773944068</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>0.8761386920682839</v>
+        <v>-0.7485542126568752</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>-0.574061312568952</v>
+        <v>0.16147077618612593</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>-0.5201873043911218</v>
+        <v>1.7569009834447105</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>-1.9711802826288756</v>
+        <v>-0.001906950343786596</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>1.9056086098477385</v>
+        <v>1.2075186063210797</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>-1.7183925521983567</v>
+        <v>-1.0724590132604968</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>0.13508991091908032</v>
+        <v>0.6743079933737461</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>-0.9104492900618226</v>
+        <v>-0.628191512072635</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>-0.9477420210538682</v>
+        <v>-1.7363856480122954</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>0.08190036540574927</v>
+        <v>-0.8846541515801634</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>-1.3997114222768205</v>
+        <v>-1.509483862979553</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.32681224042665263</v>
+        <v>-0.6674747006611073</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>-1.2814678187162651</v>
+        <v>1.9432137560214824</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>-1.0582842988839514</v>
+        <v>0.6574009127387882</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>-1.193861318401334</v>
+        <v>-1.0460501341159072</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>-1.9496273467966687</v>
+        <v>0.13768728730937452</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>1.4925357957330194</v>
+        <v>-1.3523267819993618</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>-0.8825619484087436</v>
+        <v>0.1753606134443935</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>-0.9938812068341382</v>
+        <v>0.5246774258104435</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>-0.2593846157899968</v>
+        <v>1.6877433302043567</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>-1.5877023966253971</v>
+        <v>-0.03985068539217216</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>-1.1155132909373124</v>
+        <v>-2.8518000381414734</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>1.2324414102919203</v>
+        <v>-1.3014623581234657</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>-0.46132576737405767</v>
+        <v>0.7701379122867937</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.6423498175501026</v>
+        <v>-0.2892649255773331</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>-0.20338046745596353</v>
+        <v>0.046062912305625286</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>1.1178674550673622</v>
+        <v>-0.02556578680794063</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>-0.7191311204748807</v>
+        <v>-0.7891543848374749</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>-0.19727093214850455</v>
+        <v>1.2538831480454304</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>0.4870347354768795</v>
+        <v>-0.29289417731388195</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>1.3404587976586415</v>
+        <v>-0.26180519940845504</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>-0.29735768956735864</v>
+        <v>0.26354317459769594</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>0.5562036669050429</v>
+        <v>-0.3855030402968438</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>-0.15704012592976715</v>
+        <v>-1.7202560407031564</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>0.21250566216844494</v>
+        <v>1.5379690262778911</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>0.203851568419936</v>
+        <v>-2.0115162825258843</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>-0.2510269805422388</v>
+        <v>-2.8021240943597263</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>0.8135174159245816</v>
+        <v>0.029223388089929914</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.1600435393849004</v>
+        <v>-0.003698966679866777</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>-0.28560575725536846</v>
+        <v>1.0536419510453436</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>1.6334300710004521</v>
+        <v>0.24166341124113336</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>0.8877841478584768</v>
+        <v>-2.0362494635375907</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>-3.2920576060995335</v>
+        <v>-0.32896227574500264</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>-0.1649793623811213</v>
+        <v>-1.5889053241473952</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.9111166880849476</v>
+        <v>-0.0025223465850679042</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>0.3600804410297002</v>
+        <v>0.5337384839521705</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>-0.7690623844120682</v>
+        <v>-0.029059091820806657</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>-0.04007244518694561</v>
+        <v>0.6320939108649152</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>-2.1218725569194374</v>
+        <v>1.4143133093360987</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>0.36263661812043835</v>
+        <v>0.7889976893550246</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>-0.5369182533659443</v>
+        <v>0.6347793172568332</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>0.42975692729285603</v>
+        <v>0.14491199745153624</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>-1.0823516788520455</v>
+        <v>1.7126535196731192</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>0.6256842663035649</v>
+        <v>-2.234369871117413</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>-0.2946296631730829</v>
+        <v>0.11914369599407916</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>-1.0197104466843099</v>
+        <v>0.9367026457177404</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>-0.038745970686479794</v>
+        <v>0.23069313603936734</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>0.18711981561717447</v>
+        <v>0.282820134214455</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>-1.3418241605027752</v>
+        <v>-0.5235451836378827</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>0.06668567418117194</v>
+        <v>2.0521701030534456</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.8057091791345984</v>
+        <v>-0.17941218114566038</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>0.4893835359998535</v>
+        <v>-0.07089319817200365</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>1.0687566841106904</v>
+        <v>-0.40235921010670406</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>-0.05528008411514909</v>
+        <v>0.8259996961515688</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>0.2566735298813891</v>
+        <v>0.5609302613410364</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>-0.6401292499618164</v>
+        <v>0.1275515438909644</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>1.8129665494692475</v>
+        <v>1.6948909344440561</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>0.2256460902544223</v>
+        <v>-1.4746015375707657</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>0.8420799546253455</v>
+        <v>1.6661897467843076</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>0.824579764540203</v>
+        <v>0.5054888875278956</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>1.5542204490053189</v>
+        <v>-0.07218596685623416</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>-0.2031737967677902</v>
+        <v>0.6120666823588987</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>-0.3786052645759934</v>
+        <v>2.0699364987392075</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>1.2617666633653635</v>
+        <v>0.9228548668907083</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>1.045846468715608</v>
+        <v>0.3758538688090673</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>-1.5192688925726063</v>
+        <v>0.20456947301231238</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>0.8982650717190838</v>
+        <v>-1.2759595570781201</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>0.5907293294536371</v>
+        <v>-0.20454584387004826</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>-0.15181256288787925</v>
+        <v>0.3049532215236158</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>0.39704053068334066</v>
+        <v>-0.726388476241877</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>-0.22172765443743522</v>
+        <v>-1.6070013203055629</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>1.6931121975148153</v>
+        <v>0.3071052744950314</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>-1.0174467369377203</v>
+        <v>-0.5642082830669761</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>-0.06874278068947443</v>
+        <v>0.017030572812591054</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>-0.09282767749585284</v>
+        <v>1.2968567353200464</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>-1.02265443068338</v>
+        <v>-0.0626800951508041</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>0.7681355264907374</v>
+        <v>1.3999186429756476</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>-0.6884507393362906</v>
+        <v>1.6648551666140858</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>-1.0197021684429224</v>
+        <v>-0.24057274905674958</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.4545523041300461</v>
+        <v>-0.9023252736947358</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>1.0163468035147138</v>
+        <v>1.6397429546071898</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>-0.21439472134136273</v>
+        <v>0.36198353861688165</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>-0.3458082444348331</v>
+        <v>0.11539900331628974</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>-1.0176790349757525</v>
+        <v>1.802776024904148</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>0.11273719457992341</v>
+        <v>-1.3963133069095233</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>0.45878773397667777</v>
+        <v>-0.3698041784866961</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.20170822909019473</v>
+        <v>-0.4133984766164849</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>0.6495872638478751</v>
+        <v>-0.3167913390657912</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.8613030153290852</v>
+        <v>-0.23395482127959433</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>-1.4144796139181197</v>
+        <v>-1.5338222130971513</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>-1.456461431010068</v>
+        <v>-0.5001954779514595</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>-0.6648668039848975</v>
+        <v>0.9826410063612888</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>1.2990366027041211</v>
+        <v>0.222290520060341</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>-0.5460731632435887</v>
+        <v>-0.47166179260183677</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>0.1781020145631765</v>
+        <v>0.6300391257614915</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>0.5991216436604847</v>
+        <v>0.20555721801904217</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>1.9346633133634117</v>
+        <v>0.7462728750204917</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>-0.6146219017508934</v>
+        <v>-2.6463651457986583</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>1.838352895802204</v>
+        <v>-1.4671386218005198</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>-1.2637083091169123</v>
+        <v>1.742119533679402</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>-0.12423873635619284</v>
+        <v>1.3925024210286299</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>-0.12173831818404468</v>
+        <v>0.6563456804495992</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>-0.0743367272965095</v>
+        <v>-1.8838147860088241</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>1.3768138512178596</v>
+        <v>-0.7062467683750988</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>-1.07800855441014</v>
+        <v>-1.1508851965079272</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>-0.9032425326101104</v>
+        <v>0.6406857109808622</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>-0.37931401160745</v>
+        <v>1.038550011195831</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>0.3643045011680514</v>
+        <v>1.2507535297129293</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>1.1746721832809492</v>
+        <v>1.0326795458258249</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>0.9413451461547155</v>
+        <v>0.6137774289343947</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>1.516450199334753</v>
+        <v>1.6461045582811367</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>-0.23954942787294312</v>
+        <v>-0.22645373676691585</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.11626301140412273</v>
+        <v>-0.916037058094769</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>-0.9987883225490249</v>
+        <v>2.077867154290903</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>-0.5556141614848321</v>
+        <v>-1.1436448444826062</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>-0.23294056708524777</v>
+        <v>0.9997112357231853</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>-0.07013814592441608</v>
+        <v>-0.315888295358989</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.043177421386099334</v>
+        <v>-0.33537975780359053</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>-0.3077385822087981</v>
+        <v>-0.4419963403412096</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>2.9572405557603503</v>
+        <v>-0.508837914048683</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>-0.22319972976381142</v>
+        <v>0.09497073803386667</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>0.7768669106265319</v>
+        <v>-0.8878027234359648</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>1.342939139213283</v>
+        <v>1.0962994466631364</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>0.42158091486865246</v>
+        <v>-0.2420576872014513</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>1.174359174924838</v>
+        <v>0.3983150256932379</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>-9.539260638591296E-5</v>
+        <v>-0.7102718216638473</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>-0.10289424019419309</v>
+        <v>0.5339884968140727</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>0.30042421756251675</v>
+        <v>0.3891371517077042</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>0.24943162423412843</v>
+        <v>0.004828075463463967</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>-0.09720483930650461</v>
+        <v>2.2048103075086303</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>0.5127268279575414</v>
+        <v>-1.5486102575334502</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.08398258214091091</v>
+        <v>-0.8478021654996786</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>-0.5361706196413083</v>
+        <v>0.07815498586497338</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>-1.231309866502067</v>
+        <v>0.8986261966135184</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>0.0964864676897833</v>
+        <v>1.4704672415251967</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>0.751842513928227</v>
+        <v>-1.0163045414771117</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>-1.2345970103121122</v>
+        <v>-0.13969302824225693</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>0.03796055241989938</v>
+        <v>1.6730244155835943</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>-0.0673852600920833</v>
+        <v>-2.683897221912328</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>-1.3610067161397348</v>
+        <v>1.5237962003780179</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>-0.6594718657845644</v>
+        <v>0.5694007479436367</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>0.07545440961945457</v>
+        <v>-1.1655731722769238</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>0.9481930512526541</v>
+        <v>-0.6996842787116108</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>0.7208220124042221</v>
+        <v>0.5351009191375458</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>-0.3558361416335628</v>
+        <v>0.229646000092053</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>-1.6046193081020255</v>
+        <v>-0.5307218743812198</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>-1.2091271133647912</v>
+        <v>1.794138352031421</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>-0.478834913561605</v>
+        <v>0.9708305769344016</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>0.5973136460534898</v>
+        <v>-0.6632657868793634</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>1.035407837159794</v>
+        <v>1.975407513449878</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>-0.12297310956662988</v>
+        <v>0.4238577476653314</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>-0.3008144359608289</v>
+        <v>0.3404536770719554</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>-0.4718593419334889</v>
+        <v>-1.0883405925520562</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>-0.47018801173062663</v>
+        <v>1.0662500627439873</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>-0.569910502712417</v>
+        <v>0.053655118135555346</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>0.49552626961009366</v>
+        <v>0.8576420908519838</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>0.4147603395870055</v>
+        <v>0.448904089060192</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>-1.1225446368025274</v>
+        <v>-0.44387608759901964</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>-0.13670159057397066</v>
+        <v>-0.1595497801370245</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>0.22227286484319372</v>
+        <v>-1.4298260957091213</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>0.8862256822719855</v>
+        <v>0.8359554664405997</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>0.7146544804881583</v>
+        <v>0.17813649101564197</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>-2.84141959594707</v>
+        <v>1.2737401757453377</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>0.0025658547339205725</v>
+        <v>-1.0017787660125832</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>0.036310073943004485</v>
+        <v>0.7036507399634194</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>1.9514211777917145</v>
+        <v>0.7529243705435595</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>-1.3482745556322548</v>
+        <v>0.47034263088574735</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>0.5449722943343007</v>
+        <v>-0.8994454069023213</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>0.05213189095702289</v>
+        <v>-1.0988077974214054</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>-1.8928854256121894</v>
+        <v>0.0450904791700529</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>-0.9737592046039478</v>
+        <v>0.4396312001371121</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>-0.6169696411565504</v>
+        <v>-0.20436571965239606</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>0.3095774487611306</v>
+        <v>-1.1384163633166366</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>-0.0823268096764117</v>
+        <v>-0.8479711026933393</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>-1.7851197371378915</v>
+        <v>0.9130982556322039</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>0.0401856891816326</v>
+        <v>0.5867465431640196</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>0.8796955225454255</v>
+        <v>0.3203660166252414</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>-1.35935510543514</v>
+        <v>-0.8191884097605627</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>1.5030964002083151</v>
+        <v>-2.032542262841432</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>0.015887698316691522</v>
+        <v>0.20570726656358515</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>0.7602854103905824</v>
+        <v>-0.09515259134134245</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>-0.014982606864754413</v>
+        <v>-2.3689891376170094</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>-0.9867756806074955</v>
+        <v>0.004495171919111802</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>1.5768675910030991</v>
+        <v>-0.2635342438260944</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>1.9818254490250329</v>
+        <v>-0.799084088204962</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>-0.06488255778344292</v>
+        <v>-0.024162415147539893</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>-0.16997769672408578</v>
+        <v>-1.011542125590634</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>-1.8886108961231485</v>
+        <v>1.5105283080931295</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>-0.6512763418719495</v>
+        <v>1.3084592269906545</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>-0.4667942338525872</v>
+        <v>0.4148195538036116</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>-1.153025878176336</v>
+        <v>0.9275007481351234</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>0.5231974616283378</v>
+        <v>1.2032692960872962</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>0.32325107733837094</v>
+        <v>0.343254760960523</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>-0.025343934897999278</v>
+        <v>0.752324522396544</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>-0.5249146113163697</v>
+        <v>0.019036654094344973</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>1.3589742666660243</v>
+        <v>-0.787932992009096</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>-1.723764213714335</v>
+        <v>-1.4909974338934937</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>-2.2025083154717047</v>
+        <v>-0.311682723023945</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>-1.3686887905571763</v>
+        <v>-1.2225175220188877</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>-1.229053807976366</v>
+        <v>-1.738417584667778</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>-0.2990737065309887</v>
+        <v>1.252253415153492</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>0.6987520140699028</v>
+        <v>-0.47665109264027106</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>-0.5056982099606803</v>
+        <v>0.8844530107578287</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>0.25416583223495826</v>
+        <v>-0.14459555891528084</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>0.44814895320827386</v>
+        <v>0.8154671361264741</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>-0.30186660847879293</v>
+        <v>1.51721879927485</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>-0.12196464856853323</v>
+        <v>0.06681967862843495</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>1.1434936259535364</v>
+        <v>0.0230172388051474</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>1.1477978559327895</v>
+        <v>0.6593100308480703</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>-0.7430684417557017</v>
+        <v>0.612879697142851</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>0.03549694531222586</v>
+        <v>-1.0895141803308332</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>-0.23159747400160371</v>
+        <v>-0.8484702365941167</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>0.5789897032682033</v>
+        <v>-1.4456692486198457</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>-0.5563848035573361</v>
+        <v>0.8076592307631575</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>0.22312058833518988</v>
+        <v>-0.8829136241292843</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>2.655228395285971</v>
+        <v>1.112619862834273</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>0.06040499679800737</v>
+        <v>-1.1142338138250576</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>-0.5798148249376067</v>
+        <v>0.5047558814225418</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>-0.7737310307967871</v>
+        <v>-0.8894619166549215</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>-0.48719216445607666</v>
+        <v>-0.08363836486099699</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>1.068046791521543</v>
+        <v>-0.4047220683918289</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>-0.14995013275974348</v>
+        <v>0.2709170567394242</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>-0.7808322249469998</v>
+        <v>0.6056719151167773</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>0.10915363473470509</v>
+        <v>0.5055826034242726</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>0.26031481861860173</v>
+        <v>0.5842723628413211</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>0.9630182481962574</v>
+        <v>0.5425343044392082</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>0.23561227743779953</v>
+        <v>0.32058032245874263</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>1.2005686447741923</v>
+        <v>1.1233716373342233</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>0.06470526572580715</v>
+        <v>-0.9089748935964663</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>-0.60362435606645</v>
+        <v>0.7496832738998317</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>-0.8097090536019096</v>
+        <v>-0.08116502735918375</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>0.10410264257481898</v>
+        <v>0.05532273004938183</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>-0.8117382322722416</v>
+        <v>1.0188724600227725</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>1.3697805009613773</v>
+        <v>1.6771376623030894</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>-0.2687393944081737</v>
+        <v>-0.6293089791261409</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>-0.3683146121764517</v>
+        <v>-2.0784923374209856</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>-0.6528231242162542</v>
+        <v>-0.2759598532971426</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>0.6972989943352796</v>
+        <v>0.5138476556360375</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>-1.3981581166081505</v>
+        <v>-1.281003413407731</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>1.5283541414493003</v>
+        <v>1.5881614644810333</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>-1.069143047633236</v>
+        <v>0.6055144558040377</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>0.6596024422710204</v>
+        <v>0.46769010856251436</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>0.6920612577508817</v>
+        <v>1.402212606011988</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>0.06328458831918897</v>
+        <v>1.0495898239534915</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>-0.5052983344226014</v>
+        <v>0.9870899778746227</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>0.5250139838012885</v>
+        <v>-0.17513158192116945</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>1.3836754575309351</v>
+        <v>0.5569325880871369</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>-0.25697073822416394</v>
+        <v>-0.24559033744173242</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>-0.7968526291909542</v>
+        <v>-0.11862428659738573</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>0.49725798880567496</v>
+        <v>-1.4859147479166426</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>-0.564617058618969</v>
+        <v>0.2647533151998345</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>0.8959433667456684</v>
+        <v>0.16093597541819613</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>1.7501308105398308</v>
+        <v>0.1094057179565217</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>-0.5247753044764882</v>
+        <v>-0.5504210751178439</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>-0.3097712356276839</v>
+        <v>-0.1627760082642222</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>-0.40079081864607147</v>
+        <v>-0.3603499121606324</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>-0.2553749523831183</v>
+        <v>-0.6992566704106382</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>0.3474767187637958</v>
+        <v>1.6304033545931764</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>-0.13791111102267034</v>
+        <v>-0.3716890100378663</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>-0.6773753273721796</v>
+        <v>0.11203614224986361</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>-0.769357783859664</v>
+        <v>1.4546710057815093</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>0.36516074124643616</v>
+        <v>0.12245903503207825</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>-0.651929135128001</v>
+        <v>-0.5783077723361383</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>-0.0017213208044507928</v>
+        <v>0.8505599637691931</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>1.551195155095505</v>
+        <v>-0.7417329984145816</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>-0.8844564478547975</v>
+        <v>-1.6994120678035571</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>0.17901698679399236</v>
+        <v>-0.014017053165106137</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>0.8394012286534112</v>
+        <v>1.010596994742915</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>1.5132184975687122</v>
+        <v>0.9265888356117576</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>-1.937444118012616</v>
+        <v>0.870687579224548</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>0.08628228392036398</v>
+        <v>1.2416566871120152</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>-1.8549873206383714</v>
+        <v>-0.3695237508013387</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>-1.2324354604214707</v>
+        <v>-0.7058680426589756</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>-0.4496550849025165</v>
+        <v>-2.235702372294785</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>0.2726015038649571</v>
+        <v>-2.2227987388440176</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>0.14306002363592882</v>
+        <v>0.36074353177824287</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>-2.0558091418997924</v>
+        <v>-0.3684642059319191</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>-1.4866526478189164</v>
+        <v>-0.9977111058829525</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>1.6914690260202436</v>
+        <v>0.8307647153924546</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>1.1672201141904688</v>
+        <v>-0.6645928341817015</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>-0.2823817952992797</v>
+        <v>0.6941207185192697</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>-0.356885219719462</v>
+        <v>1.1528152971279817</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>-1.2466586200510843</v>
+        <v>-0.3790648041469563</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>-0.26622348623011954</v>
+        <v>-0.16574081775855007</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>0.41448985012876444</v>
+        <v>-0.6256478294451084</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>0.23752244690998353</v>
+        <v>-1.869372213821129</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>-0.7463855566742901</v>
+        <v>0.9039527005468678</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>-1.310852163893198</v>
+        <v>0.04627684297262762</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>-1.23884939379483</v>
+        <v>0.20556540748089638</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>-0.5713590833492139</v>
+        <v>0.693206124491715</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>0.20990000598559105</v>
+        <v>0.41944378262230586</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>0.9692451101872521</v>
+        <v>0.5648207413286039</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>0.2306179694392915</v>
+        <v>0.7926547739547081</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>1.6244775291321385</v>
+        <v>-1.3255798411862185</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>-1.0274350721098187</v>
+        <v>0.6420743933619532</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>-0.1469988922499593</v>
+        <v>0.050445501737755964</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>0.03585046320338908</v>
+        <v>0.9616546191206407</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>-0.6249332951221072</v>
+        <v>0.3382794849872576</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>1.191797748898684</v>
+        <v>-0.687487558555843</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>0.7379401440913002</v>
+        <v>2.6036034247560518</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>-2.2496828988440343</v>
+        <v>0.019160939216224356</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>-0.7751319184505463</v>
+        <v>-0.13212892433735315</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>-1.3604995688917083</v>
+        <v>0.9139869745693939</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>-0.030988944609641692</v>
+        <v>-1.3610922882483405</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>1.6046667274833193</v>
+        <v>0.8122850941287896</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>-1.1485018734612074</v>
+        <v>-2.2954383944184866</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>-1.2720258014642276</v>
+        <v>0.1914587338264721</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>0.0849092270132967</v>
+        <v>0.4985205433361321</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>-0.14103976139560084</v>
+        <v>0.3885813134430637</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>0.376593909934532</v>
+        <v>1.5836363816561285</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>-0.8219423842621644</v>
+        <v>-0.4853089808922545</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>-0.33201410218868094</v>
+        <v>-0.19909387179612562</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>0.5594647269003654</v>
+        <v>-0.23931499143784868</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>-0.7232580864793869</v>
+        <v>0.45308019595204607</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>-0.8799726649696933</v>
+        <v>-0.10745419328568233</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>-0.18744631010834636</v>
+        <v>-0.37589882715987544</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>-0.19153502932765654</v>
+        <v>0.4667892937549125</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>0.3133035246939278</v>
+        <v>0.6532479999855406</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>-1.2220903991206398</v>
+        <v>0.8351260164746771</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>-1.4127415982670954</v>
+        <v>-1.7831680995919736</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>1.2209995571078807</v>
+        <v>0.3911460090215742</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>0.13528977894510047</v>
+        <v>-1.766771156130941</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>1.1400720436922944</v>
+        <v>-0.3431602018702821</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>-1.813749257729241</v>
+        <v>0.01515489443416147</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>1.259658098396949</v>
+        <v>0.0570626391027562</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>1.5441578518876804</v>
+        <v>-0.06973618484029274</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>1.6344538068762253</v>
+        <v>-1.2355303994076776</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>-0.07251153780078319</v>
+        <v>-0.24223873081576328</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>-0.24671773557090868</v>
+        <v>0.23760139344991327</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>-0.37602996209437395</v>
+        <v>0.98260007712688</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>-0.8867234262167724</v>
+        <v>-0.6089149513440678</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>-0.24055962872026004</v>
+        <v>-1.3779786788570834</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>-0.4478119878043031</v>
+        <v>1.266259188242629</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>3.0038361313987876</v>
+        <v>-0.23924880614888697</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>0.377041985643234</v>
+        <v>0.586632468295505</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>-0.8337434303445483</v>
+        <v>0.23029708725266324</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>1.639502660747167</v>
+        <v>-0.2987497101012054</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>0.9366525091700987</v>
+        <v>0.833959457460885</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>-0.7418163900066647</v>
+        <v>-0.04159349758455495</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>-0.6775283424119711</v>
+        <v>-0.11120760161764025</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>-0.7307160993069143</v>
+        <v>-0.004583066582843858</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>-0.711943919390429</v>
+        <v>0.6222616170870106</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>0.7113099990635535</v>
+        <v>0.42371896634322403</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>1.3683828930623072</v>
+        <v>-0.8589941368552938</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>-0.4283581710542313</v>
+        <v>0.36920774989947</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>0.8472770519606458</v>
+        <v>-1.0807089237141376</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>0.5338863785629602</v>
+        <v>-0.7739267150324319</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>0.7188275196634961</v>
+        <v>-0.5443225979432137</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>-1.0487229265117446</v>
+        <v>-0.9525696116591047</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>1.8185789007644604</v>
+        <v>1.039916459586205</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>0.5351595282546675</v>
+        <v>0.11151563132336213</v>
       </c>
     </row>
   </sheetData>

--- a/Tarefa 0/Tarefa_3.1.xlsx
+++ b/Tarefa 0/Tarefa_3.1.xlsx
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1.2104226210299764</v>
+        <v>-0.3385256744727289</v>
       </c>
     </row>
     <row r="3">
@@ -3084,7 +3084,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.19853364917543026</v>
+        <v>-0.3881747346030755</v>
       </c>
     </row>
     <row r="4">
@@ -3092,7 +3092,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>-1.0684626220363203</v>
+        <v>-0.4476139229558983</v>
       </c>
     </row>
     <row r="5">
@@ -3100,7 +3100,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.32590062796871117</v>
+        <v>-0.9565686360829199</v>
       </c>
     </row>
     <row r="6">
@@ -3108,7 +3108,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.8508205363686563</v>
+        <v>-0.413651632218648</v>
       </c>
     </row>
     <row r="7">
@@ -3116,7 +3116,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1.3675127682336083</v>
+        <v>-0.24136374321074242</v>
       </c>
     </row>
     <row r="8">
@@ -3124,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.4627018133460981</v>
+        <v>-0.43673406719961594</v>
       </c>
     </row>
     <row r="9">
@@ -3132,7 +3132,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.17592166278073257</v>
+        <v>-0.24369306038334437</v>
       </c>
     </row>
     <row r="10">
@@ -3140,7 +3140,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.41555067704216325</v>
+        <v>-1.3818527566129073</v>
       </c>
     </row>
     <row r="11">
@@ -3148,7 +3148,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2.191916154276861</v>
+        <v>-1.0927586893780667</v>
       </c>
     </row>
     <row r="12">
@@ -3156,7 +3156,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.6058721336564283</v>
+        <v>1.2209498655599937</v>
       </c>
     </row>
     <row r="13">
@@ -3164,7 +3164,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>-1.576492987833945</v>
+        <v>-0.02291553985737017</v>
       </c>
     </row>
     <row r="14">
@@ -3172,7 +3172,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.496770755824002</v>
+        <v>0.05711542214224466</v>
       </c>
     </row>
     <row r="15">
@@ -3180,7 +3180,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.2229761985162269</v>
+        <v>-0.07674177260339313</v>
       </c>
     </row>
     <row r="16">
@@ -3188,7 +3188,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.508742180357093</v>
+        <v>-0.7909134584989971</v>
       </c>
     </row>
     <row r="17">
@@ -3196,7 +3196,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.7749200479973224</v>
+        <v>-0.7885062580249647</v>
       </c>
     </row>
     <row r="18">
@@ -3204,7 +3204,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.7653356922205252</v>
+        <v>0.33998107487783696</v>
       </c>
     </row>
     <row r="19">
@@ -3212,7 +3212,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.2703760767967113</v>
+        <v>0.7761867068203873</v>
       </c>
     </row>
     <row r="20">
@@ -3220,7 +3220,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.32624383148525476</v>
+        <v>0.0205486364218734</v>
       </c>
     </row>
     <row r="21">
@@ -3228,7 +3228,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.1437655330144399</v>
+        <v>0.21854081092805994</v>
       </c>
     </row>
     <row r="22">
@@ -3236,7 +3236,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.392048822046986</v>
+        <v>-1.4927636905797776</v>
       </c>
     </row>
     <row r="23">
@@ -3244,7 +3244,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.04940441343428766</v>
+        <v>0.14902587196185713</v>
       </c>
     </row>
     <row r="24">
@@ -3252,7 +3252,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.6041346978450931</v>
+        <v>-0.5974149643352796</v>
       </c>
     </row>
     <row r="25">
@@ -3260,7 +3260,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.7941800979612931</v>
+        <v>-0.5960916081315082</v>
       </c>
     </row>
     <row r="26">
@@ -3268,7 +3268,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.3013262002733654</v>
+        <v>0.5906574485509377</v>
       </c>
     </row>
     <row r="27">
@@ -3276,7 +3276,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.05483291018064164</v>
+        <v>-0.7823815953738352</v>
       </c>
     </row>
     <row r="28">
@@ -3284,7 +3284,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.8362460574218332</v>
+        <v>0.058791140195260695</v>
       </c>
     </row>
     <row r="29">
@@ -3292,7 +3292,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.42222180183851266</v>
+        <v>-0.13340981433658294</v>
       </c>
     </row>
     <row r="30">
@@ -3300,7 +3300,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>2.1571230520436404</v>
+        <v>1.2039363247220292</v>
       </c>
     </row>
     <row r="31">
@@ -3308,7 +3308,7 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>-2.173728228846523</v>
+        <v>-0.08225273037014234</v>
       </c>
     </row>
     <row r="32">
@@ -3316,7 +3316,7 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>-0.38858711670004153</v>
+        <v>0.7293202771401487</v>
       </c>
     </row>
     <row r="33">
@@ -3324,7 +3324,7 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>1.3043905552920343</v>
+        <v>-1.0943384619440837</v>
       </c>
     </row>
     <row r="34">
@@ -3332,7 +3332,7 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.03336650594408369</v>
+        <v>-0.4972062860240076</v>
       </c>
     </row>
     <row r="35">
@@ -3340,7 +3340,7 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>1.484091089881249</v>
+        <v>0.9992456170971002</v>
       </c>
     </row>
     <row r="36">
@@ -3348,7 +3348,7 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.37942675173942736</v>
+        <v>1.6221335721613828</v>
       </c>
     </row>
     <row r="37">
@@ -3356,7 +3356,7 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9716587277921227</v>
+        <v>-0.08183659214207711</v>
       </c>
     </row>
     <row r="38">
@@ -3364,7 +3364,7 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.5221902509518476</v>
+        <v>0.656972878215082</v>
       </c>
     </row>
     <row r="39">
@@ -3372,7 +3372,7 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>-0.6045141148258124</v>
+        <v>-0.5799759157036779</v>
       </c>
     </row>
     <row r="40">
@@ -3380,7 +3380,7 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>-1.2264546760374881</v>
+        <v>-0.19086530762620016</v>
       </c>
     </row>
     <row r="41">
@@ -3388,7 +3388,7 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.1892218906746154</v>
+        <v>0.8724449478371367</v>
       </c>
     </row>
     <row r="42">
@@ -3396,7 +3396,7 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>1.0711862886548826</v>
+        <v>1.191110195296712</v>
       </c>
     </row>
     <row r="43">
@@ -3404,7 +3404,7 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>-0.5411684904288843</v>
+        <v>0.5733998554373155</v>
       </c>
     </row>
     <row r="44">
@@ -3412,7 +3412,7 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.8705619902659593</v>
+        <v>-0.07189278944791871</v>
       </c>
     </row>
     <row r="45">
@@ -3420,7 +3420,7 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>-0.756405162739291</v>
+        <v>0.4309839677810864</v>
       </c>
     </row>
     <row r="46">
@@ -3428,7 +3428,7 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>1.4189177924860255</v>
+        <v>0.8566535894322901</v>
       </c>
     </row>
     <row r="47">
@@ -3436,7 +3436,7 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.6036826202907085</v>
+        <v>0.9273830221381377</v>
       </c>
     </row>
     <row r="48">
@@ -3444,7 +3444,7 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.29831732814650685</v>
+        <v>1.2695611692153166</v>
       </c>
     </row>
     <row r="49">
@@ -3452,7 +3452,7 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>1.4464593158022199</v>
+        <v>-0.7486715315177065</v>
       </c>
     </row>
     <row r="50">
@@ -3460,7 +3460,7 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.3148729132057118</v>
+        <v>0.980947875111753</v>
       </c>
     </row>
     <row r="51">
@@ -3468,7 +3468,7 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.7065789256309098</v>
+        <v>0.8138754167456607</v>
       </c>
     </row>
     <row r="52">
@@ -3476,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="B52" t="n">
-        <v>0.7089858805672228</v>
+        <v>-0.3659784792208485</v>
       </c>
     </row>
     <row r="53">
@@ -3484,7 +3484,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="n">
-        <v>-0.768060917276657</v>
+        <v>1.0859369646232295</v>
       </c>
     </row>
     <row r="54">
@@ -3492,7 +3492,7 @@
         <v>53</v>
       </c>
       <c r="B54" t="n">
-        <v>0.6220478064785204</v>
+        <v>-0.9830125728406167</v>
       </c>
     </row>
     <row r="55">
@@ -3500,7 +3500,7 @@
         <v>54</v>
       </c>
       <c r="B55" t="n">
-        <v>0.07558611913973665</v>
+        <v>-0.4455192972910077</v>
       </c>
     </row>
     <row r="56">
@@ -3508,7 +3508,7 @@
         <v>55</v>
       </c>
       <c r="B56" t="n">
-        <v>1.0500808188163835</v>
+        <v>-0.4208603672265217</v>
       </c>
     </row>
     <row r="57">
@@ -3516,7 +3516,7 @@
         <v>56</v>
       </c>
       <c r="B57" t="n">
-        <v>-1.1125557451084047</v>
+        <v>-1.165977943165413</v>
       </c>
     </row>
     <row r="58">
@@ -3524,7 +3524,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="n">
-        <v>-0.9507250957263816</v>
+        <v>-0.7191355082470344</v>
       </c>
     </row>
     <row r="59">
@@ -3532,7 +3532,7 @@
         <v>58</v>
       </c>
       <c r="B59" t="n">
-        <v>-0.17488761234006037</v>
+        <v>0.980004338823142</v>
       </c>
     </row>
     <row r="60">
@@ -3540,7 +3540,7 @@
         <v>59</v>
       </c>
       <c r="B60" t="n">
-        <v>0.604035385946951</v>
+        <v>-0.055783261668903114</v>
       </c>
     </row>
     <row r="61">
@@ -3548,7 +3548,7 @@
         <v>60</v>
       </c>
       <c r="B61" t="n">
-        <v>0.23117913941241783</v>
+        <v>-0.2045569760618194</v>
       </c>
     </row>
     <row r="62">
@@ -3556,7 +3556,7 @@
         <v>61</v>
       </c>
       <c r="B62" t="n">
-        <v>-0.3337691875650696</v>
+        <v>0.9235794693208393</v>
       </c>
     </row>
     <row r="63">
@@ -3564,7 +3564,7 @@
         <v>62</v>
       </c>
       <c r="B63" t="n">
-        <v>-0.7671376539507067</v>
+        <v>0.32661789691985094</v>
       </c>
     </row>
     <row r="64">
@@ -3572,7 +3572,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="n">
-        <v>2.1275218781982463</v>
+        <v>1.1565704884354513</v>
       </c>
     </row>
     <row r="65">
@@ -3580,7 +3580,7 @@
         <v>64</v>
       </c>
       <c r="B65" t="n">
-        <v>-1.441419804672631</v>
+        <v>-0.2861493965440562</v>
       </c>
     </row>
     <row r="66">
@@ -3588,7 +3588,7 @@
         <v>65</v>
       </c>
       <c r="B66" t="n">
-        <v>1.0100840061044627</v>
+        <v>-1.3810157611853455</v>
       </c>
     </row>
     <row r="67">
@@ -3596,7 +3596,7 @@
         <v>66</v>
       </c>
       <c r="B67" t="n">
-        <v>2.4710581725077394</v>
+        <v>0.89777802916933</v>
       </c>
     </row>
     <row r="68">
@@ -3604,7 +3604,7 @@
         <v>67</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.6672656235363057</v>
+        <v>0.8046445666139614</v>
       </c>
     </row>
     <row r="69">
@@ -3612,7 +3612,7 @@
         <v>68</v>
       </c>
       <c r="B69" t="n">
-        <v>-1.6783377517551408</v>
+        <v>-0.8921226205655208</v>
       </c>
     </row>
     <row r="70">
@@ -3620,7 +3620,7 @@
         <v>69</v>
       </c>
       <c r="B70" t="n">
-        <v>-1.648366250557797</v>
+        <v>1.8179971639230554</v>
       </c>
     </row>
     <row r="71">
@@ -3628,7 +3628,7 @@
         <v>70</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9179073520306781</v>
+        <v>1.5983444134591824</v>
       </c>
     </row>
     <row r="72">
@@ -3636,7 +3636,7 @@
         <v>71</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.4555539782988114</v>
+        <v>-0.2210868655542335</v>
       </c>
     </row>
     <row r="73">
@@ -3644,7 +3644,7 @@
         <v>72</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.6617258234745627</v>
+        <v>-1.2877494640079363</v>
       </c>
     </row>
     <row r="74">
@@ -3652,7 +3652,7 @@
         <v>73</v>
       </c>
       <c r="B74" t="n">
-        <v>-1.812907973930972</v>
+        <v>-1.341123919960201</v>
       </c>
     </row>
     <row r="75">
@@ -3660,7 +3660,7 @@
         <v>74</v>
       </c>
       <c r="B75" t="n">
-        <v>0.7776978270276722</v>
+        <v>-0.0021335241146460114</v>
       </c>
     </row>
     <row r="76">
@@ -3668,7 +3668,7 @@
         <v>75</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.8242933444281549</v>
+        <v>-0.040964098339576656</v>
       </c>
     </row>
     <row r="77">
@@ -3676,7 +3676,7 @@
         <v>76</v>
       </c>
       <c r="B77" t="n">
-        <v>-1.2002865245468517</v>
+        <v>-0.953852331467387</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3684,7 @@
         <v>77</v>
       </c>
       <c r="B78" t="n">
-        <v>0.4259226877486283</v>
+        <v>-0.8220765643221638</v>
       </c>
     </row>
     <row r="79">
@@ -3692,7 +3692,7 @@
         <v>78</v>
       </c>
       <c r="B79" t="n">
-        <v>1.292238448961968</v>
+        <v>-0.38193589408309303</v>
       </c>
     </row>
     <row r="80">
@@ -3700,7 +3700,7 @@
         <v>79</v>
       </c>
       <c r="B80" t="n">
-        <v>-2.132387373855172</v>
+        <v>-1.489329499414317</v>
       </c>
     </row>
     <row r="81">
@@ -3708,7 +3708,7 @@
         <v>80</v>
       </c>
       <c r="B81" t="n">
-        <v>-1.4348661953678972</v>
+        <v>0.6066004141671429</v>
       </c>
     </row>
     <row r="82">
@@ -3716,7 +3716,7 @@
         <v>81</v>
       </c>
       <c r="B82" t="n">
-        <v>1.050808761258357</v>
+        <v>-1.1378576630081272</v>
       </c>
     </row>
     <row r="83">
@@ -3724,7 +3724,7 @@
         <v>82</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.5638603662600754</v>
+        <v>-0.6123415799288491</v>
       </c>
     </row>
     <row r="84">
@@ -3732,7 +3732,7 @@
         <v>83</v>
       </c>
       <c r="B84" t="n">
-        <v>0.5463834216176703</v>
+        <v>0.6723081695728418</v>
       </c>
     </row>
     <row r="85">
@@ -3740,7 +3740,7 @@
         <v>84</v>
       </c>
       <c r="B85" t="n">
-        <v>-1.1099357943698565</v>
+        <v>-0.6161433805783846</v>
       </c>
     </row>
     <row r="86">
@@ -3748,7 +3748,7 @@
         <v>85</v>
       </c>
       <c r="B86" t="n">
-        <v>-1.2536674211768715</v>
+        <v>0.5062234507437525</v>
       </c>
     </row>
     <row r="87">
@@ -3756,7 +3756,7 @@
         <v>86</v>
       </c>
       <c r="B87" t="n">
-        <v>2.034316792532244</v>
+        <v>1.1224665763750383</v>
       </c>
     </row>
     <row r="88">
@@ -3764,7 +3764,7 @@
         <v>87</v>
       </c>
       <c r="B88" t="n">
-        <v>1.1456064187651611</v>
+        <v>0.6722728007998104</v>
       </c>
     </row>
     <row r="89">
@@ -3772,7 +3772,7 @@
         <v>88</v>
       </c>
       <c r="B89" t="n">
-        <v>0.35202697990600784</v>
+        <v>0.6384619937785413</v>
       </c>
     </row>
     <row r="90">
@@ -3780,7 +3780,7 @@
         <v>89</v>
       </c>
       <c r="B90" t="n">
-        <v>-0.13689520095081845</v>
+        <v>2.1786399307246005</v>
       </c>
     </row>
     <row r="91">
@@ -3788,7 +3788,7 @@
         <v>90</v>
       </c>
       <c r="B91" t="n">
-        <v>-0.38992088720517937</v>
+        <v>0.258402565795361</v>
       </c>
     </row>
     <row r="92">
@@ -3796,7 +3796,7 @@
         <v>91</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.33127889923041337</v>
+        <v>0.20553041900591706</v>
       </c>
     </row>
     <row r="93">
@@ -3804,7 +3804,7 @@
         <v>92</v>
       </c>
       <c r="B93" t="n">
-        <v>0.6041911083919227</v>
+        <v>-0.30122437954507475</v>
       </c>
     </row>
     <row r="94">
@@ -3812,7 +3812,7 @@
         <v>93</v>
       </c>
       <c r="B94" t="n">
-        <v>0.17325624571606457</v>
+        <v>-1.269346775847321</v>
       </c>
     </row>
     <row r="95">
@@ -3820,7 +3820,7 @@
         <v>94</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.9497763467099496</v>
+        <v>0.5955903838125036</v>
       </c>
     </row>
     <row r="96">
@@ -3828,7 +3828,7 @@
         <v>95</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.9972532173115134</v>
+        <v>0.7189484834450751</v>
       </c>
     </row>
     <row r="97">
@@ -3836,7 +3836,7 @@
         <v>96</v>
       </c>
       <c r="B97" t="n">
-        <v>1.3890612191261713</v>
+        <v>-0.2788743514753443</v>
       </c>
     </row>
     <row r="98">
@@ -3844,7 +3844,7 @@
         <v>97</v>
       </c>
       <c r="B98" t="n">
-        <v>0.5136658699333573</v>
+        <v>-0.1738761614682747</v>
       </c>
     </row>
     <row r="99">
@@ -3852,7 +3852,7 @@
         <v>98</v>
       </c>
       <c r="B99" t="n">
-        <v>-1.4950843546124049</v>
+        <v>-1.859826809752261</v>
       </c>
     </row>
     <row r="100">
@@ -3860,7 +3860,7 @@
         <v>99</v>
       </c>
       <c r="B100" t="n">
-        <v>-3.1124172425260346</v>
+        <v>0.4116231404661193</v>
       </c>
     </row>
     <row r="101">
@@ -3868,7 +3868,7 @@
         <v>100</v>
       </c>
       <c r="B101" t="n">
-        <v>-0.701844295667855</v>
+        <v>1.1061870306163146</v>
       </c>
     </row>
     <row r="102">
@@ -3876,7 +3876,7 @@
         <v>101</v>
       </c>
       <c r="B102" t="n">
-        <v>-3.5668155115444633</v>
+        <v>1.8895757136361357</v>
       </c>
     </row>
     <row r="103">
@@ -3884,7 +3884,7 @@
         <v>102</v>
       </c>
       <c r="B103" t="n">
-        <v>0.8071259896407803</v>
+        <v>-0.7348892604955418</v>
       </c>
     </row>
     <row r="104">
@@ -3892,7 +3892,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="n">
-        <v>-0.9572812593043389</v>
+        <v>1.6372341514737543</v>
       </c>
     </row>
     <row r="105">
@@ -3900,7 +3900,7 @@
         <v>104</v>
       </c>
       <c r="B105" t="n">
-        <v>-2.0332059971704726</v>
+        <v>0.9171159880488354</v>
       </c>
     </row>
     <row r="106">
@@ -3908,7 +3908,7 @@
         <v>105</v>
       </c>
       <c r="B106" t="n">
-        <v>-0.680261367406921</v>
+        <v>0.22507270816373198</v>
       </c>
     </row>
     <row r="107">
@@ -3916,7 +3916,7 @@
         <v>106</v>
       </c>
       <c r="B107" t="n">
-        <v>-2.0066923006848802</v>
+        <v>1.006258766032202</v>
       </c>
     </row>
     <row r="108">
@@ -3924,7 +3924,7 @@
         <v>107</v>
       </c>
       <c r="B108" t="n">
-        <v>-0.2858595764750941</v>
+        <v>-1.872774067207143</v>
       </c>
     </row>
     <row r="109">
@@ -3932,7 +3932,7 @@
         <v>108</v>
       </c>
       <c r="B109" t="n">
-        <v>0.05268059110658709</v>
+        <v>-1.907559809842446</v>
       </c>
     </row>
     <row r="110">
@@ -3940,7 +3940,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="n">
-        <v>0.42853097368167886</v>
+        <v>-1.6982110377887314</v>
       </c>
     </row>
     <row r="111">
@@ -3948,7 +3948,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="n">
-        <v>1.5164287124730111</v>
+        <v>-0.21184316071581502</v>
       </c>
     </row>
     <row r="112">
@@ -3956,7 +3956,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="n">
-        <v>-0.8367889698219332</v>
+        <v>-1.289652298213362</v>
       </c>
     </row>
     <row r="113">
@@ -3964,7 +3964,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="n">
-        <v>0.22010516966961896</v>
+        <v>-0.4083896614587648</v>
       </c>
     </row>
     <row r="114">
@@ -3972,7 +3972,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="n">
-        <v>-1.6602816310035906</v>
+        <v>0.6924073769889131</v>
       </c>
     </row>
     <row r="115">
@@ -3980,7 +3980,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.916424712255601</v>
+        <v>-0.3696972539170869</v>
       </c>
     </row>
     <row r="116">
@@ -3988,7 +3988,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="n">
-        <v>-0.29517728567529516</v>
+        <v>0.967432345439503</v>
       </c>
     </row>
     <row r="117">
@@ -3996,7 +3996,7 @@
         <v>116</v>
       </c>
       <c r="B117" t="n">
-        <v>-0.5622119064905258</v>
+        <v>-0.5819856476639539</v>
       </c>
     </row>
     <row r="118">
@@ -4004,7 +4004,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="n">
-        <v>1.2570586505133472</v>
+        <v>-0.298401817060632</v>
       </c>
     </row>
     <row r="119">
@@ -4012,7 +4012,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="n">
-        <v>0.1967497322842911</v>
+        <v>-0.6084130629360155</v>
       </c>
     </row>
     <row r="120">
@@ -4020,7 +4020,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="n">
-        <v>-0.45056236721128257</v>
+        <v>0.4477676235100088</v>
       </c>
     </row>
     <row r="121">
@@ -4028,7 +4028,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.010374627741797725</v>
+        <v>0.6011505395018468</v>
       </c>
     </row>
     <row r="122">
@@ -4036,7 +4036,7 @@
         <v>121</v>
       </c>
       <c r="B122" t="n">
-        <v>0.7224284538193403</v>
+        <v>-0.3205253605857791</v>
       </c>
     </row>
     <row r="123">
@@ -4044,7 +4044,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="n">
-        <v>0.6280977360947246</v>
+        <v>-0.4463954205991353</v>
       </c>
     </row>
     <row r="124">
@@ -4052,7 +4052,7 @@
         <v>123</v>
       </c>
       <c r="B124" t="n">
-        <v>-0.7569035698452821</v>
+        <v>1.7658598687609992</v>
       </c>
     </row>
     <row r="125">
@@ -4060,7 +4060,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="n">
-        <v>1.074361310814091</v>
+        <v>1.3481161411542566</v>
       </c>
     </row>
     <row r="126">
@@ -4068,7 +4068,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="n">
-        <v>0.4244192266532164</v>
+        <v>0.5419256909769736</v>
       </c>
     </row>
     <row r="127">
@@ -4076,7 +4076,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="n">
-        <v>-0.7168178456509667</v>
+        <v>-0.211868149771874</v>
       </c>
     </row>
     <row r="128">
@@ -4084,7 +4084,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="n">
-        <v>1.6160929554360512</v>
+        <v>0.6251052611521278</v>
       </c>
     </row>
     <row r="129">
@@ -4092,7 +4092,7 @@
         <v>128</v>
       </c>
       <c r="B129" t="n">
-        <v>-0.671654643577179</v>
+        <v>0.6477324478888311</v>
       </c>
     </row>
     <row r="130">
@@ -4100,7 +4100,7 @@
         <v>129</v>
       </c>
       <c r="B130" t="n">
-        <v>-0.14630249517915805</v>
+        <v>-0.39085354845573095</v>
       </c>
     </row>
     <row r="131">
@@ -4108,7 +4108,7 @@
         <v>130</v>
       </c>
       <c r="B131" t="n">
-        <v>-0.22297300192988645</v>
+        <v>-0.2229612944613818</v>
       </c>
     </row>
     <row r="132">
@@ -4116,7 +4116,7 @@
         <v>131</v>
       </c>
       <c r="B132" t="n">
-        <v>-0.516093378481593</v>
+        <v>-0.9004307642676121</v>
       </c>
     </row>
     <row r="133">
@@ -4124,7 +4124,7 @@
         <v>132</v>
       </c>
       <c r="B133" t="n">
-        <v>1.1190212830989106</v>
+        <v>1.0205817032949929</v>
       </c>
     </row>
     <row r="134">
@@ -4132,7 +4132,7 @@
         <v>133</v>
       </c>
       <c r="B134" t="n">
-        <v>-0.8610434797607442</v>
+        <v>0.14105600822531705</v>
       </c>
     </row>
     <row r="135">
@@ -4140,7 +4140,7 @@
         <v>134</v>
       </c>
       <c r="B135" t="n">
-        <v>-0.20077411059244946</v>
+        <v>2.134970394564429</v>
       </c>
     </row>
     <row r="136">
@@ -4148,7 +4148,7 @@
         <v>135</v>
       </c>
       <c r="B136" t="n">
-        <v>2.2461982247363554</v>
+        <v>-0.08126497941692559</v>
       </c>
     </row>
     <row r="137">
@@ -4156,7 +4156,7 @@
         <v>136</v>
       </c>
       <c r="B137" t="n">
-        <v>-0.4625744053270806</v>
+        <v>-0.300266742067122</v>
       </c>
     </row>
     <row r="138">
@@ -4164,7 +4164,7 @@
         <v>137</v>
       </c>
       <c r="B138" t="n">
-        <v>0.8190510378670078</v>
+        <v>-0.29081906434920785</v>
       </c>
     </row>
     <row r="139">
@@ -4172,7 +4172,7 @@
         <v>138</v>
       </c>
       <c r="B139" t="n">
-        <v>-0.14869193953908064</v>
+        <v>-0.7347203837732037</v>
       </c>
     </row>
     <row r="140">
@@ -4180,7 +4180,7 @@
         <v>139</v>
       </c>
       <c r="B140" t="n">
-        <v>-0.8378336888947813</v>
+        <v>0.6271019984195307</v>
       </c>
     </row>
     <row r="141">
@@ -4188,7 +4188,7 @@
         <v>140</v>
       </c>
       <c r="B141" t="n">
-        <v>-1.1129266597766225</v>
+        <v>0.9324241502352862</v>
       </c>
     </row>
     <row r="142">
@@ -4196,7 +4196,7 @@
         <v>141</v>
       </c>
       <c r="B142" t="n">
-        <v>-0.9876334764547474</v>
+        <v>0.8024382006289978</v>
       </c>
     </row>
     <row r="143">
@@ -4204,7 +4204,7 @@
         <v>142</v>
       </c>
       <c r="B143" t="n">
-        <v>0.18164867304608237</v>
+        <v>0.5870030604368073</v>
       </c>
     </row>
     <row r="144">
@@ -4212,7 +4212,7 @@
         <v>143</v>
       </c>
       <c r="B144" t="n">
-        <v>-0.21570915957998008</v>
+        <v>-0.5242612001493908</v>
       </c>
     </row>
     <row r="145">
@@ -4220,7 +4220,7 @@
         <v>144</v>
       </c>
       <c r="B145" t="n">
-        <v>0.30227446067927694</v>
+        <v>-0.044217765941395606</v>
       </c>
     </row>
     <row r="146">
@@ -4228,7 +4228,7 @@
         <v>145</v>
       </c>
       <c r="B146" t="n">
-        <v>1.6826351738632033</v>
+        <v>-2.1619690606145094</v>
       </c>
     </row>
     <row r="147">
@@ -4236,7 +4236,7 @@
         <v>146</v>
       </c>
       <c r="B147" t="n">
-        <v>0.6555742735850595</v>
+        <v>0.6776594441815245</v>
       </c>
     </row>
     <row r="148">
@@ -4244,7 +4244,7 @@
         <v>147</v>
       </c>
       <c r="B148" t="n">
-        <v>-1.8354650662670382</v>
+        <v>1.1803160536717392</v>
       </c>
     </row>
     <row r="149">
@@ -4252,7 +4252,7 @@
         <v>148</v>
       </c>
       <c r="B149" t="n">
-        <v>0.6375400146126577</v>
+        <v>0.4580650668491447</v>
       </c>
     </row>
     <row r="150">
@@ -4260,7 +4260,7 @@
         <v>149</v>
       </c>
       <c r="B150" t="n">
-        <v>-0.402406356845514</v>
+        <v>-0.039984419977864276</v>
       </c>
     </row>
     <row r="151">
@@ -4268,7 +4268,7 @@
         <v>150</v>
       </c>
       <c r="B151" t="n">
-        <v>-0.6003404407471233</v>
+        <v>1.0356568221441087</v>
       </c>
     </row>
     <row r="152">
@@ -4276,7 +4276,7 @@
         <v>151</v>
       </c>
       <c r="B152" t="n">
-        <v>-0.8336406595283402</v>
+        <v>-1.1494797647110069</v>
       </c>
     </row>
     <row r="153">
@@ -4284,7 +4284,7 @@
         <v>152</v>
       </c>
       <c r="B153" t="n">
-        <v>0.9248659840265089</v>
+        <v>-0.01987127746492286</v>
       </c>
     </row>
     <row r="154">
@@ -4292,7 +4292,7 @@
         <v>153</v>
       </c>
       <c r="B154" t="n">
-        <v>-1.997360790206319</v>
+        <v>1.3259329343732675</v>
       </c>
     </row>
     <row r="155">
@@ -4300,7 +4300,7 @@
         <v>154</v>
       </c>
       <c r="B155" t="n">
-        <v>0.5212842225957512</v>
+        <v>0.062216563054533144</v>
       </c>
     </row>
     <row r="156">
@@ -4308,7 +4308,7 @@
         <v>155</v>
       </c>
       <c r="B156" t="n">
-        <v>0.6464790240016318</v>
+        <v>0.07491786000161652</v>
       </c>
     </row>
     <row r="157">
@@ -4316,7 +4316,7 @@
         <v>156</v>
       </c>
       <c r="B157" t="n">
-        <v>-2.77840274843269</v>
+        <v>-0.28072342467344996</v>
       </c>
     </row>
     <row r="158">
@@ -4324,7 +4324,7 @@
         <v>157</v>
       </c>
       <c r="B158" t="n">
-        <v>1.8296598761303486</v>
+        <v>-0.7553369845195984</v>
       </c>
     </row>
     <row r="159">
@@ -4332,7 +4332,7 @@
         <v>158</v>
       </c>
       <c r="B159" t="n">
-        <v>-0.7951778211318491</v>
+        <v>0.45721977690244586</v>
       </c>
     </row>
     <row r="160">
@@ -4340,7 +4340,7 @@
         <v>159</v>
       </c>
       <c r="B160" t="n">
-        <v>0.24444701628861457</v>
+        <v>-0.27235225762053683</v>
       </c>
     </row>
     <row r="161">
@@ -4348,7 +4348,7 @@
         <v>160</v>
       </c>
       <c r="B161" t="n">
-        <v>2.0978034546387834</v>
+        <v>1.0318483945428139</v>
       </c>
     </row>
     <row r="162">
@@ -4356,7 +4356,7 @@
         <v>161</v>
       </c>
       <c r="B162" t="n">
-        <v>-0.11686362977409444</v>
+        <v>0.7716042069505248</v>
       </c>
     </row>
     <row r="163">
@@ -4364,7 +4364,7 @@
         <v>162</v>
       </c>
       <c r="B163" t="n">
-        <v>0.7399483419434989</v>
+        <v>-0.3202385415517178</v>
       </c>
     </row>
     <row r="164">
@@ -4372,7 +4372,7 @@
         <v>163</v>
       </c>
       <c r="B164" t="n">
-        <v>0.3653106351470803</v>
+        <v>-2.416828765056375</v>
       </c>
     </row>
     <row r="165">
@@ -4380,7 +4380,7 @@
         <v>164</v>
       </c>
       <c r="B165" t="n">
-        <v>-0.018151500165353704</v>
+        <v>0.6637190690864074</v>
       </c>
     </row>
     <row r="166">
@@ -4388,7 +4388,7 @@
         <v>165</v>
       </c>
       <c r="B166" t="n">
-        <v>-0.6562888351626168</v>
+        <v>0.9482131605290268</v>
       </c>
     </row>
     <row r="167">
@@ -4396,7 +4396,7 @@
         <v>166</v>
       </c>
       <c r="B167" t="n">
-        <v>0.18009950842914924</v>
+        <v>-0.1478519502163433</v>
       </c>
     </row>
     <row r="168">
@@ -4404,7 +4404,7 @@
         <v>167</v>
       </c>
       <c r="B168" t="n">
-        <v>-0.8614571392790757</v>
+        <v>0.02350697914636818</v>
       </c>
     </row>
     <row r="169">
@@ -4412,7 +4412,7 @@
         <v>168</v>
       </c>
       <c r="B169" t="n">
-        <v>-0.37479278897857526</v>
+        <v>0.7958236397383075</v>
       </c>
     </row>
     <row r="170">
@@ -4420,7 +4420,7 @@
         <v>169</v>
       </c>
       <c r="B170" t="n">
-        <v>0.38771541177436086</v>
+        <v>0.436979237729749</v>
       </c>
     </row>
     <row r="171">
@@ -4428,7 +4428,7 @@
         <v>170</v>
       </c>
       <c r="B171" t="n">
-        <v>0.11219130662063291</v>
+        <v>-0.40139343228044067</v>
       </c>
     </row>
     <row r="172">
@@ -4436,7 +4436,7 @@
         <v>171</v>
       </c>
       <c r="B172" t="n">
-        <v>0.7918238578947859</v>
+        <v>0.7957850562759362</v>
       </c>
     </row>
     <row r="173">
@@ -4444,7 +4444,7 @@
         <v>172</v>
       </c>
       <c r="B173" t="n">
-        <v>-0.0038204426747682264</v>
+        <v>-0.9533722815223465</v>
       </c>
     </row>
     <row r="174">
@@ -4452,7 +4452,7 @@
         <v>173</v>
       </c>
       <c r="B174" t="n">
-        <v>1.137533025517081</v>
+        <v>-0.3065204090505097</v>
       </c>
     </row>
     <row r="175">
@@ -4460,7 +4460,7 @@
         <v>174</v>
       </c>
       <c r="B175" t="n">
-        <v>1.1217747229786525</v>
+        <v>1.1381805862375387</v>
       </c>
     </row>
     <row r="176">
@@ -4468,7 +4468,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>-1.4517866716437169</v>
+        <v>-1.4904003886807482</v>
       </c>
     </row>
     <row r="177">
@@ -4476,7 +4476,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>0.1215634905745737</v>
+        <v>1.1670662741514983</v>
       </c>
     </row>
     <row r="178">
@@ -4484,7 +4484,7 @@
         <v>177</v>
       </c>
       <c r="B178" t="n">
-        <v>0.07740147522971508</v>
+        <v>-1.2123072385421971</v>
       </c>
     </row>
     <row r="179">
@@ -4492,7 +4492,7 @@
         <v>178</v>
       </c>
       <c r="B179" t="n">
-        <v>-1.0734811477204278</v>
+        <v>0.8227829829181085</v>
       </c>
     </row>
     <row r="180">
@@ -4500,7 +4500,7 @@
         <v>179</v>
       </c>
       <c r="B180" t="n">
-        <v>-0.4278598557301664</v>
+        <v>0.9693258331144</v>
       </c>
     </row>
     <row r="181">
@@ -4508,7 +4508,7 @@
         <v>180</v>
       </c>
       <c r="B181" t="n">
-        <v>0.3487706049497273</v>
+        <v>1.0887060696754067</v>
       </c>
     </row>
     <row r="182">
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
       <c r="B182" t="n">
-        <v>1.0454540670015051</v>
+        <v>0.37308035525610533</v>
       </c>
     </row>
     <row r="183">
@@ -4524,7 +4524,7 @@
         <v>182</v>
       </c>
       <c r="B183" t="n">
-        <v>1.148094125047616</v>
+        <v>0.9225292736600081</v>
       </c>
     </row>
     <row r="184">
@@ -4532,7 +4532,7 @@
         <v>183</v>
       </c>
       <c r="B184" t="n">
-        <v>0.09106078922535688</v>
+        <v>1.7105156981800638</v>
       </c>
     </row>
     <row r="185">
@@ -4540,7 +4540,7 @@
         <v>184</v>
       </c>
       <c r="B185" t="n">
-        <v>0.591774494669623</v>
+        <v>0.21577121921129278</v>
       </c>
     </row>
     <row r="186">
@@ -4548,7 +4548,7 @@
         <v>185</v>
       </c>
       <c r="B186" t="n">
-        <v>-0.7325362754196925</v>
+        <v>1.4473036062359907</v>
       </c>
     </row>
     <row r="187">
@@ -4556,7 +4556,7 @@
         <v>186</v>
       </c>
       <c r="B187" t="n">
-        <v>0.12402068074075169</v>
+        <v>-0.3515869608521092</v>
       </c>
     </row>
     <row r="188">
@@ -4564,7 +4564,7 @@
         <v>187</v>
       </c>
       <c r="B188" t="n">
-        <v>0.04821963451428538</v>
+        <v>1.7559628141616013</v>
       </c>
     </row>
     <row r="189">
@@ -4572,7 +4572,7 @@
         <v>188</v>
       </c>
       <c r="B189" t="n">
-        <v>0.602082214343178</v>
+        <v>1.2405803874906</v>
       </c>
     </row>
     <row r="190">
@@ -4580,7 +4580,7 @@
         <v>189</v>
       </c>
       <c r="B190" t="n">
-        <v>-1.0686503474983815</v>
+        <v>-0.8857487458646397</v>
       </c>
     </row>
     <row r="191">
@@ -4588,7 +4588,7 @@
         <v>190</v>
       </c>
       <c r="B191" t="n">
-        <v>-1.1259623821439826</v>
+        <v>-0.1861035049986217</v>
       </c>
     </row>
     <row r="192">
@@ -4596,7 +4596,7 @@
         <v>191</v>
       </c>
       <c r="B192" t="n">
-        <v>1.0154975242230282</v>
+        <v>-1.356248996441115</v>
       </c>
     </row>
     <row r="193">
@@ -4604,7 +4604,7 @@
         <v>192</v>
       </c>
       <c r="B193" t="n">
-        <v>0.015450673335246341</v>
+        <v>-1.1153759043714793</v>
       </c>
     </row>
     <row r="194">
@@ -4612,7 +4612,7 @@
         <v>193</v>
       </c>
       <c r="B194" t="n">
-        <v>-0.7826001479060217</v>
+        <v>-0.953560514530208</v>
       </c>
     </row>
     <row r="195">
@@ -4620,7 +4620,7 @@
         <v>194</v>
       </c>
       <c r="B195" t="n">
-        <v>-0.4640318473164351</v>
+        <v>1.301760477208005</v>
       </c>
     </row>
     <row r="196">
@@ -4628,7 +4628,7 @@
         <v>195</v>
       </c>
       <c r="B196" t="n">
-        <v>-0.13042159370362663</v>
+        <v>0.22472028424799942</v>
       </c>
     </row>
     <row r="197">
@@ -4636,7 +4636,7 @@
         <v>196</v>
       </c>
       <c r="B197" t="n">
-        <v>-0.23102070960315682</v>
+        <v>0.528394889776967</v>
       </c>
     </row>
     <row r="198">
@@ -4644,7 +4644,7 @@
         <v>197</v>
       </c>
       <c r="B198" t="n">
-        <v>0.6370781256865339</v>
+        <v>-0.09202285232661879</v>
       </c>
     </row>
     <row r="199">
@@ -4652,7 +4652,7 @@
         <v>198</v>
       </c>
       <c r="B199" t="n">
-        <v>1.0877470431015914</v>
+        <v>-0.7142266854055285</v>
       </c>
     </row>
     <row r="200">
@@ -4660,7 +4660,7 @@
         <v>199</v>
       </c>
       <c r="B200" t="n">
-        <v>0.4453387349746674</v>
+        <v>-0.48997498745245416</v>
       </c>
     </row>
     <row r="201">
@@ -4668,7 +4668,7 @@
         <v>200</v>
       </c>
       <c r="B201" t="n">
-        <v>-0.09971367206565344</v>
+        <v>-0.6404172099875731</v>
       </c>
     </row>
     <row r="202">
@@ -4676,7 +4676,7 @@
         <v>201</v>
       </c>
       <c r="B202" t="n">
-        <v>-0.3537342061417577</v>
+        <v>0.1104243373944456</v>
       </c>
     </row>
     <row r="203">
@@ -4684,7 +4684,7 @@
         <v>202</v>
       </c>
       <c r="B203" t="n">
-        <v>-0.8274044156660355</v>
+        <v>-0.12643099288429044</v>
       </c>
     </row>
     <row r="204">
@@ -4692,7 +4692,7 @@
         <v>203</v>
       </c>
       <c r="B204" t="n">
-        <v>0.6672746432686757</v>
+        <v>-1.312896983210265</v>
       </c>
     </row>
     <row r="205">
@@ -4700,7 +4700,7 @@
         <v>204</v>
       </c>
       <c r="B205" t="n">
-        <v>-0.49102822084196235</v>
+        <v>-1.8468271296901946</v>
       </c>
     </row>
     <row r="206">
@@ -4708,7 +4708,7 @@
         <v>205</v>
       </c>
       <c r="B206" t="n">
-        <v>-0.5563599204801174</v>
+        <v>0.25468032354213355</v>
       </c>
     </row>
     <row r="207">
@@ -4716,7 +4716,7 @@
         <v>206</v>
       </c>
       <c r="B207" t="n">
-        <v>1.5756618397163356</v>
+        <v>1.9108474714001156</v>
       </c>
     </row>
     <row r="208">
@@ -4724,7 +4724,7 @@
         <v>207</v>
       </c>
       <c r="B208" t="n">
-        <v>0.9040227708448162</v>
+        <v>-0.32940012378693223</v>
       </c>
     </row>
     <row r="209">
@@ -4732,7 +4732,7 @@
         <v>208</v>
       </c>
       <c r="B209" t="n">
-        <v>1.2985060865146303</v>
+        <v>1.145019570464123</v>
       </c>
     </row>
     <row r="210">
@@ -4740,7 +4740,7 @@
         <v>209</v>
       </c>
       <c r="B210" t="n">
-        <v>1.0763398129666293</v>
+        <v>0.027218794011739777</v>
       </c>
     </row>
     <row r="211">
@@ -4748,7 +4748,7 @@
         <v>210</v>
       </c>
       <c r="B211" t="n">
-        <v>0.27700938930302055</v>
+        <v>0.0209944956596812</v>
       </c>
     </row>
     <row r="212">
@@ -4756,7 +4756,7 @@
         <v>211</v>
       </c>
       <c r="B212" t="n">
-        <v>0.02692191291291199</v>
+        <v>0.6199235467017463</v>
       </c>
     </row>
     <row r="213">
@@ -4764,7 +4764,7 @@
         <v>212</v>
       </c>
       <c r="B213" t="n">
-        <v>0.06430402782476098</v>
+        <v>0.04976435561455944</v>
       </c>
     </row>
     <row r="214">
@@ -4772,7 +4772,7 @@
         <v>213</v>
       </c>
       <c r="B214" t="n">
-        <v>0.9930506064202301</v>
+        <v>0.6468273141566006</v>
       </c>
     </row>
     <row r="215">
@@ -4780,7 +4780,7 @@
         <v>214</v>
       </c>
       <c r="B215" t="n">
-        <v>0.6689753187222066</v>
+        <v>1.739614270199917</v>
       </c>
     </row>
     <row r="216">
@@ -4788,7 +4788,7 @@
         <v>215</v>
       </c>
       <c r="B216" t="n">
-        <v>0.09636827024929141</v>
+        <v>0.05491767137712426</v>
       </c>
     </row>
     <row r="217">
@@ -4796,7 +4796,7 @@
         <v>216</v>
       </c>
       <c r="B217" t="n">
-        <v>-1.2373398338035202</v>
+        <v>0.5397532964301996</v>
       </c>
     </row>
     <row r="218">
@@ -4804,7 +4804,7 @@
         <v>217</v>
       </c>
       <c r="B218" t="n">
-        <v>0.33778630630021694</v>
+        <v>-0.4848724938499831</v>
       </c>
     </row>
     <row r="219">
@@ -4812,7 +4812,7 @@
         <v>218</v>
       </c>
       <c r="B219" t="n">
-        <v>-1.4690535310108659</v>
+        <v>-1.2440642454045754</v>
       </c>
     </row>
     <row r="220">
@@ -4820,7 +4820,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="n">
-        <v>0.8041837405004061</v>
+        <v>1.4785135427631015</v>
       </c>
     </row>
     <row r="221">
@@ -4828,7 +4828,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="n">
-        <v>-1.187682253386211</v>
+        <v>0.828212637655769</v>
       </c>
     </row>
     <row r="222">
@@ -4836,7 +4836,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="n">
-        <v>-0.15056940774165953</v>
+        <v>-1.1119219569538399</v>
       </c>
     </row>
     <row r="223">
@@ -4844,7 +4844,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="n">
-        <v>0.15136495392179236</v>
+        <v>1.5311282688599896</v>
       </c>
     </row>
     <row r="224">
@@ -4852,7 +4852,7 @@
         <v>223</v>
       </c>
       <c r="B224" t="n">
-        <v>1.5760696332467834</v>
+        <v>-0.5802002762342839</v>
       </c>
     </row>
     <row r="225">
@@ -4860,7 +4860,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="n">
-        <v>-0.5237885474582966</v>
+        <v>0.8371648334366056</v>
       </c>
     </row>
     <row r="226">
@@ -4868,7 +4868,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="n">
-        <v>-0.37672668993130864</v>
+        <v>-0.3561908153673911</v>
       </c>
     </row>
     <row r="227">
@@ -4876,7 +4876,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="n">
-        <v>-0.1687431367100549</v>
+        <v>-2.3999448455346624</v>
       </c>
     </row>
     <row r="228">
@@ -4884,7 +4884,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="n">
-        <v>-1.3218752620849454</v>
+        <v>-0.19326898032085008</v>
       </c>
     </row>
     <row r="229">
@@ -4892,7 +4892,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="n">
-        <v>-1.243340346270179</v>
+        <v>-0.4776362205649706</v>
       </c>
     </row>
     <row r="230">
@@ -4900,7 +4900,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="n">
-        <v>0.545928606019357</v>
+        <v>0.4875913864012697</v>
       </c>
     </row>
     <row r="231">
@@ -4908,7 +4908,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="n">
-        <v>0.9734721695914914</v>
+        <v>1.0204183376506777</v>
       </c>
     </row>
     <row r="232">
@@ -4916,7 +4916,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="n">
-        <v>-0.221952734328814</v>
+        <v>-1.8121285873514812</v>
       </c>
     </row>
     <row r="233">
@@ -4924,7 +4924,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="n">
-        <v>0.32380089668781914</v>
+        <v>0.8271818678587278</v>
       </c>
     </row>
     <row r="234">
@@ -4932,7 +4932,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="n">
-        <v>-0.933079585672937</v>
+        <v>1.3622655142729183</v>
       </c>
     </row>
     <row r="235">
@@ -4940,7 +4940,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="n">
-        <v>1.3656046357154838</v>
+        <v>0.13598402528912062</v>
       </c>
     </row>
     <row r="236">
@@ -4948,7 +4948,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="n">
-        <v>-0.02839852347735872</v>
+        <v>-0.5640198143104327</v>
       </c>
     </row>
     <row r="237">
@@ -4956,7 +4956,7 @@
         <v>236</v>
       </c>
       <c r="B237" t="n">
-        <v>0.3508397590002102</v>
+        <v>-0.8234189889390361</v>
       </c>
     </row>
     <row r="238">
@@ -4964,7 +4964,7 @@
         <v>237</v>
       </c>
       <c r="B238" t="n">
-        <v>-0.13023028481430216</v>
+        <v>-0.34988387288457856</v>
       </c>
     </row>
     <row r="239">
@@ -4972,7 +4972,7 @@
         <v>238</v>
       </c>
       <c r="B239" t="n">
-        <v>-0.02285032823931989</v>
+        <v>-1.457519174272697</v>
       </c>
     </row>
     <row r="240">
@@ -4980,7 +4980,7 @@
         <v>239</v>
       </c>
       <c r="B240" t="n">
-        <v>-0.057688108284181853</v>
+        <v>-1.084149636586841</v>
       </c>
     </row>
     <row r="241">
@@ -4988,7 +4988,7 @@
         <v>240</v>
       </c>
       <c r="B241" t="n">
-        <v>0.6271664744113665</v>
+        <v>0.4298053106115426</v>
       </c>
     </row>
     <row r="242">
@@ -4996,7 +4996,7 @@
         <v>241</v>
       </c>
       <c r="B242" t="n">
-        <v>-0.42353192374844667</v>
+        <v>-0.23018510958903501</v>
       </c>
     </row>
     <row r="243">
@@ -5004,7 +5004,7 @@
         <v>242</v>
       </c>
       <c r="B243" t="n">
-        <v>-1.748031697854375</v>
+        <v>-0.3256503521010347</v>
       </c>
     </row>
     <row r="244">
@@ -5012,7 +5012,7 @@
         <v>243</v>
       </c>
       <c r="B244" t="n">
-        <v>0.20775066602676504</v>
+        <v>-0.3501350694822932</v>
       </c>
     </row>
     <row r="245">
@@ -5020,7 +5020,7 @@
         <v>244</v>
       </c>
       <c r="B245" t="n">
-        <v>-1.5959321577208307</v>
+        <v>-0.5378515365287694</v>
       </c>
     </row>
     <row r="246">
@@ -5028,7 +5028,7 @@
         <v>245</v>
       </c>
       <c r="B246" t="n">
-        <v>0.21940378710954522</v>
+        <v>0.0864888110543962</v>
       </c>
     </row>
     <row r="247">
@@ -5036,7 +5036,7 @@
         <v>246</v>
       </c>
       <c r="B247" t="n">
-        <v>-0.7443418275378757</v>
+        <v>1.0832036196090997</v>
       </c>
     </row>
     <row r="248">
@@ -5044,7 +5044,7 @@
         <v>247</v>
       </c>
       <c r="B248" t="n">
-        <v>-0.12307256666022215</v>
+        <v>-0.24378267340242712</v>
       </c>
     </row>
     <row r="249">
@@ -5052,7 +5052,7 @@
         <v>248</v>
       </c>
       <c r="B249" t="n">
-        <v>-1.5973029851315288</v>
+        <v>-0.4586926346722524</v>
       </c>
     </row>
     <row r="250">
@@ -5060,7 +5060,7 @@
         <v>249</v>
       </c>
       <c r="B250" t="n">
-        <v>-0.3161468286945087</v>
+        <v>1.1442385932319457</v>
       </c>
     </row>
     <row r="251">
@@ -5068,7 +5068,7 @@
         <v>250</v>
       </c>
       <c r="B251" t="n">
-        <v>0.7759998324382307</v>
+        <v>-0.9882078805793191</v>
       </c>
     </row>
     <row r="252">
@@ -5076,7 +5076,7 @@
         <v>251</v>
       </c>
       <c r="B252" t="n">
-        <v>-0.6778799347820914</v>
+        <v>0.631433130525151</v>
       </c>
     </row>
     <row r="253">
@@ -5084,7 +5084,7 @@
         <v>252</v>
       </c>
       <c r="B253" t="n">
-        <v>-0.12448230652317256</v>
+        <v>-0.738241385337546</v>
       </c>
     </row>
     <row r="254">
@@ -5092,7 +5092,7 @@
         <v>253</v>
       </c>
       <c r="B254" t="n">
-        <v>0.40483096907520344</v>
+        <v>-0.15202867046527463</v>
       </c>
     </row>
     <row r="255">
@@ -5100,7 +5100,7 @@
         <v>254</v>
       </c>
       <c r="B255" t="n">
-        <v>-0.9701851082034411</v>
+        <v>-0.9058733612294306</v>
       </c>
     </row>
     <row r="256">
@@ -5108,7 +5108,7 @@
         <v>255</v>
       </c>
       <c r="B256" t="n">
-        <v>0.0075150343790649984</v>
+        <v>0.3048873808021547</v>
       </c>
     </row>
     <row r="257">
@@ -5116,7 +5116,7 @@
         <v>256</v>
       </c>
       <c r="B257" t="n">
-        <v>-0.7182496216556489</v>
+        <v>0.3019417375969553</v>
       </c>
     </row>
     <row r="258">
@@ -5124,7 +5124,7 @@
         <v>257</v>
       </c>
       <c r="B258" t="n">
-        <v>-0.0711411882410372</v>
+        <v>-0.19937693629924055</v>
       </c>
     </row>
     <row r="259">
@@ -5132,7 +5132,7 @@
         <v>258</v>
       </c>
       <c r="B259" t="n">
-        <v>1.1681441983047591</v>
+        <v>0.21621665403373933</v>
       </c>
     </row>
     <row r="260">
@@ -5140,7 +5140,7 @@
         <v>259</v>
       </c>
       <c r="B260" t="n">
-        <v>0.15301372650980627</v>
+        <v>0.881512575954399</v>
       </c>
     </row>
     <row r="261">
@@ -5148,7 +5148,7 @@
         <v>260</v>
       </c>
       <c r="B261" t="n">
-        <v>0.641261754219912</v>
+        <v>-0.747301901979673</v>
       </c>
     </row>
     <row r="262">
@@ -5156,7 +5156,7 @@
         <v>261</v>
       </c>
       <c r="B262" t="n">
-        <v>-2.5587737553320298</v>
+        <v>2.5634392092091387</v>
       </c>
     </row>
     <row r="263">
@@ -5164,7 +5164,7 @@
         <v>262</v>
       </c>
       <c r="B263" t="n">
-        <v>0.20980885772993899</v>
+        <v>0.5079325866691033</v>
       </c>
     </row>
     <row r="264">
@@ -5172,7 +5172,7 @@
         <v>263</v>
       </c>
       <c r="B264" t="n">
-        <v>-0.3219454312634558</v>
+        <v>-0.0037501790892482856</v>
       </c>
     </row>
     <row r="265">
@@ -5180,7 +5180,7 @@
         <v>264</v>
       </c>
       <c r="B265" t="n">
-        <v>0.5594846020236048</v>
+        <v>-1.7842773805704364</v>
       </c>
     </row>
     <row r="266">
@@ -5188,7 +5188,7 @@
         <v>265</v>
       </c>
       <c r="B266" t="n">
-        <v>0.16420879031648725</v>
+        <v>0.136130368276235</v>
       </c>
     </row>
     <row r="267">
@@ -5196,7 +5196,7 @@
         <v>266</v>
       </c>
       <c r="B267" t="n">
-        <v>-2.0450701103615776</v>
+        <v>2.0833243279767957</v>
       </c>
     </row>
     <row r="268">
@@ -5204,7 +5204,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="n">
-        <v>-0.7201066315084778</v>
+        <v>-2.770401399920535</v>
       </c>
     </row>
     <row r="269">
@@ -5212,7 +5212,7 @@
         <v>268</v>
       </c>
       <c r="B269" t="n">
-        <v>0.36620023904076365</v>
+        <v>0.1803385332628055</v>
       </c>
     </row>
     <row r="270">
@@ -5220,7 +5220,7 @@
         <v>269</v>
       </c>
       <c r="B270" t="n">
-        <v>-1.9121996218362352</v>
+        <v>-0.11879734543339479</v>
       </c>
     </row>
     <row r="271">
@@ -5228,7 +5228,7 @@
         <v>270</v>
       </c>
       <c r="B271" t="n">
-        <v>0.798345224269301</v>
+        <v>0.09073804555842978</v>
       </c>
     </row>
     <row r="272">
@@ -5236,7 +5236,7 @@
         <v>271</v>
       </c>
       <c r="B272" t="n">
-        <v>0.4662790917646436</v>
+        <v>-0.7567199782363692</v>
       </c>
     </row>
     <row r="273">
@@ -5244,7 +5244,7 @@
         <v>272</v>
       </c>
       <c r="B273" t="n">
-        <v>-1.2620076565028389</v>
+        <v>-0.00249867896786723</v>
       </c>
     </row>
     <row r="274">
@@ -5252,7 +5252,7 @@
         <v>273</v>
       </c>
       <c r="B274" t="n">
-        <v>0.5053483731066089</v>
+        <v>2.135934064120842</v>
       </c>
     </row>
     <row r="275">
@@ -5260,7 +5260,7 @@
         <v>274</v>
       </c>
       <c r="B275" t="n">
-        <v>1.7620511062708561</v>
+        <v>0.08274486499763771</v>
       </c>
     </row>
     <row r="276">
@@ -5268,7 +5268,7 @@
         <v>275</v>
       </c>
       <c r="B276" t="n">
-        <v>0.2605699129217679</v>
+        <v>-0.46155057716987635</v>
       </c>
     </row>
     <row r="277">
@@ -5276,7 +5276,7 @@
         <v>276</v>
       </c>
       <c r="B277" t="n">
-        <v>0.47480582065128807</v>
+        <v>0.31497952271912255</v>
       </c>
     </row>
     <row r="278">
@@ -5284,7 +5284,7 @@
         <v>277</v>
       </c>
       <c r="B278" t="n">
-        <v>0.567749201813267</v>
+        <v>-0.7388631772168668</v>
       </c>
     </row>
     <row r="279">
@@ -5292,7 +5292,7 @@
         <v>278</v>
       </c>
       <c r="B279" t="n">
-        <v>-0.6441715422918821</v>
+        <v>-0.19939622768315574</v>
       </c>
     </row>
     <row r="280">
@@ -5300,7 +5300,7 @@
         <v>279</v>
       </c>
       <c r="B280" t="n">
-        <v>-0.1904848453586343</v>
+        <v>-0.6298972146291971</v>
       </c>
     </row>
     <row r="281">
@@ -5308,7 +5308,7 @@
         <v>280</v>
       </c>
       <c r="B281" t="n">
-        <v>-0.3476085625900679</v>
+        <v>-0.944963433979934</v>
       </c>
     </row>
     <row r="282">
@@ -5316,7 +5316,7 @@
         <v>281</v>
       </c>
       <c r="B282" t="n">
-        <v>1.5873754344965063</v>
+        <v>0.8376814790255175</v>
       </c>
     </row>
     <row r="283">
@@ -5324,7 +5324,7 @@
         <v>282</v>
       </c>
       <c r="B283" t="n">
-        <v>0.8021699028676732</v>
+        <v>-0.04218443526775199</v>
       </c>
     </row>
     <row r="284">
@@ -5332,7 +5332,7 @@
         <v>283</v>
       </c>
       <c r="B284" t="n">
-        <v>-0.16535445198814092</v>
+        <v>1.12170641394787</v>
       </c>
     </row>
     <row r="285">
@@ -5340,7 +5340,7 @@
         <v>284</v>
       </c>
       <c r="B285" t="n">
-        <v>-0.07936249433871535</v>
+        <v>-0.14793859988571453</v>
       </c>
     </row>
     <row r="286">
@@ -5348,7 +5348,7 @@
         <v>285</v>
       </c>
       <c r="B286" t="n">
-        <v>0.28206897031974365</v>
+        <v>-0.2992957618520904</v>
       </c>
     </row>
     <row r="287">
@@ -5356,7 +5356,7 @@
         <v>286</v>
       </c>
       <c r="B287" t="n">
-        <v>0.6354832550854632</v>
+        <v>-0.5128857237738884</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>287</v>
       </c>
       <c r="B288" t="n">
-        <v>-0.3780295697987805</v>
+        <v>1.2274765046130285</v>
       </c>
     </row>
     <row r="289">
@@ -5372,7 +5372,7 @@
         <v>288</v>
       </c>
       <c r="B289" t="n">
-        <v>0.0031829209787871183</v>
+        <v>-0.48488607185746607</v>
       </c>
     </row>
     <row r="290">
@@ -5380,7 +5380,7 @@
         <v>289</v>
       </c>
       <c r="B290" t="n">
-        <v>-0.4106183973345919</v>
+        <v>0.9845370025883291</v>
       </c>
     </row>
     <row r="291">
@@ -5388,7 +5388,7 @@
         <v>290</v>
       </c>
       <c r="B291" t="n">
-        <v>-1.0196538479053443</v>
+        <v>-0.5083023102127076</v>
       </c>
     </row>
     <row r="292">
@@ -5396,7 +5396,7 @@
         <v>291</v>
       </c>
       <c r="B292" t="n">
-        <v>-0.6286598629937675</v>
+        <v>-0.5877890433908782</v>
       </c>
     </row>
     <row r="293">
@@ -5404,7 +5404,7 @@
         <v>292</v>
       </c>
       <c r="B293" t="n">
-        <v>0.3497801813196298</v>
+        <v>-0.2731917049396793</v>
       </c>
     </row>
     <row r="294">
@@ -5412,7 +5412,7 @@
         <v>293</v>
       </c>
       <c r="B294" t="n">
-        <v>1.0039386434372994</v>
+        <v>-0.5979138366995914</v>
       </c>
     </row>
     <row r="295">
@@ -5420,7 +5420,7 @@
         <v>294</v>
       </c>
       <c r="B295" t="n">
-        <v>0.44560933522798757</v>
+        <v>0.2979219444973481</v>
       </c>
     </row>
     <row r="296">
@@ -5428,7 +5428,7 @@
         <v>295</v>
       </c>
       <c r="B296" t="n">
-        <v>-1.3495313076973143</v>
+        <v>1.8078592203264443</v>
       </c>
     </row>
     <row r="297">
@@ -5436,7 +5436,7 @@
         <v>296</v>
       </c>
       <c r="B297" t="n">
-        <v>0.15937338801954926</v>
+        <v>-0.16818775547981796</v>
       </c>
     </row>
     <row r="298">
@@ -5444,7 +5444,7 @@
         <v>297</v>
       </c>
       <c r="B298" t="n">
-        <v>-1.8262684817603783</v>
+        <v>-0.08078264840090968</v>
       </c>
     </row>
     <row r="299">
@@ -5452,7 +5452,7 @@
         <v>298</v>
       </c>
       <c r="B299" t="n">
-        <v>-0.2652812760273907</v>
+        <v>1.2023399147203455</v>
       </c>
     </row>
     <row r="300">
@@ -5460,7 +5460,7 @@
         <v>299</v>
       </c>
       <c r="B300" t="n">
-        <v>-1.137592155972979</v>
+        <v>1.1948990443675604</v>
       </c>
     </row>
     <row r="301">
@@ -5468,7 +5468,7 @@
         <v>300</v>
       </c>
       <c r="B301" t="n">
-        <v>0.12883151638469895</v>
+        <v>0.5450697376305282</v>
       </c>
     </row>
     <row r="302">
@@ -5476,7 +5476,7 @@
         <v>301</v>
       </c>
       <c r="B302" t="n">
-        <v>0.9670792057556451</v>
+        <v>0.30941400468087643</v>
       </c>
     </row>
     <row r="303">
@@ -5484,7 +5484,7 @@
         <v>302</v>
       </c>
       <c r="B303" t="n">
-        <v>-0.24681329398827212</v>
+        <v>0.8329125207578204</v>
       </c>
     </row>
     <row r="304">
@@ -5492,7 +5492,7 @@
         <v>303</v>
       </c>
       <c r="B304" t="n">
-        <v>0.15951486667040352</v>
+        <v>-0.6962696115748787</v>
       </c>
     </row>
     <row r="305">
@@ -5500,7 +5500,7 @@
         <v>304</v>
       </c>
       <c r="B305" t="n">
-        <v>0.26870769592139476</v>
+        <v>0.008685138438814148</v>
       </c>
     </row>
     <row r="306">
@@ -5508,7 +5508,7 @@
         <v>305</v>
       </c>
       <c r="B306" t="n">
-        <v>-1.668300317739223</v>
+        <v>-0.4813217654858782</v>
       </c>
     </row>
     <row r="307">
@@ -5516,7 +5516,7 @@
         <v>306</v>
       </c>
       <c r="B307" t="n">
-        <v>-0.7407691179106632</v>
+        <v>-0.2533844446896734</v>
       </c>
     </row>
     <row r="308">
@@ -5524,7 +5524,7 @@
         <v>307</v>
       </c>
       <c r="B308" t="n">
-        <v>0.9275032703855078</v>
+        <v>-0.1869897892378232</v>
       </c>
     </row>
     <row r="309">
@@ -5532,7 +5532,7 @@
         <v>308</v>
       </c>
       <c r="B309" t="n">
-        <v>0.30876026956019553</v>
+        <v>-0.7015226409733776</v>
       </c>
     </row>
     <row r="310">
@@ -5540,7 +5540,7 @@
         <v>309</v>
       </c>
       <c r="B310" t="n">
-        <v>0.8766603644968488</v>
+        <v>0.9527264484184372</v>
       </c>
     </row>
     <row r="311">
@@ -5548,7 +5548,7 @@
         <v>310</v>
       </c>
       <c r="B311" t="n">
-        <v>1.0804534536811619</v>
+        <v>-0.17830673900999744</v>
       </c>
     </row>
     <row r="312">
@@ -5556,7 +5556,7 @@
         <v>311</v>
       </c>
       <c r="B312" t="n">
-        <v>-0.0900309548328022</v>
+        <v>-0.5809632040642174</v>
       </c>
     </row>
     <row r="313">
@@ -5564,7 +5564,7 @@
         <v>312</v>
       </c>
       <c r="B313" t="n">
-        <v>-1.865250529683787</v>
+        <v>0.5944755559620631</v>
       </c>
     </row>
     <row r="314">
@@ -5572,7 +5572,7 @@
         <v>313</v>
       </c>
       <c r="B314" t="n">
-        <v>0.1769801174659995</v>
+        <v>1.0664710511072795</v>
       </c>
     </row>
     <row r="315">
@@ -5580,7 +5580,7 @@
         <v>314</v>
       </c>
       <c r="B315" t="n">
-        <v>0.6945169587106522</v>
+        <v>-3.6088510199073585</v>
       </c>
     </row>
     <row r="316">
@@ -5588,7 +5588,7 @@
         <v>315</v>
       </c>
       <c r="B316" t="n">
-        <v>-0.08466983653774866</v>
+        <v>-1.048729491519204</v>
       </c>
     </row>
     <row r="317">
@@ -5596,7 +5596,7 @@
         <v>316</v>
       </c>
       <c r="B317" t="n">
-        <v>-0.621540028299933</v>
+        <v>1.1232618215558396</v>
       </c>
     </row>
     <row r="318">
@@ -5604,7 +5604,7 @@
         <v>317</v>
       </c>
       <c r="B318" t="n">
-        <v>-1.8738538964447478</v>
+        <v>0.4423896938645536</v>
       </c>
     </row>
     <row r="319">
@@ -5612,7 +5612,7 @@
         <v>318</v>
       </c>
       <c r="B319" t="n">
-        <v>-1.3697238635973423</v>
+        <v>0.8254060658098538</v>
       </c>
     </row>
     <row r="320">
@@ -5620,7 +5620,7 @@
         <v>319</v>
       </c>
       <c r="B320" t="n">
-        <v>-0.6745367748315855</v>
+        <v>1.0588441435110287</v>
       </c>
     </row>
     <row r="321">
@@ -5628,7 +5628,7 @@
         <v>320</v>
       </c>
       <c r="B321" t="n">
-        <v>1.0355520897026476</v>
+        <v>0.039928267024970945</v>
       </c>
     </row>
     <row r="322">
@@ -5636,7 +5636,7 @@
         <v>321</v>
       </c>
       <c r="B322" t="n">
-        <v>-0.02642933130872364</v>
+        <v>3.0641457583232814</v>
       </c>
     </row>
     <row r="323">
@@ -5644,7 +5644,7 @@
         <v>322</v>
       </c>
       <c r="B323" t="n">
-        <v>-0.1774827306463921</v>
+        <v>-0.5389462667923908</v>
       </c>
     </row>
     <row r="324">
@@ -5652,7 +5652,7 @@
         <v>323</v>
       </c>
       <c r="B324" t="n">
-        <v>-0.8742697128991468</v>
+        <v>0.34695251029546875</v>
       </c>
     </row>
     <row r="325">
@@ -5660,7 +5660,7 @@
         <v>324</v>
       </c>
       <c r="B325" t="n">
-        <v>0.06964851054959124</v>
+        <v>-0.5169827265049469</v>
       </c>
     </row>
     <row r="326">
@@ -5668,7 +5668,7 @@
         <v>325</v>
       </c>
       <c r="B326" t="n">
-        <v>1.5598866567866396</v>
+        <v>-1.3080960747704256</v>
       </c>
     </row>
     <row r="327">
@@ -5676,7 +5676,7 @@
         <v>326</v>
       </c>
       <c r="B327" t="n">
-        <v>0.40345464697835676</v>
+        <v>2.0342723352288345</v>
       </c>
     </row>
     <row r="328">
@@ -5684,7 +5684,7 @@
         <v>327</v>
       </c>
       <c r="B328" t="n">
-        <v>0.08843803464634249</v>
+        <v>0.39051308245640454</v>
       </c>
     </row>
     <row r="329">
@@ -5692,7 +5692,7 @@
         <v>328</v>
       </c>
       <c r="B329" t="n">
-        <v>-0.7124684485797945</v>
+        <v>-0.028523965047057523</v>
       </c>
     </row>
     <row r="330">
@@ -5700,7 +5700,7 @@
         <v>329</v>
       </c>
       <c r="B330" t="n">
-        <v>-0.12424400423455041</v>
+        <v>2.0667407976386256</v>
       </c>
     </row>
     <row r="331">
@@ -5708,7 +5708,7 @@
         <v>330</v>
       </c>
       <c r="B331" t="n">
-        <v>1.1879008448704562</v>
+        <v>1.1938802115233302</v>
       </c>
     </row>
     <row r="332">
@@ -5716,7 +5716,7 @@
         <v>331</v>
       </c>
       <c r="B332" t="n">
-        <v>-1.6209975160758852</v>
+        <v>2.040540571307627</v>
       </c>
     </row>
     <row r="333">
@@ -5724,7 +5724,7 @@
         <v>332</v>
       </c>
       <c r="B333" t="n">
-        <v>-1.480272212905495</v>
+        <v>0.09457353638944022</v>
       </c>
     </row>
     <row r="334">
@@ -5732,7 +5732,7 @@
         <v>333</v>
       </c>
       <c r="B334" t="n">
-        <v>0.7328744655111455</v>
+        <v>-1.3440757343298084</v>
       </c>
     </row>
     <row r="335">
@@ -5740,7 +5740,7 @@
         <v>334</v>
       </c>
       <c r="B335" t="n">
-        <v>-0.047173077042909364</v>
+        <v>-0.689867014397683</v>
       </c>
     </row>
     <row r="336">
@@ -5748,7 +5748,7 @@
         <v>335</v>
       </c>
       <c r="B336" t="n">
-        <v>0.47815187255541686</v>
+        <v>-0.2027102535599755</v>
       </c>
     </row>
     <row r="337">
@@ -5756,7 +5756,7 @@
         <v>336</v>
       </c>
       <c r="B337" t="n">
-        <v>0.3545885447318564</v>
+        <v>0.5738134223123995</v>
       </c>
     </row>
     <row r="338">
@@ -5764,7 +5764,7 @@
         <v>337</v>
       </c>
       <c r="B338" t="n">
-        <v>0.8299542947633578</v>
+        <v>0.9739808401779984</v>
       </c>
     </row>
     <row r="339">
@@ -5772,7 +5772,7 @@
         <v>338</v>
       </c>
       <c r="B339" t="n">
-        <v>-0.47735031429704866</v>
+        <v>-1.8028594683431176</v>
       </c>
     </row>
     <row r="340">
@@ -5780,7 +5780,7 @@
         <v>339</v>
       </c>
       <c r="B340" t="n">
-        <v>-0.5260022897455005</v>
+        <v>0.22251381804183626</v>
       </c>
     </row>
     <row r="341">
@@ -5788,7 +5788,7 @@
         <v>340</v>
       </c>
       <c r="B341" t="n">
-        <v>-0.9009286170690324</v>
+        <v>-1.9896747169291331</v>
       </c>
     </row>
     <row r="342">
@@ -5796,7 +5796,7 @@
         <v>341</v>
       </c>
       <c r="B342" t="n">
-        <v>-2.8615677685754557</v>
+        <v>2.054138636642563</v>
       </c>
     </row>
     <row r="343">
@@ -5804,7 +5804,7 @@
         <v>342</v>
       </c>
       <c r="B343" t="n">
-        <v>0.7019204966884518</v>
+        <v>1.4363344961679916</v>
       </c>
     </row>
     <row r="344">
@@ -5812,7 +5812,7 @@
         <v>343</v>
       </c>
       <c r="B344" t="n">
-        <v>-0.5651676665060095</v>
+        <v>-0.5563912424646765</v>
       </c>
     </row>
     <row r="345">
@@ -5820,7 +5820,7 @@
         <v>344</v>
       </c>
       <c r="B345" t="n">
-        <v>0.3403380815353351</v>
+        <v>-1.2234732603810967</v>
       </c>
     </row>
     <row r="346">
@@ -5828,7 +5828,7 @@
         <v>345</v>
       </c>
       <c r="B346" t="n">
-        <v>-1.2496884071586756</v>
+        <v>1.8730454508469354</v>
       </c>
     </row>
     <row r="347">
@@ -5836,7 +5836,7 @@
         <v>346</v>
       </c>
       <c r="B347" t="n">
-        <v>0.33320817323801144</v>
+        <v>-0.3873069835352178</v>
       </c>
     </row>
     <row r="348">
@@ -5844,7 +5844,7 @@
         <v>347</v>
       </c>
       <c r="B348" t="n">
-        <v>1.2736050679326953</v>
+        <v>-0.3139776855908467</v>
       </c>
     </row>
     <row r="349">
@@ -5852,7 +5852,7 @@
         <v>348</v>
       </c>
       <c r="B349" t="n">
-        <v>2.087425466981098</v>
+        <v>-1.3960269030030337</v>
       </c>
     </row>
     <row r="350">
@@ -5860,7 +5860,7 @@
         <v>349</v>
       </c>
       <c r="B350" t="n">
-        <v>0.17864861968215534</v>
+        <v>-1.7585772940425848</v>
       </c>
     </row>
     <row r="351">
@@ -5868,7 +5868,7 @@
         <v>350</v>
       </c>
       <c r="B351" t="n">
-        <v>-0.13246889930047287</v>
+        <v>0.6922976380716116</v>
       </c>
     </row>
     <row r="352">
@@ -5876,7 +5876,7 @@
         <v>351</v>
       </c>
       <c r="B352" t="n">
-        <v>-0.7140657721374107</v>
+        <v>-1.1476651139882577</v>
       </c>
     </row>
     <row r="353">
@@ -5884,7 +5884,7 @@
         <v>352</v>
       </c>
       <c r="B353" t="n">
-        <v>-1.2040892172097757</v>
+        <v>0.023720431124187046</v>
       </c>
     </row>
     <row r="354">
@@ -5892,7 +5892,7 @@
         <v>353</v>
       </c>
       <c r="B354" t="n">
-        <v>-0.2801786031804761</v>
+        <v>-0.02563884556133743</v>
       </c>
     </row>
     <row r="355">
@@ -5900,7 +5900,7 @@
         <v>354</v>
       </c>
       <c r="B355" t="n">
-        <v>0.6245116355471076</v>
+        <v>-0.4401728453166905</v>
       </c>
     </row>
     <row r="356">
@@ -5908,7 +5908,7 @@
         <v>355</v>
       </c>
       <c r="B356" t="n">
-        <v>-2.5544097978174594</v>
+        <v>-0.9814973053707771</v>
       </c>
     </row>
     <row r="357">
@@ -5916,7 +5916,7 @@
         <v>356</v>
       </c>
       <c r="B357" t="n">
-        <v>-2.697374835078886</v>
+        <v>0.7935994997248526</v>
       </c>
     </row>
     <row r="358">
@@ -5924,7 +5924,7 @@
         <v>357</v>
       </c>
       <c r="B358" t="n">
-        <v>-0.813025699827996</v>
+        <v>-1.77472096948863</v>
       </c>
     </row>
     <row r="359">
@@ -5932,7 +5932,7 @@
         <v>358</v>
       </c>
       <c r="B359" t="n">
-        <v>0.9191743540942516</v>
+        <v>-0.7227790139838264</v>
       </c>
     </row>
     <row r="360">
@@ -5940,7 +5940,7 @@
         <v>359</v>
       </c>
       <c r="B360" t="n">
-        <v>0.5863936295356036</v>
+        <v>-0.07135374872030278</v>
       </c>
     </row>
     <row r="361">
@@ -5948,7 +5948,7 @@
         <v>360</v>
       </c>
       <c r="B361" t="n">
-        <v>-2.01873230100531</v>
+        <v>1.2020962901049388</v>
       </c>
     </row>
     <row r="362">
@@ -5956,7 +5956,7 @@
         <v>361</v>
       </c>
       <c r="B362" t="n">
-        <v>-0.33148814956214395</v>
+        <v>0.7296304758250356</v>
       </c>
     </row>
     <row r="363">
@@ -5964,7 +5964,7 @@
         <v>362</v>
       </c>
       <c r="B363" t="n">
-        <v>0.9336293699922357</v>
+        <v>-0.2323033066413295</v>
       </c>
     </row>
     <row r="364">
@@ -5972,7 +5972,7 @@
         <v>363</v>
       </c>
       <c r="B364" t="n">
-        <v>0.8897647022267331</v>
+        <v>-0.20255993205261552</v>
       </c>
     </row>
     <row r="365">
@@ -5980,7 +5980,7 @@
         <v>364</v>
       </c>
       <c r="B365" t="n">
-        <v>-1.1221554414647235</v>
+        <v>0.39928716755631577</v>
       </c>
     </row>
     <row r="366">
@@ -5988,7 +5988,7 @@
         <v>365</v>
       </c>
       <c r="B366" t="n">
-        <v>1.722266411653967</v>
+        <v>0.3084140891666389</v>
       </c>
     </row>
     <row r="367">
@@ -5996,7 +5996,7 @@
         <v>366</v>
       </c>
       <c r="B367" t="n">
-        <v>-0.08465965411049364</v>
+        <v>-0.8703703127247439</v>
       </c>
     </row>
     <row r="368">
@@ -6004,7 +6004,7 @@
         <v>367</v>
       </c>
       <c r="B368" t="n">
-        <v>0.7019520973264127</v>
+        <v>0.35656725960172236</v>
       </c>
     </row>
     <row r="369">
@@ -6012,7 +6012,7 @@
         <v>368</v>
       </c>
       <c r="B369" t="n">
-        <v>0.10688922041335448</v>
+        <v>-1.2162353498911</v>
       </c>
     </row>
     <row r="370">
@@ -6020,7 +6020,7 @@
         <v>369</v>
       </c>
       <c r="B370" t="n">
-        <v>1.025568149901172</v>
+        <v>-0.5078874079149122</v>
       </c>
     </row>
     <row r="371">
@@ -6028,7 +6028,7 @@
         <v>370</v>
       </c>
       <c r="B371" t="n">
-        <v>-0.782541995604252</v>
+        <v>0.05497730883253733</v>
       </c>
     </row>
     <row r="372">
@@ -6036,7 +6036,7 @@
         <v>371</v>
       </c>
       <c r="B372" t="n">
-        <v>0.28333598380848724</v>
+        <v>-0.25337912907510673</v>
       </c>
     </row>
     <row r="373">
@@ -6044,7 +6044,7 @@
         <v>372</v>
       </c>
       <c r="B373" t="n">
-        <v>-0.18339314019360206</v>
+        <v>-0.5102752380381919</v>
       </c>
     </row>
     <row r="374">
@@ -6052,7 +6052,7 @@
         <v>373</v>
       </c>
       <c r="B374" t="n">
-        <v>0.13045125850613737</v>
+        <v>0.597453455975521</v>
       </c>
     </row>
     <row r="375">
@@ -6060,7 +6060,7 @@
         <v>374</v>
       </c>
       <c r="B375" t="n">
-        <v>0.30744012308864216</v>
+        <v>0.3268470219797965</v>
       </c>
     </row>
     <row r="376">
@@ -6068,7 +6068,7 @@
         <v>375</v>
       </c>
       <c r="B376" t="n">
-        <v>-1.172443149541805</v>
+        <v>-0.9266071208395583</v>
       </c>
     </row>
     <row r="377">
@@ -6076,7 +6076,7 @@
         <v>376</v>
       </c>
       <c r="B377" t="n">
-        <v>-0.7564871496789995</v>
+        <v>0.406994023379356</v>
       </c>
     </row>
     <row r="378">
@@ -6084,7 +6084,7 @@
         <v>377</v>
       </c>
       <c r="B378" t="n">
-        <v>1.0473973359390394</v>
+        <v>0.6026275161161558</v>
       </c>
     </row>
     <row r="379">
@@ -6092,7 +6092,7 @@
         <v>378</v>
       </c>
       <c r="B379" t="n">
-        <v>-0.4430496174036708</v>
+        <v>0.3694009510364237</v>
       </c>
     </row>
     <row r="380">
@@ -6100,7 +6100,7 @@
         <v>379</v>
       </c>
       <c r="B380" t="n">
-        <v>-0.5819449562976109</v>
+        <v>-0.25304282373212744</v>
       </c>
     </row>
     <row r="381">
@@ -6108,7 +6108,7 @@
         <v>380</v>
       </c>
       <c r="B381" t="n">
-        <v>0.7821594109999945</v>
+        <v>0.3230874477302826</v>
       </c>
     </row>
     <row r="382">
@@ -6116,7 +6116,7 @@
         <v>381</v>
       </c>
       <c r="B382" t="n">
-        <v>-0.5782797870705187</v>
+        <v>-1.7154153433521555</v>
       </c>
     </row>
     <row r="383">
@@ -6124,7 +6124,7 @@
         <v>382</v>
       </c>
       <c r="B383" t="n">
-        <v>0.13508022748302614</v>
+        <v>-0.2304005024086644</v>
       </c>
     </row>
     <row r="384">
@@ -6132,7 +6132,7 @@
         <v>383</v>
       </c>
       <c r="B384" t="n">
-        <v>0.624067568813715</v>
+        <v>1.0596602650512672</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>384</v>
       </c>
       <c r="B385" t="n">
-        <v>1.2898373547592545</v>
+        <v>-0.17260106063192088</v>
       </c>
     </row>
     <row r="386">
@@ -6148,7 +6148,7 @@
         <v>385</v>
       </c>
       <c r="B386" t="n">
-        <v>-0.5933285453269225</v>
+        <v>-2.015598376090242</v>
       </c>
     </row>
     <row r="387">
@@ -6156,7 +6156,7 @@
         <v>386</v>
       </c>
       <c r="B387" t="n">
-        <v>2.066794785192593</v>
+        <v>-0.8989669019970069</v>
       </c>
     </row>
     <row r="388">
@@ -6164,7 +6164,7 @@
         <v>387</v>
       </c>
       <c r="B388" t="n">
-        <v>1.1348704650565373</v>
+        <v>-0.2548748737133632</v>
       </c>
     </row>
     <row r="389">
@@ -6172,7 +6172,7 @@
         <v>388</v>
       </c>
       <c r="B389" t="n">
-        <v>-0.5701461801734153</v>
+        <v>0.37049578645889136</v>
       </c>
     </row>
     <row r="390">
@@ -6180,7 +6180,7 @@
         <v>389</v>
       </c>
       <c r="B390" t="n">
-        <v>0.2560571512012784</v>
+        <v>0.8378792272382914</v>
       </c>
     </row>
     <row r="391">
@@ -6188,7 +6188,7 @@
         <v>390</v>
       </c>
       <c r="B391" t="n">
-        <v>-1.2734623730670425</v>
+        <v>0.4131518274524908</v>
       </c>
     </row>
     <row r="392">
@@ -6196,7 +6196,7 @@
         <v>391</v>
       </c>
       <c r="B392" t="n">
-        <v>2.6705158890274583</v>
+        <v>-0.9057569258407562</v>
       </c>
     </row>
     <row r="393">
@@ -6204,7 +6204,7 @@
         <v>392</v>
       </c>
       <c r="B393" t="n">
-        <v>-0.44430250851846426</v>
+        <v>2.230336019302062</v>
       </c>
     </row>
     <row r="394">
@@ -6212,7 +6212,7 @@
         <v>393</v>
       </c>
       <c r="B394" t="n">
-        <v>0.1026485996419547</v>
+        <v>0.3530279949224967</v>
       </c>
     </row>
     <row r="395">
@@ -6220,7 +6220,7 @@
         <v>394</v>
       </c>
       <c r="B395" t="n">
-        <v>1.283368181710213</v>
+        <v>-0.5528722572339347</v>
       </c>
     </row>
     <row r="396">
@@ -6228,7 +6228,7 @@
         <v>395</v>
       </c>
       <c r="B396" t="n">
-        <v>0.6663581095596778</v>
+        <v>-0.4669801125584387</v>
       </c>
     </row>
     <row r="397">
@@ -6236,7 +6236,7 @@
         <v>396</v>
       </c>
       <c r="B397" t="n">
-        <v>0.3749420401411583</v>
+        <v>-0.2420290052776291</v>
       </c>
     </row>
     <row r="398">
@@ -6244,7 +6244,7 @@
         <v>397</v>
       </c>
       <c r="B398" t="n">
-        <v>0.5592540688899601</v>
+        <v>0.6348268202663688</v>
       </c>
     </row>
     <row r="399">
@@ -6252,7 +6252,7 @@
         <v>398</v>
       </c>
       <c r="B399" t="n">
-        <v>2.1068954792443697</v>
+        <v>0.5632579684991975</v>
       </c>
     </row>
     <row r="400">
@@ -6260,7 +6260,7 @@
         <v>399</v>
       </c>
       <c r="B400" t="n">
-        <v>1.7782059701856698</v>
+        <v>1.0097798607938488</v>
       </c>
     </row>
     <row r="401">
@@ -6268,7 +6268,7 @@
         <v>400</v>
       </c>
       <c r="B401" t="n">
-        <v>0.28825994849275477</v>
+        <v>1.0400058991196002</v>
       </c>
     </row>
     <row r="402">
@@ -6276,7 +6276,7 @@
         <v>401</v>
       </c>
       <c r="B402" t="n">
-        <v>1.0054532497266233</v>
+        <v>0.10681578333397863</v>
       </c>
     </row>
     <row r="403">
@@ -6284,7 +6284,7 @@
         <v>402</v>
       </c>
       <c r="B403" t="n">
-        <v>-0.3085805152561652</v>
+        <v>0.7333219406695322</v>
       </c>
     </row>
     <row r="404">
@@ -6292,7 +6292,7 @@
         <v>403</v>
       </c>
       <c r="B404" t="n">
-        <v>0.4307970130758189</v>
+        <v>-0.6289302260028132</v>
       </c>
     </row>
     <row r="405">
@@ -6300,7 +6300,7 @@
         <v>404</v>
       </c>
       <c r="B405" t="n">
-        <v>1.0296456718026687</v>
+        <v>-0.6840967137729225</v>
       </c>
     </row>
     <row r="406">
@@ -6308,7 +6308,7 @@
         <v>405</v>
       </c>
       <c r="B406" t="n">
-        <v>0.06153597281545805</v>
+        <v>0.4742243450773567</v>
       </c>
     </row>
     <row r="407">
@@ -6316,7 +6316,7 @@
         <v>406</v>
       </c>
       <c r="B407" t="n">
-        <v>1.689164212619029</v>
+        <v>-1.7387539523532496</v>
       </c>
     </row>
     <row r="408">
@@ -6324,7 +6324,7 @@
         <v>407</v>
       </c>
       <c r="B408" t="n">
-        <v>0.12499118367472747</v>
+        <v>-0.4705569811613085</v>
       </c>
     </row>
     <row r="409">
@@ -6332,7 +6332,7 @@
         <v>408</v>
       </c>
       <c r="B409" t="n">
-        <v>0.1810090613281652</v>
+        <v>1.1344997140064308</v>
       </c>
     </row>
     <row r="410">
@@ -6340,7 +6340,7 @@
         <v>409</v>
       </c>
       <c r="B410" t="n">
-        <v>0.4841546842891448</v>
+        <v>-0.1023000476513975</v>
       </c>
     </row>
     <row r="411">
@@ -6348,7 +6348,7 @@
         <v>410</v>
       </c>
       <c r="B411" t="n">
-        <v>-0.5757058322290348</v>
+        <v>-2.026777494530585</v>
       </c>
     </row>
     <row r="412">
@@ -6356,7 +6356,7 @@
         <v>411</v>
       </c>
       <c r="B412" t="n">
-        <v>-0.941525553496603</v>
+        <v>-2.0519997762564635</v>
       </c>
     </row>
     <row r="413">
@@ -6364,7 +6364,7 @@
         <v>412</v>
       </c>
       <c r="B413" t="n">
-        <v>-0.351871983144355</v>
+        <v>0.9535672984667032</v>
       </c>
     </row>
     <row r="414">
@@ -6372,7 +6372,7 @@
         <v>413</v>
       </c>
       <c r="B414" t="n">
-        <v>-0.1647116610809369</v>
+        <v>0.15537574916564476</v>
       </c>
     </row>
     <row r="415">
@@ -6380,7 +6380,7 @@
         <v>414</v>
       </c>
       <c r="B415" t="n">
-        <v>0.75836581663036</v>
+        <v>1.4240157434664815</v>
       </c>
     </row>
     <row r="416">
@@ -6388,7 +6388,7 @@
         <v>415</v>
       </c>
       <c r="B416" t="n">
-        <v>0.5457668567673769</v>
+        <v>-1.595997918121351</v>
       </c>
     </row>
     <row r="417">
@@ -6396,7 +6396,7 @@
         <v>416</v>
       </c>
       <c r="B417" t="n">
-        <v>-0.25230111763894403</v>
+        <v>-0.33802663361767993</v>
       </c>
     </row>
     <row r="418">
@@ -6404,7 +6404,7 @@
         <v>417</v>
       </c>
       <c r="B418" t="n">
-        <v>-0.5408670529710753</v>
+        <v>-0.698029536548161</v>
       </c>
     </row>
     <row r="419">
@@ -6412,7 +6412,7 @@
         <v>418</v>
       </c>
       <c r="B419" t="n">
-        <v>2.4953352517609098</v>
+        <v>-1.188743340998123</v>
       </c>
     </row>
     <row r="420">
@@ -6420,7 +6420,7 @@
         <v>419</v>
       </c>
       <c r="B420" t="n">
-        <v>-1.506332412847312</v>
+        <v>0.759645641858723</v>
       </c>
     </row>
     <row r="421">
@@ -6428,7 +6428,7 @@
         <v>420</v>
       </c>
       <c r="B421" t="n">
-        <v>0.2013452892723774</v>
+        <v>0.05815557007269758</v>
       </c>
     </row>
     <row r="422">
@@ -6436,7 +6436,7 @@
         <v>421</v>
       </c>
       <c r="B422" t="n">
-        <v>-0.9268934917753345</v>
+        <v>-0.7735891037767966</v>
       </c>
     </row>
     <row r="423">
@@ -6444,7 +6444,7 @@
         <v>422</v>
       </c>
       <c r="B423" t="n">
-        <v>-0.6026770111148348</v>
+        <v>0.30647871447037434</v>
       </c>
     </row>
     <row r="424">
@@ -6452,7 +6452,7 @@
         <v>423</v>
       </c>
       <c r="B424" t="n">
-        <v>-0.6378803001270843</v>
+        <v>1.5516896770538011</v>
       </c>
     </row>
     <row r="425">
@@ -6460,7 +6460,7 @@
         <v>424</v>
       </c>
       <c r="B425" t="n">
-        <v>-0.13750304867797655</v>
+        <v>-0.22653577089778038</v>
       </c>
     </row>
     <row r="426">
@@ -6468,7 +6468,7 @@
         <v>425</v>
       </c>
       <c r="B426" t="n">
-        <v>-0.7921285235263553</v>
+        <v>-0.7501581018489628</v>
       </c>
     </row>
     <row r="427">
@@ -6476,7 +6476,7 @@
         <v>426</v>
       </c>
       <c r="B427" t="n">
-        <v>1.7690468325723074</v>
+        <v>1.1778870292004169</v>
       </c>
     </row>
     <row r="428">
@@ -6484,7 +6484,7 @@
         <v>427</v>
       </c>
       <c r="B428" t="n">
-        <v>0.08376582141715981</v>
+        <v>-0.2026587016735461</v>
       </c>
     </row>
     <row r="429">
@@ -6492,7 +6492,7 @@
         <v>428</v>
       </c>
       <c r="B429" t="n">
-        <v>0.14802831300332747</v>
+        <v>0.13107927213557044</v>
       </c>
     </row>
     <row r="430">
@@ -6500,7 +6500,7 @@
         <v>429</v>
       </c>
       <c r="B430" t="n">
-        <v>0.7878096266676498</v>
+        <v>0.05864574816570897</v>
       </c>
     </row>
     <row r="431">
@@ -6508,7 +6508,7 @@
         <v>430</v>
       </c>
       <c r="B431" t="n">
-        <v>-0.608201782420859</v>
+        <v>0.21250616272490558</v>
       </c>
     </row>
     <row r="432">
@@ -6516,7 +6516,7 @@
         <v>431</v>
       </c>
       <c r="B432" t="n">
-        <v>-2.1578633157747853</v>
+        <v>0.6504088649348705</v>
       </c>
     </row>
     <row r="433">
@@ -6524,7 +6524,7 @@
         <v>432</v>
       </c>
       <c r="B433" t="n">
-        <v>0.4192678095974345</v>
+        <v>0.6400891497626064</v>
       </c>
     </row>
     <row r="434">
@@ -6532,7 +6532,7 @@
         <v>433</v>
       </c>
       <c r="B434" t="n">
-        <v>-1.4595444227529515</v>
+        <v>0.800792262380609</v>
       </c>
     </row>
     <row r="435">
@@ -6540,7 +6540,7 @@
         <v>434</v>
       </c>
       <c r="B435" t="n">
-        <v>0.07499101597483776</v>
+        <v>-0.7635945394327016</v>
       </c>
     </row>
     <row r="436">
@@ -6548,7 +6548,7 @@
         <v>435</v>
       </c>
       <c r="B436" t="n">
-        <v>0.47904119877172857</v>
+        <v>1.9888356840173633</v>
       </c>
     </row>
     <row r="437">
@@ -6556,7 +6556,7 @@
         <v>436</v>
       </c>
       <c r="B437" t="n">
-        <v>0.78398397149894</v>
+        <v>-0.2154070972069035</v>
       </c>
     </row>
     <row r="438">
@@ -6564,7 +6564,7 @@
         <v>437</v>
       </c>
       <c r="B438" t="n">
-        <v>0.3784100232175909</v>
+        <v>0.7380688695439455</v>
       </c>
     </row>
     <row r="439">
@@ -6572,7 +6572,7 @@
         <v>438</v>
       </c>
       <c r="B439" t="n">
-        <v>0.748577450324846</v>
+        <v>0.02448606302008625</v>
       </c>
     </row>
     <row r="440">
@@ -6580,7 +6580,7 @@
         <v>439</v>
       </c>
       <c r="B440" t="n">
-        <v>-1.3339298049889274</v>
+        <v>-0.11266188175841416</v>
       </c>
     </row>
     <row r="441">
@@ -6588,7 +6588,7 @@
         <v>440</v>
       </c>
       <c r="B441" t="n">
-        <v>-1.0290807110141666</v>
+        <v>-1.3841596431753909</v>
       </c>
     </row>
     <row r="442">
@@ -6596,7 +6596,7 @@
         <v>441</v>
       </c>
       <c r="B442" t="n">
-        <v>-0.5094069102764072</v>
+        <v>-0.601690875369217</v>
       </c>
     </row>
     <row r="443">
@@ -6604,7 +6604,7 @@
         <v>442</v>
       </c>
       <c r="B443" t="n">
-        <v>0.25385668123099525</v>
+        <v>-0.042836931018048315</v>
       </c>
     </row>
     <row r="444">
@@ -6612,7 +6612,7 @@
         <v>443</v>
       </c>
       <c r="B444" t="n">
-        <v>-0.07449138685024924</v>
+        <v>-1.6216668782104462</v>
       </c>
     </row>
     <row r="445">
@@ -6620,7 +6620,7 @@
         <v>444</v>
       </c>
       <c r="B445" t="n">
-        <v>0.3478553674390763</v>
+        <v>0.6360367482732823</v>
       </c>
     </row>
     <row r="446">
@@ -6628,7 +6628,7 @@
         <v>445</v>
       </c>
       <c r="B446" t="n">
-        <v>-0.9983768355516086</v>
+        <v>-0.10341007355885903</v>
       </c>
     </row>
     <row r="447">
@@ -6636,7 +6636,7 @@
         <v>446</v>
       </c>
       <c r="B447" t="n">
-        <v>-0.14747274975310243</v>
+        <v>1.3334364876054312</v>
       </c>
     </row>
     <row r="448">
@@ -6644,7 +6644,7 @@
         <v>447</v>
       </c>
       <c r="B448" t="n">
-        <v>1.1000047566743445</v>
+        <v>1.69161832931206</v>
       </c>
     </row>
     <row r="449">
@@ -6652,7 +6652,7 @@
         <v>448</v>
       </c>
       <c r="B449" t="n">
-        <v>0.029149958150688483</v>
+        <v>-2.116822412008892</v>
       </c>
     </row>
     <row r="450">
@@ -6660,7 +6660,7 @@
         <v>449</v>
       </c>
       <c r="B450" t="n">
-        <v>0.8105125063440531</v>
+        <v>0.18357188961739387</v>
       </c>
     </row>
     <row r="451">
@@ -6668,7 +6668,7 @@
         <v>450</v>
       </c>
       <c r="B451" t="n">
-        <v>1.0912332192305023</v>
+        <v>-0.2451486548766791</v>
       </c>
     </row>
     <row r="452">
@@ -6676,7 +6676,7 @@
         <v>451</v>
       </c>
       <c r="B452" t="n">
-        <v>0.7347765503847019</v>
+        <v>-1.2136841237749365</v>
       </c>
     </row>
     <row r="453">
@@ -6684,7 +6684,7 @@
         <v>452</v>
       </c>
       <c r="B453" t="n">
-        <v>1.8867429483400209</v>
+        <v>-1.1957102315020263</v>
       </c>
     </row>
     <row r="454">
@@ -6692,7 +6692,7 @@
         <v>453</v>
       </c>
       <c r="B454" t="n">
-        <v>0.8153269509485576</v>
+        <v>0.8242474034343898</v>
       </c>
     </row>
     <row r="455">
@@ -6700,7 +6700,7 @@
         <v>454</v>
       </c>
       <c r="B455" t="n">
-        <v>-0.4857087410351736</v>
+        <v>1.330926076762393</v>
       </c>
     </row>
     <row r="456">
@@ -6708,7 +6708,7 @@
         <v>455</v>
       </c>
       <c r="B456" t="n">
-        <v>-1.0980411728272361</v>
+        <v>-1.6754089410816324</v>
       </c>
     </row>
     <row r="457">
@@ -6716,7 +6716,7 @@
         <v>456</v>
       </c>
       <c r="B457" t="n">
-        <v>1.3314536353450002</v>
+        <v>-0.4862547801711447</v>
       </c>
     </row>
     <row r="458">
@@ -6724,7 +6724,7 @@
         <v>457</v>
       </c>
       <c r="B458" t="n">
-        <v>0.9453509719988187</v>
+        <v>-0.7639151578131786</v>
       </c>
     </row>
     <row r="459">
@@ -6732,7 +6732,7 @@
         <v>458</v>
       </c>
       <c r="B459" t="n">
-        <v>1.1179815293883042</v>
+        <v>0.26808835763496897</v>
       </c>
     </row>
     <row r="460">
@@ -6740,7 +6740,7 @@
         <v>459</v>
       </c>
       <c r="B460" t="n">
-        <v>-0.6840591890537033</v>
+        <v>0.8595673078846335</v>
       </c>
     </row>
     <row r="461">
@@ -6748,7 +6748,7 @@
         <v>460</v>
       </c>
       <c r="B461" t="n">
-        <v>0.5234142646629879</v>
+        <v>-0.7158943685052235</v>
       </c>
     </row>
     <row r="462">
@@ -6756,7 +6756,7 @@
         <v>461</v>
       </c>
       <c r="B462" t="n">
-        <v>-0.4540294682950209</v>
+        <v>0.2253501642709511</v>
       </c>
     </row>
     <row r="463">
@@ -6764,7 +6764,7 @@
         <v>462</v>
       </c>
       <c r="B463" t="n">
-        <v>0.16956482278904852</v>
+        <v>-0.4653111583589804</v>
       </c>
     </row>
     <row r="464">
@@ -6772,7 +6772,7 @@
         <v>463</v>
       </c>
       <c r="B464" t="n">
-        <v>-0.43004018500804514</v>
+        <v>-1.6364427205614045</v>
       </c>
     </row>
     <row r="465">
@@ -6780,7 +6780,7 @@
         <v>464</v>
       </c>
       <c r="B465" t="n">
-        <v>-0.30795975086087984</v>
+        <v>1.9511601958072917</v>
       </c>
     </row>
     <row r="466">
@@ -6788,7 +6788,7 @@
         <v>465</v>
       </c>
       <c r="B466" t="n">
-        <v>-0.4381298438952973</v>
+        <v>-1.2304161931934423</v>
       </c>
     </row>
     <row r="467">
@@ -6796,7 +6796,7 @@
         <v>466</v>
       </c>
       <c r="B467" t="n">
-        <v>-0.23434953513409934</v>
+        <v>1.1551446995462051</v>
       </c>
     </row>
     <row r="468">
@@ -6804,7 +6804,7 @@
         <v>467</v>
       </c>
       <c r="B468" t="n">
-        <v>1.0583924154477324</v>
+        <v>0.9317791730987037</v>
       </c>
     </row>
     <row r="469">
@@ -6812,7 +6812,7 @@
         <v>468</v>
       </c>
       <c r="B469" t="n">
-        <v>0.21569641073721188</v>
+        <v>-0.9044647035510383</v>
       </c>
     </row>
     <row r="470">
@@ -6820,7 +6820,7 @@
         <v>469</v>
       </c>
       <c r="B470" t="n">
-        <v>-0.9970863631960657</v>
+        <v>-0.14547341001388542</v>
       </c>
     </row>
     <row r="471">
@@ -6828,7 +6828,7 @@
         <v>470</v>
       </c>
       <c r="B471" t="n">
-        <v>0.40665409265490804</v>
+        <v>-1.7482258387245153</v>
       </c>
     </row>
     <row r="472">
@@ -6836,7 +6836,7 @@
         <v>471</v>
       </c>
       <c r="B472" t="n">
-        <v>0.04412058919745423</v>
+        <v>0.6589592162264787</v>
       </c>
     </row>
     <row r="473">
@@ -6844,7 +6844,7 @@
         <v>472</v>
       </c>
       <c r="B473" t="n">
-        <v>1.2256120284645786</v>
+        <v>0.09679010437095144</v>
       </c>
     </row>
     <row r="474">
@@ -6852,7 +6852,7 @@
         <v>473</v>
       </c>
       <c r="B474" t="n">
-        <v>-0.2940037284326418</v>
+        <v>-0.361282044464684</v>
       </c>
     </row>
     <row r="475">
@@ -6860,7 +6860,7 @@
         <v>474</v>
       </c>
       <c r="B475" t="n">
-        <v>-0.47849789672199555</v>
+        <v>-1.8438604687972577</v>
       </c>
     </row>
     <row r="476">
@@ -6868,7 +6868,7 @@
         <v>475</v>
       </c>
       <c r="B476" t="n">
-        <v>0.47276550081487556</v>
+        <v>0.2845150448094643</v>
       </c>
     </row>
     <row r="477">
@@ -6876,7 +6876,7 @@
         <v>476</v>
       </c>
       <c r="B477" t="n">
-        <v>-0.7149864619221861</v>
+        <v>-0.37717993023710467</v>
       </c>
     </row>
     <row r="478">
@@ -6884,7 +6884,7 @@
         <v>477</v>
       </c>
       <c r="B478" t="n">
-        <v>-0.8110317177051071</v>
+        <v>0.7865151855964868</v>
       </c>
     </row>
     <row r="479">
@@ -6892,7 +6892,7 @@
         <v>478</v>
       </c>
       <c r="B479" t="n">
-        <v>0.6141752983953706</v>
+        <v>-0.6630173963035838</v>
       </c>
     </row>
     <row r="480">
@@ -6900,7 +6900,7 @@
         <v>479</v>
       </c>
       <c r="B480" t="n">
-        <v>-0.9477085426612876</v>
+        <v>0.038571949930541846</v>
       </c>
     </row>
     <row r="481">
@@ -6908,7 +6908,7 @@
         <v>480</v>
       </c>
       <c r="B481" t="n">
-        <v>-0.7486524131342354</v>
+        <v>-0.7665147548692121</v>
       </c>
     </row>
     <row r="482">
@@ -6916,7 +6916,7 @@
         <v>481</v>
       </c>
       <c r="B482" t="n">
-        <v>1.4311581614161983</v>
+        <v>1.0066933963328715</v>
       </c>
     </row>
     <row r="483">
@@ -6924,7 +6924,7 @@
         <v>482</v>
       </c>
       <c r="B483" t="n">
-        <v>-0.4483913429209242</v>
+        <v>-1.3574929558717928</v>
       </c>
     </row>
     <row r="484">
@@ -6932,7 +6932,7 @@
         <v>483</v>
       </c>
       <c r="B484" t="n">
-        <v>1.2260076359434178</v>
+        <v>-0.012507793935762047</v>
       </c>
     </row>
     <row r="485">
@@ -6940,7 +6940,7 @@
         <v>484</v>
       </c>
       <c r="B485" t="n">
-        <v>0.04368554522497991</v>
+        <v>0.6617876847460749</v>
       </c>
     </row>
     <row r="486">
@@ -6948,7 +6948,7 @@
         <v>485</v>
       </c>
       <c r="B486" t="n">
-        <v>0.36864665432808724</v>
+        <v>-0.4007708173272731</v>
       </c>
     </row>
     <row r="487">
@@ -6956,7 +6956,7 @@
         <v>486</v>
       </c>
       <c r="B487" t="n">
-        <v>0.9355794411779568</v>
+        <v>-0.35756815757861976</v>
       </c>
     </row>
     <row r="488">
@@ -6964,7 +6964,7 @@
         <v>487</v>
       </c>
       <c r="B488" t="n">
-        <v>0.9449773766522073</v>
+        <v>-1.0041090935389616</v>
       </c>
     </row>
     <row r="489">
@@ -6972,7 +6972,7 @@
         <v>488</v>
       </c>
       <c r="B489" t="n">
-        <v>-0.7991693195497103</v>
+        <v>-0.11358905890773781</v>
       </c>
     </row>
     <row r="490">
@@ -6980,7 +6980,7 @@
         <v>489</v>
       </c>
       <c r="B490" t="n">
-        <v>-0.2914951546508132</v>
+        <v>-1.0104093234845968</v>
       </c>
     </row>
     <row r="491">
@@ -6988,7 +6988,7 @@
         <v>490</v>
       </c>
       <c r="B491" t="n">
-        <v>-2.1615242278118347</v>
+        <v>-0.7778994180357083</v>
       </c>
     </row>
     <row r="492">
@@ -6996,7 +6996,7 @@
         <v>491</v>
       </c>
       <c r="B492" t="n">
-        <v>0.11791747243438387</v>
+        <v>0.6583097506193922</v>
       </c>
     </row>
     <row r="493">
@@ -7004,7 +7004,7 @@
         <v>492</v>
       </c>
       <c r="B493" t="n">
-        <v>0.5984630679056515</v>
+        <v>1.794946343926999</v>
       </c>
     </row>
     <row r="494">
@@ -7012,7 +7012,7 @@
         <v>493</v>
       </c>
       <c r="B494" t="n">
-        <v>-1.69886917326893</v>
+        <v>0.864416509256039</v>
       </c>
     </row>
     <row r="495">
@@ -7020,7 +7020,7 @@
         <v>494</v>
       </c>
       <c r="B495" t="n">
-        <v>1.7609074021326026</v>
+        <v>1.1811877728905393</v>
       </c>
     </row>
     <row r="496">
@@ -7028,7 +7028,7 @@
         <v>495</v>
       </c>
       <c r="B496" t="n">
-        <v>-0.33866714455824837</v>
+        <v>-0.373097391207023</v>
       </c>
     </row>
     <row r="497">
@@ -7036,7 +7036,7 @@
         <v>496</v>
       </c>
       <c r="B497" t="n">
-        <v>0.26842517626031953</v>
+        <v>0.8028162191666033</v>
       </c>
     </row>
     <row r="498">
@@ -7044,7 +7044,7 @@
         <v>497</v>
       </c>
       <c r="B498" t="n">
-        <v>-0.29312862637896314</v>
+        <v>0.8628450891205156</v>
       </c>
     </row>
     <row r="499">
@@ -7052,7 +7052,7 @@
         <v>498</v>
       </c>
       <c r="B499" t="n">
-        <v>-0.8601340173709628</v>
+        <v>0.6741905303809775</v>
       </c>
     </row>
     <row r="500">
@@ -7060,7 +7060,7 @@
         <v>499</v>
       </c>
       <c r="B500" t="n">
-        <v>1.2030672787376349</v>
+        <v>0.8347206108955301</v>
       </c>
     </row>
     <row r="501">
@@ -7068,7 +7068,7 @@
         <v>500</v>
       </c>
       <c r="B501" t="n">
-        <v>0.8306271562991077</v>
+        <v>1.6847411158667476</v>
       </c>
     </row>
     <row r="502">
@@ -7076,7 +7076,7 @@
         <v>501</v>
       </c>
       <c r="B502" t="n">
-        <v>1.5663496296431216</v>
+        <v>0.2706637813054925</v>
       </c>
     </row>
     <row r="503">
@@ -7084,7 +7084,7 @@
         <v>502</v>
       </c>
       <c r="B503" t="n">
-        <v>-1.4690839678858043</v>
+        <v>-0.7215162150908879</v>
       </c>
     </row>
     <row r="504">
@@ -7092,7 +7092,7 @@
         <v>503</v>
       </c>
       <c r="B504" t="n">
-        <v>-1.1653391605104213</v>
+        <v>-0.42407578950808167</v>
       </c>
     </row>
     <row r="505">
@@ -7100,7 +7100,7 @@
         <v>504</v>
       </c>
       <c r="B505" t="n">
-        <v>-0.17101503032760304</v>
+        <v>-0.24938744658923356</v>
       </c>
     </row>
     <row r="506">
@@ -7108,7 +7108,7 @@
         <v>505</v>
       </c>
       <c r="B506" t="n">
-        <v>0.390846566317593</v>
+        <v>1.075525963687099</v>
       </c>
     </row>
     <row r="507">
@@ -7116,7 +7116,7 @@
         <v>506</v>
       </c>
       <c r="B507" t="n">
-        <v>2.461888369806766</v>
+        <v>-0.9998932669085403</v>
       </c>
     </row>
     <row r="508">
@@ -7124,7 +7124,7 @@
         <v>507</v>
       </c>
       <c r="B508" t="n">
-        <v>-1.182543140152583</v>
+        <v>-1.1210926194312998</v>
       </c>
     </row>
     <row r="509">
@@ -7132,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B509" t="n">
-        <v>0.352327286593178</v>
+        <v>-0.10953166120718055</v>
       </c>
     </row>
     <row r="510">
@@ -7140,7 +7140,7 @@
         <v>509</v>
       </c>
       <c r="B510" t="n">
-        <v>0.2884832043217762</v>
+        <v>0.5871515424911925</v>
       </c>
     </row>
     <row r="511">
@@ -7148,7 +7148,7 @@
         <v>510</v>
       </c>
       <c r="B511" t="n">
-        <v>0.45084842478318404</v>
+        <v>-0.0862452665708239</v>
       </c>
     </row>
     <row r="512">
@@ -7156,7 +7156,7 @@
         <v>511</v>
       </c>
       <c r="B512" t="n">
-        <v>-0.1881070536919109</v>
+        <v>0.6499680515904448</v>
       </c>
     </row>
     <row r="513">
@@ -7164,7 +7164,7 @@
         <v>512</v>
       </c>
       <c r="B513" t="n">
-        <v>-0.40598435876497563</v>
+        <v>-0.4305852046229817</v>
       </c>
     </row>
     <row r="514">
@@ -7172,7 +7172,7 @@
         <v>513</v>
       </c>
       <c r="B514" t="n">
-        <v>0.18057014250633452</v>
+        <v>-0.00129721259718142</v>
       </c>
     </row>
     <row r="515">
@@ -7180,7 +7180,7 @@
         <v>514</v>
       </c>
       <c r="B515" t="n">
-        <v>1.350729086005322</v>
+        <v>0.7473132932452821</v>
       </c>
     </row>
     <row r="516">
@@ -7188,7 +7188,7 @@
         <v>515</v>
       </c>
       <c r="B516" t="n">
-        <v>0.5859150392659691</v>
+        <v>0.4204559400099625</v>
       </c>
     </row>
     <row r="517">
@@ -7196,7 +7196,7 @@
         <v>516</v>
       </c>
       <c r="B517" t="n">
-        <v>-0.3872375245458625</v>
+        <v>0.05706906061190296</v>
       </c>
     </row>
     <row r="518">
@@ -7204,7 +7204,7 @@
         <v>517</v>
       </c>
       <c r="B518" t="n">
-        <v>-0.968685493338201</v>
+        <v>1.493328946357976</v>
       </c>
     </row>
     <row r="519">
@@ -7212,7 +7212,7 @@
         <v>518</v>
       </c>
       <c r="B519" t="n">
-        <v>-1.0422739640380094</v>
+        <v>1.272674330167345</v>
       </c>
     </row>
     <row r="520">
@@ -7220,7 +7220,7 @@
         <v>519</v>
       </c>
       <c r="B520" t="n">
-        <v>-0.3591953391619638</v>
+        <v>0.6531105639076569</v>
       </c>
     </row>
     <row r="521">
@@ -7228,7 +7228,7 @@
         <v>520</v>
       </c>
       <c r="B521" t="n">
-        <v>-0.5590540264182834</v>
+        <v>-0.7102374874860314</v>
       </c>
     </row>
     <row r="522">
@@ -7236,7 +7236,7 @@
         <v>521</v>
       </c>
       <c r="B522" t="n">
-        <v>0.2211728084048191</v>
+        <v>1.3851785772692573</v>
       </c>
     </row>
     <row r="523">
@@ -7244,7 +7244,7 @@
         <v>522</v>
       </c>
       <c r="B523" t="n">
-        <v>-0.5042553579260663</v>
+        <v>0.24892041394293934</v>
       </c>
     </row>
     <row r="524">
@@ -7252,7 +7252,7 @@
         <v>523</v>
       </c>
       <c r="B524" t="n">
-        <v>1.0599125576086033</v>
+        <v>-1.8938793791397697</v>
       </c>
     </row>
     <row r="525">
@@ -7260,7 +7260,7 @@
         <v>524</v>
       </c>
       <c r="B525" t="n">
-        <v>-0.4823676731843835</v>
+        <v>-0.49883741278088684</v>
       </c>
     </row>
     <row r="526">
@@ -7268,7 +7268,7 @@
         <v>525</v>
       </c>
       <c r="B526" t="n">
-        <v>-1.1350248324546393</v>
+        <v>0.9551908427280467</v>
       </c>
     </row>
     <row r="527">
@@ -7276,7 +7276,7 @@
         <v>526</v>
       </c>
       <c r="B527" t="n">
-        <v>0.5882358344369535</v>
+        <v>-0.9246935654657504</v>
       </c>
     </row>
     <row r="528">
@@ -7284,7 +7284,7 @@
         <v>527</v>
       </c>
       <c r="B528" t="n">
-        <v>-0.5934522826732311</v>
+        <v>-1.663540170247484</v>
       </c>
     </row>
     <row r="529">
@@ -7292,7 +7292,7 @@
         <v>528</v>
       </c>
       <c r="B529" t="n">
-        <v>0.0466691566043733</v>
+        <v>2.947324426895711</v>
       </c>
     </row>
     <row r="530">
@@ -7300,7 +7300,7 @@
         <v>529</v>
       </c>
       <c r="B530" t="n">
-        <v>0.6704744264460178</v>
+        <v>-0.07629743965654477</v>
       </c>
     </row>
     <row r="531">
@@ -7308,7 +7308,7 @@
         <v>530</v>
       </c>
       <c r="B531" t="n">
-        <v>-0.7996004232850229</v>
+        <v>0.8738130664903289</v>
       </c>
     </row>
     <row r="532">
@@ -7316,7 +7316,7 @@
         <v>531</v>
       </c>
       <c r="B532" t="n">
-        <v>-0.35525906881060865</v>
+        <v>-0.28850312215487556</v>
       </c>
     </row>
     <row r="533">
@@ -7324,7 +7324,7 @@
         <v>532</v>
       </c>
       <c r="B533" t="n">
-        <v>-1.8561854066755592</v>
+        <v>0.7128992334094937</v>
       </c>
     </row>
     <row r="534">
@@ -7332,7 +7332,7 @@
         <v>533</v>
       </c>
       <c r="B534" t="n">
-        <v>0.8960850628058066</v>
+        <v>0.18383234287782926</v>
       </c>
     </row>
     <row r="535">
@@ -7340,7 +7340,7 @@
         <v>534</v>
       </c>
       <c r="B535" t="n">
-        <v>0.818784919993359</v>
+        <v>1.1530690304753957</v>
       </c>
     </row>
     <row r="536">
@@ -7348,7 +7348,7 @@
         <v>535</v>
       </c>
       <c r="B536" t="n">
-        <v>0.42294829229442826</v>
+        <v>0.4014070545801236</v>
       </c>
     </row>
     <row r="537">
@@ -7356,7 +7356,7 @@
         <v>536</v>
       </c>
       <c r="B537" t="n">
-        <v>0.15431139798043733</v>
+        <v>0.4901748600321813</v>
       </c>
     </row>
     <row r="538">
@@ -7364,7 +7364,7 @@
         <v>537</v>
       </c>
       <c r="B538" t="n">
-        <v>0.008752772637139616</v>
+        <v>-0.10764814099159864</v>
       </c>
     </row>
     <row r="539">
@@ -7372,7 +7372,7 @@
         <v>538</v>
       </c>
       <c r="B539" t="n">
-        <v>1.914257717515314</v>
+        <v>0.2568393809919191</v>
       </c>
     </row>
     <row r="540">
@@ -7380,7 +7380,7 @@
         <v>539</v>
       </c>
       <c r="B540" t="n">
-        <v>0.18029630818810943</v>
+        <v>1.443106143762853</v>
       </c>
     </row>
     <row r="541">
@@ -7388,7 +7388,7 @@
         <v>540</v>
       </c>
       <c r="B541" t="n">
-        <v>-0.8203150758996804</v>
+        <v>0.5864415427248522</v>
       </c>
     </row>
     <row r="542">
@@ -7396,7 +7396,7 @@
         <v>541</v>
       </c>
       <c r="B542" t="n">
-        <v>1.2558559984312212</v>
+        <v>-1.2026385992017092</v>
       </c>
     </row>
     <row r="543">
@@ -7404,7 +7404,7 @@
         <v>542</v>
       </c>
       <c r="B543" t="n">
-        <v>2.0542954542003424</v>
+        <v>-1.065294086619851</v>
       </c>
     </row>
     <row r="544">
@@ -7412,7 +7412,7 @@
         <v>543</v>
       </c>
       <c r="B544" t="n">
-        <v>0.7402460545494216</v>
+        <v>-2.2982428399065733</v>
       </c>
     </row>
     <row r="545">
@@ -7420,7 +7420,7 @@
         <v>544</v>
       </c>
       <c r="B545" t="n">
-        <v>1.5964139427312378</v>
+        <v>-1.4006199058751145</v>
       </c>
     </row>
     <row r="546">
@@ -7428,7 +7428,7 @@
         <v>545</v>
       </c>
       <c r="B546" t="n">
-        <v>-0.7396070693181386</v>
+        <v>-1.3670168404900311</v>
       </c>
     </row>
     <row r="547">
@@ -7436,7 +7436,7 @@
         <v>546</v>
       </c>
       <c r="B547" t="n">
-        <v>0.7150649380073788</v>
+        <v>-0.008641334516456725</v>
       </c>
     </row>
     <row r="548">
@@ -7444,7 +7444,7 @@
         <v>547</v>
       </c>
       <c r="B548" t="n">
-        <v>0.7760769619182789</v>
+        <v>-1.4344220737875713</v>
       </c>
     </row>
     <row r="549">
@@ -7452,7 +7452,7 @@
         <v>548</v>
       </c>
       <c r="B549" t="n">
-        <v>1.1874636372559992</v>
+        <v>0.12270832674494697</v>
       </c>
     </row>
     <row r="550">
@@ -7460,7 +7460,7 @@
         <v>549</v>
       </c>
       <c r="B550" t="n">
-        <v>0.45540407447043585</v>
+        <v>-0.2949435599222568</v>
       </c>
     </row>
     <row r="551">
@@ -7468,7 +7468,7 @@
         <v>550</v>
       </c>
       <c r="B551" t="n">
-        <v>0.6684110882734594</v>
+        <v>1.5921247691591462</v>
       </c>
     </row>
     <row r="552">
@@ -7476,7 +7476,7 @@
         <v>551</v>
       </c>
       <c r="B552" t="n">
-        <v>-1.5426378826577827</v>
+        <v>-2.030063675107001</v>
       </c>
     </row>
     <row r="553">
@@ -7484,7 +7484,7 @@
         <v>552</v>
       </c>
       <c r="B553" t="n">
-        <v>0.8250368299244238</v>
+        <v>0.060326528796971375</v>
       </c>
     </row>
     <row r="554">
@@ -7492,7 +7492,7 @@
         <v>553</v>
       </c>
       <c r="B554" t="n">
-        <v>-1.7412814115825364</v>
+        <v>0.5574827376431486</v>
       </c>
     </row>
     <row r="555">
@@ -7500,7 +7500,7 @@
         <v>554</v>
       </c>
       <c r="B555" t="n">
-        <v>0.3429142760104741</v>
+        <v>0.6417572569607051</v>
       </c>
     </row>
     <row r="556">
@@ -7508,7 +7508,7 @@
         <v>555</v>
       </c>
       <c r="B556" t="n">
-        <v>-0.2451964881692109</v>
+        <v>-0.5644836953756328</v>
       </c>
     </row>
     <row r="557">
@@ -7516,7 +7516,7 @@
         <v>556</v>
       </c>
       <c r="B557" t="n">
-        <v>-1.1276707955490248</v>
+        <v>0.24389229328816533</v>
       </c>
     </row>
     <row r="558">
@@ -7524,7 +7524,7 @@
         <v>557</v>
       </c>
       <c r="B558" t="n">
-        <v>-0.41644420276539856</v>
+        <v>-0.9352290683519838</v>
       </c>
     </row>
     <row r="559">
@@ -7532,7 +7532,7 @@
         <v>558</v>
       </c>
       <c r="B559" t="n">
-        <v>-2.000267503297457</v>
+        <v>0.003621455884967413</v>
       </c>
     </row>
     <row r="560">
@@ -7540,7 +7540,7 @@
         <v>559</v>
       </c>
       <c r="B560" t="n">
-        <v>-0.9082401134239823</v>
+        <v>0.4421723914055296</v>
       </c>
     </row>
     <row r="561">
@@ -7548,7 +7548,7 @@
         <v>560</v>
       </c>
       <c r="B561" t="n">
-        <v>0.48197335387110024</v>
+        <v>-1.0489340764724908</v>
       </c>
     </row>
     <row r="562">
@@ -7556,7 +7556,7 @@
         <v>561</v>
       </c>
       <c r="B562" t="n">
-        <v>0.17260821745756866</v>
+        <v>0.9891297214579445</v>
       </c>
     </row>
     <row r="563">
@@ -7564,7 +7564,7 @@
         <v>562</v>
       </c>
       <c r="B563" t="n">
-        <v>0.5034165105242847</v>
+        <v>-0.8784801489569957</v>
       </c>
     </row>
     <row r="564">
@@ -7572,7 +7572,7 @@
         <v>563</v>
       </c>
       <c r="B564" t="n">
-        <v>0.6700631765753815</v>
+        <v>0.8120512734696086</v>
       </c>
     </row>
     <row r="565">
@@ -7580,7 +7580,7 @@
         <v>564</v>
       </c>
       <c r="B565" t="n">
-        <v>-1.0024849267478166</v>
+        <v>-0.12102414943809993</v>
       </c>
     </row>
     <row r="566">
@@ -7588,7 +7588,7 @@
         <v>565</v>
       </c>
       <c r="B566" t="n">
-        <v>0.13284630035105607</v>
+        <v>-1.7555928073987719</v>
       </c>
     </row>
     <row r="567">
@@ -7596,7 +7596,7 @@
         <v>566</v>
       </c>
       <c r="B567" t="n">
-        <v>0.8702724083474549</v>
+        <v>-0.15178020625925112</v>
       </c>
     </row>
     <row r="568">
@@ -7604,7 +7604,7 @@
         <v>567</v>
       </c>
       <c r="B568" t="n">
-        <v>-0.8020679769486806</v>
+        <v>-0.3198045671068659</v>
       </c>
     </row>
     <row r="569">
@@ -7612,7 +7612,7 @@
         <v>568</v>
       </c>
       <c r="B569" t="n">
-        <v>0.5616727234421481</v>
+        <v>0.9116461312873999</v>
       </c>
     </row>
     <row r="570">
@@ -7620,7 +7620,7 @@
         <v>569</v>
       </c>
       <c r="B570" t="n">
-        <v>-1.8882447586032987</v>
+        <v>-0.7825463655962049</v>
       </c>
     </row>
     <row r="571">
@@ -7628,7 +7628,7 @@
         <v>570</v>
       </c>
       <c r="B571" t="n">
-        <v>1.270862323236186</v>
+        <v>-0.318106423914941</v>
       </c>
     </row>
     <row r="572">
@@ -7636,7 +7636,7 @@
         <v>571</v>
       </c>
       <c r="B572" t="n">
-        <v>-0.2734469500643396</v>
+        <v>1.3432392925715306</v>
       </c>
     </row>
     <row r="573">
@@ -7644,7 +7644,7 @@
         <v>572</v>
       </c>
       <c r="B573" t="n">
-        <v>0.03481493102937932</v>
+        <v>-0.16279763054980925</v>
       </c>
     </row>
     <row r="574">
@@ -7652,7 +7652,7 @@
         <v>573</v>
       </c>
       <c r="B574" t="n">
-        <v>-0.6219081436254291</v>
+        <v>-0.41765311331443944</v>
       </c>
     </row>
     <row r="575">
@@ -7660,7 +7660,7 @@
         <v>574</v>
       </c>
       <c r="B575" t="n">
-        <v>-0.046850955798136334</v>
+        <v>0.43705342637661626</v>
       </c>
     </row>
     <row r="576">
@@ -7668,7 +7668,7 @@
         <v>575</v>
       </c>
       <c r="B576" t="n">
-        <v>2.0125072137952933</v>
+        <v>-0.17625468722012125</v>
       </c>
     </row>
     <row r="577">
@@ -7676,7 +7676,7 @@
         <v>576</v>
       </c>
       <c r="B577" t="n">
-        <v>-0.3954555767305645</v>
+        <v>1.6429346259598434</v>
       </c>
     </row>
     <row r="578">
@@ -7684,7 +7684,7 @@
         <v>577</v>
       </c>
       <c r="B578" t="n">
-        <v>-1.1714218521066206</v>
+        <v>-0.48255712768404935</v>
       </c>
     </row>
     <row r="579">
@@ -7692,7 +7692,7 @@
         <v>578</v>
       </c>
       <c r="B579" t="n">
-        <v>-0.37776301356796793</v>
+        <v>0.1656397970440916</v>
       </c>
     </row>
     <row r="580">
@@ -7700,7 +7700,7 @@
         <v>579</v>
       </c>
       <c r="B580" t="n">
-        <v>0.28264245854876274</v>
+        <v>-0.3473697211698557</v>
       </c>
     </row>
     <row r="581">
@@ -7708,7 +7708,7 @@
         <v>580</v>
       </c>
       <c r="B581" t="n">
-        <v>0.0015695092306792172</v>
+        <v>0.010850209414455953</v>
       </c>
     </row>
     <row r="582">
@@ -7716,7 +7716,7 @@
         <v>581</v>
       </c>
       <c r="B582" t="n">
-        <v>0.9495854095985117</v>
+        <v>1.6897916149230705</v>
       </c>
     </row>
     <row r="583">
@@ -7724,7 +7724,7 @@
         <v>582</v>
       </c>
       <c r="B583" t="n">
-        <v>0.38929836652422045</v>
+        <v>0.6465507234164615</v>
       </c>
     </row>
     <row r="584">
@@ -7732,7 +7732,7 @@
         <v>583</v>
       </c>
       <c r="B584" t="n">
-        <v>-0.29571523458905724</v>
+        <v>0.302645391026834</v>
       </c>
     </row>
     <row r="585">
@@ -7740,7 +7740,7 @@
         <v>584</v>
       </c>
       <c r="B585" t="n">
-        <v>0.15860822490115323</v>
+        <v>0.5672979206386243</v>
       </c>
     </row>
     <row r="586">
@@ -7748,7 +7748,7 @@
         <v>585</v>
       </c>
       <c r="B586" t="n">
-        <v>0.518918655541928</v>
+        <v>-0.22223088943925245</v>
       </c>
     </row>
     <row r="587">
@@ -7756,7 +7756,7 @@
         <v>586</v>
       </c>
       <c r="B587" t="n">
-        <v>0.40150066738311424</v>
+        <v>1.7484426772690855</v>
       </c>
     </row>
     <row r="588">
@@ -7764,7 +7764,7 @@
         <v>587</v>
       </c>
       <c r="B588" t="n">
-        <v>-0.4025733771468606</v>
+        <v>-0.20038979565693943</v>
       </c>
     </row>
     <row r="589">
@@ -7772,7 +7772,7 @@
         <v>588</v>
       </c>
       <c r="B589" t="n">
-        <v>-0.8801830532065976</v>
+        <v>-0.5988559214782</v>
       </c>
     </row>
     <row r="590">
@@ -7780,7 +7780,7 @@
         <v>589</v>
       </c>
       <c r="B590" t="n">
-        <v>1.21595230438406</v>
+        <v>-0.7632882348744656</v>
       </c>
     </row>
     <row r="591">
@@ -7788,7 +7788,7 @@
         <v>590</v>
       </c>
       <c r="B591" t="n">
-        <v>-0.2945636932560915</v>
+        <v>-0.4656099928247345</v>
       </c>
     </row>
     <row r="592">
@@ -7796,7 +7796,7 @@
         <v>591</v>
       </c>
       <c r="B592" t="n">
-        <v>-0.19952827443606416</v>
+        <v>-1.6660378809172476</v>
       </c>
     </row>
     <row r="593">
@@ -7804,7 +7804,7 @@
         <v>592</v>
       </c>
       <c r="B593" t="n">
-        <v>-0.322511217130224</v>
+        <v>-0.18099891750413236</v>
       </c>
     </row>
     <row r="594">
@@ -7812,7 +7812,7 @@
         <v>593</v>
       </c>
       <c r="B594" t="n">
-        <v>-0.7211703983643367</v>
+        <v>-1.5551778423612364</v>
       </c>
     </row>
     <row r="595">
@@ -7820,7 +7820,7 @@
         <v>594</v>
       </c>
       <c r="B595" t="n">
-        <v>0.6217312773652998</v>
+        <v>0.10308569936364814</v>
       </c>
     </row>
     <row r="596">
@@ -7828,7 +7828,7 @@
         <v>595</v>
       </c>
       <c r="B596" t="n">
-        <v>-1.4846929579586179</v>
+        <v>-0.045082104179076335</v>
       </c>
     </row>
     <row r="597">
@@ -7836,7 +7836,7 @@
         <v>596</v>
       </c>
       <c r="B597" t="n">
-        <v>-0.8435955705048608</v>
+        <v>0.25450177645491984</v>
       </c>
     </row>
     <row r="598">
@@ -7844,7 +7844,7 @@
         <v>597</v>
       </c>
       <c r="B598" t="n">
-        <v>-2.4905333528075673</v>
+        <v>0.8212907544348668</v>
       </c>
     </row>
     <row r="599">
@@ -7852,7 +7852,7 @@
         <v>598</v>
       </c>
       <c r="B599" t="n">
-        <v>-0.4667082029039722</v>
+        <v>1.3926133479180043</v>
       </c>
     </row>
     <row r="600">
@@ -7860,7 +7860,7 @@
         <v>599</v>
       </c>
       <c r="B600" t="n">
-        <v>0.24525016969056246</v>
+        <v>-1.281704805570024</v>
       </c>
     </row>
     <row r="601">
@@ -7868,7 +7868,7 @@
         <v>600</v>
       </c>
       <c r="B601" t="n">
-        <v>-0.26901413415675596</v>
+        <v>-0.0020856543546040078</v>
       </c>
     </row>
     <row r="602">
@@ -7876,7 +7876,7 @@
         <v>601</v>
       </c>
       <c r="B602" t="n">
-        <v>-2.345275599450017</v>
+        <v>-1.0091165840916398</v>
       </c>
     </row>
     <row r="603">
@@ -7884,7 +7884,7 @@
         <v>602</v>
       </c>
       <c r="B603" t="n">
-        <v>0.7538462628140423</v>
+        <v>-0.36346659701321216</v>
       </c>
     </row>
     <row r="604">
@@ -7892,7 +7892,7 @@
         <v>603</v>
       </c>
       <c r="B604" t="n">
-        <v>-0.5115034686217923</v>
+        <v>1.4266734422970266</v>
       </c>
     </row>
     <row r="605">
@@ -7900,7 +7900,7 @@
         <v>604</v>
       </c>
       <c r="B605" t="n">
-        <v>-2.3394925723789335</v>
+        <v>-1.4523231928747597</v>
       </c>
     </row>
     <row r="606">
@@ -7908,7 +7908,7 @@
         <v>605</v>
       </c>
       <c r="B606" t="n">
-        <v>1.0309049307289275</v>
+        <v>1.1798636927208621</v>
       </c>
     </row>
     <row r="607">
@@ -7916,7 +7916,7 @@
         <v>606</v>
       </c>
       <c r="B607" t="n">
-        <v>0.6727800302806545</v>
+        <v>0.2593981645421502</v>
       </c>
     </row>
     <row r="608">
@@ -7924,7 +7924,7 @@
         <v>607</v>
       </c>
       <c r="B608" t="n">
-        <v>-1.2173068638671403</v>
+        <v>-0.07487412937144125</v>
       </c>
     </row>
     <row r="609">
@@ -7932,7 +7932,7 @@
         <v>608</v>
       </c>
       <c r="B609" t="n">
-        <v>0.2831674683540598</v>
+        <v>-1.7263109812366983</v>
       </c>
     </row>
     <row r="610">
@@ -7940,7 +7940,7 @@
         <v>609</v>
       </c>
       <c r="B610" t="n">
-        <v>0.7825881239358103</v>
+        <v>-0.3873045952914633</v>
       </c>
     </row>
     <row r="611">
@@ -7948,7 +7948,7 @@
         <v>610</v>
       </c>
       <c r="B611" t="n">
-        <v>-1.1614158483853598</v>
+        <v>-0.3363002498864007</v>
       </c>
     </row>
     <row r="612">
@@ -7956,7 +7956,7 @@
         <v>611</v>
       </c>
       <c r="B612" t="n">
-        <v>0.7354710531779924</v>
+        <v>0.10409244528250786</v>
       </c>
     </row>
     <row r="613">
@@ -7964,7 +7964,7 @@
         <v>612</v>
       </c>
       <c r="B613" t="n">
-        <v>0.37958292476222266</v>
+        <v>-0.47770907188738737</v>
       </c>
     </row>
     <row r="614">
@@ -7972,7 +7972,7 @@
         <v>613</v>
       </c>
       <c r="B614" t="n">
-        <v>-0.23826789114998131</v>
+        <v>-1.1741479102518697</v>
       </c>
     </row>
     <row r="615">
@@ -7980,7 +7980,7 @@
         <v>614</v>
       </c>
       <c r="B615" t="n">
-        <v>1.6746275276096683</v>
+        <v>0.020093349259388577</v>
       </c>
     </row>
     <row r="616">
@@ -7988,7 +7988,7 @@
         <v>615</v>
       </c>
       <c r="B616" t="n">
-        <v>-1.05115329106069</v>
+        <v>-0.9814800593726282</v>
       </c>
     </row>
     <row r="617">
@@ -7996,7 +7996,7 @@
         <v>616</v>
       </c>
       <c r="B617" t="n">
-        <v>1.0113454513497944</v>
+        <v>-0.17492899206925508</v>
       </c>
     </row>
     <row r="618">
@@ -8004,7 +8004,7 @@
         <v>617</v>
       </c>
       <c r="B618" t="n">
-        <v>-0.27381658547382765</v>
+        <v>-0.10389973464891024</v>
       </c>
     </row>
     <row r="619">
@@ -8012,7 +8012,7 @@
         <v>618</v>
       </c>
       <c r="B619" t="n">
-        <v>-0.6994278833499686</v>
+        <v>1.3104417330708924</v>
       </c>
     </row>
     <row r="620">
@@ -8020,7 +8020,7 @@
         <v>619</v>
       </c>
       <c r="B620" t="n">
-        <v>-1.0518490437878103</v>
+        <v>0.09204111946292233</v>
       </c>
     </row>
     <row r="621">
@@ -8028,7 +8028,7 @@
         <v>620</v>
       </c>
       <c r="B621" t="n">
-        <v>1.273003700317852</v>
+        <v>1.8309032520919795</v>
       </c>
     </row>
     <row r="622">
@@ -8036,7 +8036,7 @@
         <v>621</v>
       </c>
       <c r="B622" t="n">
-        <v>0.4338715722039077</v>
+        <v>2.030385403149817</v>
       </c>
     </row>
     <row r="623">
@@ -8044,7 +8044,7 @@
         <v>622</v>
       </c>
       <c r="B623" t="n">
-        <v>0.8985487638115711</v>
+        <v>0.02866365151718009</v>
       </c>
     </row>
     <row r="624">
@@ -8052,7 +8052,7 @@
         <v>623</v>
       </c>
       <c r="B624" t="n">
-        <v>0.12460702717309917</v>
+        <v>-0.03004941304075131</v>
       </c>
     </row>
     <row r="625">
@@ -8060,7 +8060,7 @@
         <v>624</v>
       </c>
       <c r="B625" t="n">
-        <v>-2.2571629268774394</v>
+        <v>-0.34581339307026265</v>
       </c>
     </row>
     <row r="626">
@@ -8068,7 +8068,7 @@
         <v>625</v>
       </c>
       <c r="B626" t="n">
-        <v>0.6402195207910414</v>
+        <v>0.9103699249645624</v>
       </c>
     </row>
     <row r="627">
@@ -8076,7 +8076,7 @@
         <v>626</v>
       </c>
       <c r="B627" t="n">
-        <v>1.0280612621263336</v>
+        <v>0.8004161478013115</v>
       </c>
     </row>
     <row r="628">
@@ -8084,7 +8084,7 @@
         <v>627</v>
       </c>
       <c r="B628" t="n">
-        <v>-0.08058018987228854</v>
+        <v>1.3054756125102254</v>
       </c>
     </row>
     <row r="629">
@@ -8092,7 +8092,7 @@
         <v>628</v>
       </c>
       <c r="B629" t="n">
-        <v>-0.20052727585361882</v>
+        <v>-2.4276537440329355</v>
       </c>
     </row>
     <row r="630">
@@ -8100,7 +8100,7 @@
         <v>629</v>
       </c>
       <c r="B630" t="n">
-        <v>0.0840587426302332</v>
+        <v>-0.900698921280788</v>
       </c>
     </row>
     <row r="631">
@@ -8108,7 +8108,7 @@
         <v>630</v>
       </c>
       <c r="B631" t="n">
-        <v>0.12490893653354791</v>
+        <v>-1.072614483768047</v>
       </c>
     </row>
     <row r="632">
@@ -8116,7 +8116,7 @@
         <v>631</v>
       </c>
       <c r="B632" t="n">
-        <v>-0.34381993782825915</v>
+        <v>1.054288734153718</v>
       </c>
     </row>
     <row r="633">
@@ -8124,7 +8124,7 @@
         <v>632</v>
       </c>
       <c r="B633" t="n">
-        <v>1.0796060362798967</v>
+        <v>0.84107612043809</v>
       </c>
     </row>
     <row r="634">
@@ -8132,7 +8132,7 @@
         <v>633</v>
       </c>
       <c r="B634" t="n">
-        <v>0.5263826015058116</v>
+        <v>0.7775398904893528</v>
       </c>
     </row>
     <row r="635">
@@ -8140,7 +8140,7 @@
         <v>634</v>
       </c>
       <c r="B635" t="n">
-        <v>0.17016984273778565</v>
+        <v>0.13284232417852174</v>
       </c>
     </row>
     <row r="636">
@@ -8148,7 +8148,7 @@
         <v>635</v>
       </c>
       <c r="B636" t="n">
-        <v>1.0176711822853648</v>
+        <v>1.499299027272873</v>
       </c>
     </row>
     <row r="637">
@@ -8156,7 +8156,7 @@
         <v>636</v>
       </c>
       <c r="B637" t="n">
-        <v>0.4171904805623691</v>
+        <v>-0.23907936206613895</v>
       </c>
     </row>
     <row r="638">
@@ -8164,7 +8164,7 @@
         <v>637</v>
       </c>
       <c r="B638" t="n">
-        <v>0.7092396094552483</v>
+        <v>-0.21103964570324688</v>
       </c>
     </row>
     <row r="639">
@@ -8172,7 +8172,7 @@
         <v>638</v>
       </c>
       <c r="B639" t="n">
-        <v>-1.4826426767443266</v>
+        <v>-1.1540429746967364</v>
       </c>
     </row>
     <row r="640">
@@ -8180,7 +8180,7 @@
         <v>639</v>
       </c>
       <c r="B640" t="n">
-        <v>-2.4062829773944068</v>
+        <v>-1.9116121599905553</v>
       </c>
     </row>
     <row r="641">
@@ -8188,7 +8188,7 @@
         <v>640</v>
       </c>
       <c r="B641" t="n">
-        <v>-0.7485542126568752</v>
+        <v>-0.2750161416276845</v>
       </c>
     </row>
     <row r="642">
@@ -8196,7 +8196,7 @@
         <v>641</v>
       </c>
       <c r="B642" t="n">
-        <v>0.16147077618612593</v>
+        <v>-1.1779289905736297</v>
       </c>
     </row>
     <row r="643">
@@ -8204,7 +8204,7 @@
         <v>642</v>
       </c>
       <c r="B643" t="n">
-        <v>1.7569009834447105</v>
+        <v>0.1054796160322471</v>
       </c>
     </row>
     <row r="644">
@@ -8212,7 +8212,7 @@
         <v>643</v>
       </c>
       <c r="B644" t="n">
-        <v>-0.001906950343786596</v>
+        <v>-0.8578853976020845</v>
       </c>
     </row>
     <row r="645">
@@ -8220,7 +8220,7 @@
         <v>644</v>
       </c>
       <c r="B645" t="n">
-        <v>1.2075186063210797</v>
+        <v>0.8724526051723502</v>
       </c>
     </row>
     <row r="646">
@@ -8228,7 +8228,7 @@
         <v>645</v>
       </c>
       <c r="B646" t="n">
-        <v>-1.0724590132604968</v>
+        <v>0.7466174948562966</v>
       </c>
     </row>
     <row r="647">
@@ -8236,7 +8236,7 @@
         <v>646</v>
       </c>
       <c r="B647" t="n">
-        <v>0.6743079933737461</v>
+        <v>0.05471479874952773</v>
       </c>
     </row>
     <row r="648">
@@ -8244,7 +8244,7 @@
         <v>647</v>
       </c>
       <c r="B648" t="n">
-        <v>-0.628191512072635</v>
+        <v>-1.5470705351377343</v>
       </c>
     </row>
     <row r="649">
@@ -8252,7 +8252,7 @@
         <v>648</v>
       </c>
       <c r="B649" t="n">
-        <v>-1.7363856480122954</v>
+        <v>-1.0253710063919004</v>
       </c>
     </row>
     <row r="650">
@@ -8260,7 +8260,7 @@
         <v>649</v>
       </c>
       <c r="B650" t="n">
-        <v>-0.8846541515801634</v>
+        <v>0.0692193362814528</v>
       </c>
     </row>
     <row r="651">
@@ -8268,7 +8268,7 @@
         <v>650</v>
       </c>
       <c r="B651" t="n">
-        <v>-1.509483862979553</v>
+        <v>0.6514950169148609</v>
       </c>
     </row>
     <row r="652">
@@ -8276,7 +8276,7 @@
         <v>651</v>
       </c>
       <c r="B652" t="n">
-        <v>-0.6674747006611073</v>
+        <v>2.4370447440529905</v>
       </c>
     </row>
     <row r="653">
@@ -8284,7 +8284,7 @@
         <v>652</v>
       </c>
       <c r="B653" t="n">
-        <v>1.9432137560214824</v>
+        <v>1.019279368746955</v>
       </c>
     </row>
     <row r="654">
@@ -8292,7 +8292,7 @@
         <v>653</v>
       </c>
       <c r="B654" t="n">
-        <v>0.6574009127387882</v>
+        <v>-1.3397703991682053</v>
       </c>
     </row>
     <row r="655">
@@ -8300,7 +8300,7 @@
         <v>654</v>
       </c>
       <c r="B655" t="n">
-        <v>-1.0460501341159072</v>
+        <v>0.6213238103190944</v>
       </c>
     </row>
     <row r="656">
@@ -8308,7 +8308,7 @@
         <v>655</v>
       </c>
       <c r="B656" t="n">
-        <v>0.13768728730937452</v>
+        <v>-1.3857029401174348</v>
       </c>
     </row>
     <row r="657">
@@ -8316,7 +8316,7 @@
         <v>656</v>
       </c>
       <c r="B657" t="n">
-        <v>-1.3523267819993618</v>
+        <v>-0.5849705050881983</v>
       </c>
     </row>
     <row r="658">
@@ -8324,7 +8324,7 @@
         <v>657</v>
       </c>
       <c r="B658" t="n">
-        <v>0.1753606134443935</v>
+        <v>-0.0018359095918403468</v>
       </c>
     </row>
     <row r="659">
@@ -8332,7 +8332,7 @@
         <v>658</v>
       </c>
       <c r="B659" t="n">
-        <v>0.5246774258104435</v>
+        <v>-1.3710844198020051</v>
       </c>
     </row>
     <row r="660">
@@ -8340,7 +8340,7 @@
         <v>659</v>
       </c>
       <c r="B660" t="n">
-        <v>1.6877433302043567</v>
+        <v>-0.8213897024652148</v>
       </c>
     </row>
     <row r="661">
@@ -8348,7 +8348,7 @@
         <v>660</v>
       </c>
       <c r="B661" t="n">
-        <v>-0.03985068539217216</v>
+        <v>-1.3174536406627129</v>
       </c>
     </row>
     <row r="662">
@@ -8356,7 +8356,7 @@
         <v>661</v>
       </c>
       <c r="B662" t="n">
-        <v>-2.8518000381414734</v>
+        <v>0.14196444740943134</v>
       </c>
     </row>
     <row r="663">
@@ -8364,7 +8364,7 @@
         <v>662</v>
       </c>
       <c r="B663" t="n">
-        <v>-1.3014623581234657</v>
+        <v>1.3755656318408873</v>
       </c>
     </row>
     <row r="664">
@@ -8372,7 +8372,7 @@
         <v>663</v>
       </c>
       <c r="B664" t="n">
-        <v>0.7701379122867937</v>
+        <v>-0.6432076474390367</v>
       </c>
     </row>
     <row r="665">
@@ -8380,7 +8380,7 @@
         <v>664</v>
       </c>
       <c r="B665" t="n">
-        <v>-0.2892649255773331</v>
+        <v>-0.30752936442554374</v>
       </c>
     </row>
     <row r="666">
@@ -8388,7 +8388,7 @@
         <v>665</v>
       </c>
       <c r="B666" t="n">
-        <v>0.046062912305625286</v>
+        <v>1.527383383732179</v>
       </c>
     </row>
     <row r="667">
@@ -8396,7 +8396,7 @@
         <v>666</v>
       </c>
       <c r="B667" t="n">
-        <v>-0.02556578680794063</v>
+        <v>1.0036963635725922</v>
       </c>
     </row>
     <row r="668">
@@ -8404,7 +8404,7 @@
         <v>667</v>
       </c>
       <c r="B668" t="n">
-        <v>-0.7891543848374749</v>
+        <v>-1.566613523611881</v>
       </c>
     </row>
     <row r="669">
@@ -8412,7 +8412,7 @@
         <v>668</v>
       </c>
       <c r="B669" t="n">
-        <v>1.2538831480454304</v>
+        <v>-0.4849703023287397</v>
       </c>
     </row>
     <row r="670">
@@ -8420,7 +8420,7 @@
         <v>669</v>
       </c>
       <c r="B670" t="n">
-        <v>-0.29289417731388195</v>
+        <v>0.38888791606254103</v>
       </c>
     </row>
     <row r="671">
@@ -8428,7 +8428,7 @@
         <v>670</v>
       </c>
       <c r="B671" t="n">
-        <v>-0.26180519940845504</v>
+        <v>0.040647803912734745</v>
       </c>
     </row>
     <row r="672">
@@ -8436,7 +8436,7 @@
         <v>671</v>
       </c>
       <c r="B672" t="n">
-        <v>0.26354317459769594</v>
+        <v>1.7670973003220125</v>
       </c>
     </row>
     <row r="673">
@@ -8444,7 +8444,7 @@
         <v>672</v>
       </c>
       <c r="B673" t="n">
-        <v>-0.3855030402968438</v>
+        <v>0.5841035685094053</v>
       </c>
     </row>
     <row r="674">
@@ -8452,7 +8452,7 @@
         <v>673</v>
       </c>
       <c r="B674" t="n">
-        <v>-1.7202560407031564</v>
+        <v>0.41450482886044354</v>
       </c>
     </row>
     <row r="675">
@@ -8460,7 +8460,7 @@
         <v>674</v>
       </c>
       <c r="B675" t="n">
-        <v>1.5379690262778911</v>
+        <v>-0.2636903273959325</v>
       </c>
     </row>
     <row r="676">
@@ -8468,7 +8468,7 @@
         <v>675</v>
       </c>
       <c r="B676" t="n">
-        <v>-2.0115162825258843</v>
+        <v>-2.0219757647294787</v>
       </c>
     </row>
     <row r="677">
@@ -8476,7 +8476,7 @@
         <v>676</v>
       </c>
       <c r="B677" t="n">
-        <v>-2.8021240943597263</v>
+        <v>0.7003946773137827</v>
       </c>
     </row>
     <row r="678">
@@ -8484,7 +8484,7 @@
         <v>677</v>
       </c>
       <c r="B678" t="n">
-        <v>0.029223388089929914</v>
+        <v>2.6235852066072813</v>
       </c>
     </row>
     <row r="679">
@@ -8492,7 +8492,7 @@
         <v>678</v>
       </c>
       <c r="B679" t="n">
-        <v>-0.003698966679866777</v>
+        <v>-2.501177969242744</v>
       </c>
     </row>
     <row r="680">
@@ -8500,7 +8500,7 @@
         <v>679</v>
       </c>
       <c r="B680" t="n">
-        <v>1.0536419510453436</v>
+        <v>0.17710288462664833</v>
       </c>
     </row>
     <row r="681">
@@ -8508,7 +8508,7 @@
         <v>680</v>
       </c>
       <c r="B681" t="n">
-        <v>0.24166341124113336</v>
+        <v>-0.8813751214208061</v>
       </c>
     </row>
     <row r="682">
@@ -8516,7 +8516,7 @@
         <v>681</v>
       </c>
       <c r="B682" t="n">
-        <v>-2.0362494635375907</v>
+        <v>0.4579367243109224</v>
       </c>
     </row>
     <row r="683">
@@ -8524,7 +8524,7 @@
         <v>682</v>
       </c>
       <c r="B683" t="n">
-        <v>-0.32896227574500264</v>
+        <v>-0.09641092582149641</v>
       </c>
     </row>
     <row r="684">
@@ -8532,7 +8532,7 @@
         <v>683</v>
       </c>
       <c r="B684" t="n">
-        <v>-1.5889053241473952</v>
+        <v>-0.0311613189921803</v>
       </c>
     </row>
     <row r="685">
@@ -8540,7 +8540,7 @@
         <v>684</v>
       </c>
       <c r="B685" t="n">
-        <v>-0.0025223465850679042</v>
+        <v>0.5593625159547829</v>
       </c>
     </row>
     <row r="686">
@@ -8548,7 +8548,7 @@
         <v>685</v>
       </c>
       <c r="B686" t="n">
-        <v>0.5337384839521705</v>
+        <v>0.7486550303741143</v>
       </c>
     </row>
     <row r="687">
@@ -8556,7 +8556,7 @@
         <v>686</v>
       </c>
       <c r="B687" t="n">
-        <v>-0.029059091820806657</v>
+        <v>-1.0438637058690003</v>
       </c>
     </row>
     <row r="688">
@@ -8564,7 +8564,7 @@
         <v>687</v>
       </c>
       <c r="B688" t="n">
-        <v>0.6320939108649152</v>
+        <v>-0.6981639964750034</v>
       </c>
     </row>
     <row r="689">
@@ -8572,7 +8572,7 @@
         <v>688</v>
       </c>
       <c r="B689" t="n">
-        <v>1.4143133093360987</v>
+        <v>0.6321531375196194</v>
       </c>
     </row>
     <row r="690">
@@ -8580,7 +8580,7 @@
         <v>689</v>
       </c>
       <c r="B690" t="n">
-        <v>0.7889976893550246</v>
+        <v>-0.30040596732501545</v>
       </c>
     </row>
     <row r="691">
@@ -8588,7 +8588,7 @@
         <v>690</v>
       </c>
       <c r="B691" t="n">
-        <v>0.6347793172568332</v>
+        <v>-0.7192208843421323</v>
       </c>
     </row>
     <row r="692">
@@ -8596,7 +8596,7 @@
         <v>691</v>
       </c>
       <c r="B692" t="n">
-        <v>0.14491199745153624</v>
+        <v>-1.540423350278645</v>
       </c>
     </row>
     <row r="693">
@@ -8604,7 +8604,7 @@
         <v>692</v>
       </c>
       <c r="B693" t="n">
-        <v>1.7126535196731192</v>
+        <v>-0.4865148349988111</v>
       </c>
     </row>
     <row r="694">
@@ -8612,7 +8612,7 @@
         <v>693</v>
       </c>
       <c r="B694" t="n">
-        <v>-2.234369871117413</v>
+        <v>-0.6549901740517382</v>
       </c>
     </row>
     <row r="695">
@@ -8620,7 +8620,7 @@
         <v>694</v>
       </c>
       <c r="B695" t="n">
-        <v>0.11914369599407916</v>
+        <v>0.3494960113920027</v>
       </c>
     </row>
     <row r="696">
@@ -8628,7 +8628,7 @@
         <v>695</v>
       </c>
       <c r="B696" t="n">
-        <v>0.9367026457177404</v>
+        <v>0.5862628343464129</v>
       </c>
     </row>
     <row r="697">
@@ -8636,7 +8636,7 @@
         <v>696</v>
       </c>
       <c r="B697" t="n">
-        <v>0.23069313603936734</v>
+        <v>0.0034275853166114215</v>
       </c>
     </row>
     <row r="698">
@@ -8644,7 +8644,7 @@
         <v>697</v>
       </c>
       <c r="B698" t="n">
-        <v>0.282820134214455</v>
+        <v>-0.9612035294431913</v>
       </c>
     </row>
     <row r="699">
@@ -8652,7 +8652,7 @@
         <v>698</v>
       </c>
       <c r="B699" t="n">
-        <v>-0.5235451836378827</v>
+        <v>0.4617981359885538</v>
       </c>
     </row>
     <row r="700">
@@ -8660,7 +8660,7 @@
         <v>699</v>
       </c>
       <c r="B700" t="n">
-        <v>2.0521701030534456</v>
+        <v>-0.17582698960715332</v>
       </c>
     </row>
     <row r="701">
@@ -8668,7 +8668,7 @@
         <v>700</v>
       </c>
       <c r="B701" t="n">
-        <v>-0.17941218114566038</v>
+        <v>0.9474426712056324</v>
       </c>
     </row>
     <row r="702">
@@ -8676,7 +8676,7 @@
         <v>701</v>
       </c>
       <c r="B702" t="n">
-        <v>-0.07089319817200365</v>
+        <v>0.5097719448872193</v>
       </c>
     </row>
     <row r="703">
@@ -8684,7 +8684,7 @@
         <v>702</v>
       </c>
       <c r="B703" t="n">
-        <v>-0.40235921010670406</v>
+        <v>-0.4090695293470041</v>
       </c>
     </row>
     <row r="704">
@@ -8692,7 +8692,7 @@
         <v>703</v>
       </c>
       <c r="B704" t="n">
-        <v>0.8259996961515688</v>
+        <v>-0.025511988639258826</v>
       </c>
     </row>
     <row r="705">
@@ -8700,7 +8700,7 @@
         <v>704</v>
       </c>
       <c r="B705" t="n">
-        <v>0.5609302613410364</v>
+        <v>-0.6168093654600785</v>
       </c>
     </row>
     <row r="706">
@@ -8708,7 +8708,7 @@
         <v>705</v>
       </c>
       <c r="B706" t="n">
-        <v>0.1275515438909644</v>
+        <v>-0.5197163498307349</v>
       </c>
     </row>
     <row r="707">
@@ -8716,7 +8716,7 @@
         <v>706</v>
       </c>
       <c r="B707" t="n">
-        <v>1.6948909344440561</v>
+        <v>1.8186193788855116</v>
       </c>
     </row>
     <row r="708">
@@ -8724,7 +8724,7 @@
         <v>707</v>
       </c>
       <c r="B708" t="n">
-        <v>-1.4746015375707657</v>
+        <v>1.6758415313346295</v>
       </c>
     </row>
     <row r="709">
@@ -8732,7 +8732,7 @@
         <v>708</v>
       </c>
       <c r="B709" t="n">
-        <v>1.6661897467843076</v>
+        <v>-1.512150838771641</v>
       </c>
     </row>
     <row r="710">
@@ -8740,7 +8740,7 @@
         <v>709</v>
       </c>
       <c r="B710" t="n">
-        <v>0.5054888875278956</v>
+        <v>-1.1090470540317094</v>
       </c>
     </row>
     <row r="711">
@@ -8748,7 +8748,7 @@
         <v>710</v>
       </c>
       <c r="B711" t="n">
-        <v>-0.07218596685623416</v>
+        <v>0.37267305008975027</v>
       </c>
     </row>
     <row r="712">
@@ -8756,7 +8756,7 @@
         <v>711</v>
       </c>
       <c r="B712" t="n">
-        <v>0.6120666823588987</v>
+        <v>1.0144382680996333</v>
       </c>
     </row>
     <row r="713">
@@ -8764,7 +8764,7 @@
         <v>712</v>
       </c>
       <c r="B713" t="n">
-        <v>2.0699364987392075</v>
+        <v>0.025064540058300864</v>
       </c>
     </row>
     <row r="714">
@@ -8772,7 +8772,7 @@
         <v>713</v>
       </c>
       <c r="B714" t="n">
-        <v>0.9228548668907083</v>
+        <v>-0.447169119483486</v>
       </c>
     </row>
     <row r="715">
@@ -8780,7 +8780,7 @@
         <v>714</v>
       </c>
       <c r="B715" t="n">
-        <v>0.3758538688090673</v>
+        <v>-2.546982141066297</v>
       </c>
     </row>
     <row r="716">
@@ -8788,7 +8788,7 @@
         <v>715</v>
       </c>
       <c r="B716" t="n">
-        <v>0.20456947301231238</v>
+        <v>-1.0031529911323125</v>
       </c>
     </row>
     <row r="717">
@@ -8796,7 +8796,7 @@
         <v>716</v>
       </c>
       <c r="B717" t="n">
-        <v>-1.2759595570781201</v>
+        <v>1.1541208056198013</v>
       </c>
     </row>
     <row r="718">
@@ -8804,7 +8804,7 @@
         <v>717</v>
       </c>
       <c r="B718" t="n">
-        <v>-0.20454584387004826</v>
+        <v>0.014327803796987115</v>
       </c>
     </row>
     <row r="719">
@@ -8812,7 +8812,7 @@
         <v>718</v>
       </c>
       <c r="B719" t="n">
-        <v>0.3049532215236158</v>
+        <v>0.876386057487503</v>
       </c>
     </row>
     <row r="720">
@@ -8820,7 +8820,7 @@
         <v>719</v>
       </c>
       <c r="B720" t="n">
-        <v>-0.726388476241877</v>
+        <v>0.8547326317967079</v>
       </c>
     </row>
     <row r="721">
@@ -8828,7 +8828,7 @@
         <v>720</v>
       </c>
       <c r="B721" t="n">
-        <v>-1.6070013203055629</v>
+        <v>-0.8284013157620325</v>
       </c>
     </row>
     <row r="722">
@@ -8836,7 +8836,7 @@
         <v>721</v>
       </c>
       <c r="B722" t="n">
-        <v>0.3071052744950314</v>
+        <v>-0.3678498491424261</v>
       </c>
     </row>
     <row r="723">
@@ -8844,7 +8844,7 @@
         <v>722</v>
       </c>
       <c r="B723" t="n">
-        <v>-0.5642082830669761</v>
+        <v>0.6806760690191082</v>
       </c>
     </row>
     <row r="724">
@@ -8852,7 +8852,7 @@
         <v>723</v>
       </c>
       <c r="B724" t="n">
-        <v>0.017030572812591054</v>
+        <v>-0.31178981579362636</v>
       </c>
     </row>
     <row r="725">
@@ -8860,7 +8860,7 @@
         <v>724</v>
       </c>
       <c r="B725" t="n">
-        <v>1.2968567353200464</v>
+        <v>-1.7234914391686729</v>
       </c>
     </row>
     <row r="726">
@@ -8868,7 +8868,7 @@
         <v>725</v>
       </c>
       <c r="B726" t="n">
-        <v>-0.0626800951508041</v>
+        <v>-0.13010387785380398</v>
       </c>
     </row>
     <row r="727">
@@ -8876,7 +8876,7 @@
         <v>726</v>
       </c>
       <c r="B727" t="n">
-        <v>1.3999186429756476</v>
+        <v>1.217452818027889</v>
       </c>
     </row>
     <row r="728">
@@ -8884,7 +8884,7 @@
         <v>727</v>
       </c>
       <c r="B728" t="n">
-        <v>1.6648551666140858</v>
+        <v>-1.4245365350431156</v>
       </c>
     </row>
     <row r="729">
@@ -8892,7 +8892,7 @@
         <v>728</v>
       </c>
       <c r="B729" t="n">
-        <v>-0.24057274905674958</v>
+        <v>0.40816023025600306</v>
       </c>
     </row>
     <row r="730">
@@ -8900,7 +8900,7 @@
         <v>729</v>
       </c>
       <c r="B730" t="n">
-        <v>-0.9023252736947358</v>
+        <v>0.5816512388740122</v>
       </c>
     </row>
     <row r="731">
@@ -8908,7 +8908,7 @@
         <v>730</v>
       </c>
       <c r="B731" t="n">
-        <v>1.6397429546071898</v>
+        <v>-2.0745640698258403</v>
       </c>
     </row>
     <row r="732">
@@ -8916,7 +8916,7 @@
         <v>731</v>
       </c>
       <c r="B732" t="n">
-        <v>0.36198353861688165</v>
+        <v>0.34249974697387825</v>
       </c>
     </row>
     <row r="733">
@@ -8924,7 +8924,7 @@
         <v>732</v>
       </c>
       <c r="B733" t="n">
-        <v>0.11539900331628974</v>
+        <v>-0.3677603356661967</v>
       </c>
     </row>
     <row r="734">
@@ -8932,7 +8932,7 @@
         <v>733</v>
       </c>
       <c r="B734" t="n">
-        <v>1.802776024904148</v>
+        <v>0.8049799188866467</v>
       </c>
     </row>
     <row r="735">
@@ -8940,7 +8940,7 @@
         <v>734</v>
       </c>
       <c r="B735" t="n">
-        <v>-1.3963133069095233</v>
+        <v>1.625889681152869</v>
       </c>
     </row>
     <row r="736">
@@ -8948,7 +8948,7 @@
         <v>735</v>
       </c>
       <c r="B736" t="n">
-        <v>-0.3698041784866961</v>
+        <v>-0.32352945996525506</v>
       </c>
     </row>
     <row r="737">
@@ -8956,7 +8956,7 @@
         <v>736</v>
       </c>
       <c r="B737" t="n">
-        <v>-0.4133984766164849</v>
+        <v>-0.566798836045033</v>
       </c>
     </row>
     <row r="738">
@@ -8964,7 +8964,7 @@
         <v>737</v>
       </c>
       <c r="B738" t="n">
-        <v>-0.3167913390657912</v>
+        <v>0.5034137788102279</v>
       </c>
     </row>
     <row r="739">
@@ -8972,7 +8972,7 @@
         <v>738</v>
       </c>
       <c r="B739" t="n">
-        <v>-0.23395482127959433</v>
+        <v>-1.5471199861956662</v>
       </c>
     </row>
     <row r="740">
@@ -8980,7 +8980,7 @@
         <v>739</v>
       </c>
       <c r="B740" t="n">
-        <v>-1.5338222130971513</v>
+        <v>-2.9971532513602206</v>
       </c>
     </row>
     <row r="741">
@@ -8988,7 +8988,7 @@
         <v>740</v>
       </c>
       <c r="B741" t="n">
-        <v>-0.5001954779514595</v>
+        <v>-1.2800228646849532</v>
       </c>
     </row>
     <row r="742">
@@ -8996,7 +8996,7 @@
         <v>741</v>
       </c>
       <c r="B742" t="n">
-        <v>0.9826410063612888</v>
+        <v>1.2003858370986653</v>
       </c>
     </row>
     <row r="743">
@@ -9004,7 +9004,7 @@
         <v>742</v>
       </c>
       <c r="B743" t="n">
-        <v>0.222290520060341</v>
+        <v>-0.9757602778847214</v>
       </c>
     </row>
     <row r="744">
@@ -9012,7 +9012,7 @@
         <v>743</v>
       </c>
       <c r="B744" t="n">
-        <v>-0.47166179260183677</v>
+        <v>0.5872885320981462</v>
       </c>
     </row>
     <row r="745">
@@ -9020,7 +9020,7 @@
         <v>744</v>
       </c>
       <c r="B745" t="n">
-        <v>0.6300391257614915</v>
+        <v>0.10194605072589341</v>
       </c>
     </row>
     <row r="746">
@@ -9028,7 +9028,7 @@
         <v>745</v>
       </c>
       <c r="B746" t="n">
-        <v>0.20555721801904217</v>
+        <v>-1.0756354927145064</v>
       </c>
     </row>
     <row r="747">
@@ -9036,7 +9036,7 @@
         <v>746</v>
       </c>
       <c r="B747" t="n">
-        <v>0.7462728750204917</v>
+        <v>-0.5174489036020745</v>
       </c>
     </row>
     <row r="748">
@@ -9044,7 +9044,7 @@
         <v>747</v>
       </c>
       <c r="B748" t="n">
-        <v>-2.6463651457986583</v>
+        <v>-0.46359943577778</v>
       </c>
     </row>
     <row r="749">
@@ -9052,7 +9052,7 @@
         <v>748</v>
       </c>
       <c r="B749" t="n">
-        <v>-1.4671386218005198</v>
+        <v>0.2941317966254235</v>
       </c>
     </row>
     <row r="750">
@@ -9060,7 +9060,7 @@
         <v>749</v>
       </c>
       <c r="B750" t="n">
-        <v>1.742119533679402</v>
+        <v>2.232992686283632</v>
       </c>
     </row>
     <row r="751">
@@ -9068,7 +9068,7 @@
         <v>750</v>
       </c>
       <c r="B751" t="n">
-        <v>1.3925024210286299</v>
+        <v>-2.850419604680704</v>
       </c>
     </row>
     <row r="752">
@@ -9076,7 +9076,7 @@
         <v>751</v>
       </c>
       <c r="B752" t="n">
-        <v>0.6563456804495992</v>
+        <v>0.39287099320141244</v>
       </c>
     </row>
     <row r="753">
@@ -9084,7 +9084,7 @@
         <v>752</v>
       </c>
       <c r="B753" t="n">
-        <v>-1.8838147860088241</v>
+        <v>2.5124524952620066</v>
       </c>
     </row>
     <row r="754">
@@ -9092,7 +9092,7 @@
         <v>753</v>
       </c>
       <c r="B754" t="n">
-        <v>-0.7062467683750988</v>
+        <v>0.27536377826342817</v>
       </c>
     </row>
     <row r="755">
@@ -9100,7 +9100,7 @@
         <v>754</v>
       </c>
       <c r="B755" t="n">
-        <v>-1.1508851965079272</v>
+        <v>0.27157845313733453</v>
       </c>
     </row>
     <row r="756">
@@ -9108,7 +9108,7 @@
         <v>755</v>
       </c>
       <c r="B756" t="n">
-        <v>0.6406857109808622</v>
+        <v>-0.07738599962576166</v>
       </c>
     </row>
     <row r="757">
@@ -9116,7 +9116,7 @@
         <v>756</v>
       </c>
       <c r="B757" t="n">
-        <v>1.038550011195831</v>
+        <v>2.262697506023206</v>
       </c>
     </row>
     <row r="758">
@@ -9124,7 +9124,7 @@
         <v>757</v>
       </c>
       <c r="B758" t="n">
-        <v>1.2507535297129293</v>
+        <v>0.614655263055519</v>
       </c>
     </row>
     <row r="759">
@@ -9132,7 +9132,7 @@
         <v>758</v>
       </c>
       <c r="B759" t="n">
-        <v>1.0326795458258249</v>
+        <v>1.2597165884047838</v>
       </c>
     </row>
     <row r="760">
@@ -9140,7 +9140,7 @@
         <v>759</v>
       </c>
       <c r="B760" t="n">
-        <v>0.6137774289343947</v>
+        <v>0.8650442204593678</v>
       </c>
     </row>
     <row r="761">
@@ -9148,7 +9148,7 @@
         <v>760</v>
       </c>
       <c r="B761" t="n">
-        <v>1.6461045582811367</v>
+        <v>0.8073088640337911</v>
       </c>
     </row>
     <row r="762">
@@ -9156,7 +9156,7 @@
         <v>761</v>
       </c>
       <c r="B762" t="n">
-        <v>-0.22645373676691585</v>
+        <v>0.2994137927947412</v>
       </c>
     </row>
     <row r="763">
@@ -9164,7 +9164,7 @@
         <v>762</v>
       </c>
       <c r="B763" t="n">
-        <v>-0.916037058094769</v>
+        <v>1.2085125214180679</v>
       </c>
     </row>
     <row r="764">
@@ -9172,7 +9172,7 @@
         <v>763</v>
       </c>
       <c r="B764" t="n">
-        <v>2.077867154290903</v>
+        <v>-1.108025384977955</v>
       </c>
     </row>
     <row r="765">
@@ -9180,7 +9180,7 @@
         <v>764</v>
       </c>
       <c r="B765" t="n">
-        <v>-1.1436448444826062</v>
+        <v>0.15770268386290362</v>
       </c>
     </row>
     <row r="766">
@@ -9188,7 +9188,7 @@
         <v>765</v>
       </c>
       <c r="B766" t="n">
-        <v>0.9997112357231853</v>
+        <v>-0.8997236662304223</v>
       </c>
     </row>
     <row r="767">
@@ -9196,7 +9196,7 @@
         <v>766</v>
       </c>
       <c r="B767" t="n">
-        <v>-0.315888295358989</v>
+        <v>0.08826907699521087</v>
       </c>
     </row>
     <row r="768">
@@ -9204,7 +9204,7 @@
         <v>767</v>
       </c>
       <c r="B768" t="n">
-        <v>-0.33537975780359053</v>
+        <v>-0.19087398921530296</v>
       </c>
     </row>
     <row r="769">
@@ -9212,7 +9212,7 @@
         <v>768</v>
       </c>
       <c r="B769" t="n">
-        <v>-0.4419963403412096</v>
+        <v>-0.19974432142599466</v>
       </c>
     </row>
     <row r="770">
@@ -9220,7 +9220,7 @@
         <v>769</v>
       </c>
       <c r="B770" t="n">
-        <v>-0.508837914048683</v>
+        <v>1.988651644497154</v>
       </c>
     </row>
     <row r="771">
@@ -9228,7 +9228,7 @@
         <v>770</v>
       </c>
       <c r="B771" t="n">
-        <v>0.09497073803386667</v>
+        <v>0.7830926573048693</v>
       </c>
     </row>
     <row r="772">
@@ -9236,7 +9236,7 @@
         <v>771</v>
       </c>
       <c r="B772" t="n">
-        <v>-0.8878027234359648</v>
+        <v>-0.17692852899294323</v>
       </c>
     </row>
     <row r="773">
@@ -9244,7 +9244,7 @@
         <v>772</v>
       </c>
       <c r="B773" t="n">
-        <v>1.0962994466631364</v>
+        <v>-1.3407058003405228</v>
       </c>
     </row>
     <row r="774">
@@ -9252,7 +9252,7 @@
         <v>773</v>
       </c>
       <c r="B774" t="n">
-        <v>-0.2420576872014513</v>
+        <v>-2.0432386689499875</v>
       </c>
     </row>
     <row r="775">
@@ -9260,7 +9260,7 @@
         <v>774</v>
       </c>
       <c r="B775" t="n">
-        <v>0.3983150256932379</v>
+        <v>-0.02766689095762188</v>
       </c>
     </row>
     <row r="776">
@@ -9268,7 +9268,7 @@
         <v>775</v>
       </c>
       <c r="B776" t="n">
-        <v>-0.7102718216638473</v>
+        <v>0.5183967360846425</v>
       </c>
     </row>
     <row r="777">
@@ -9276,7 +9276,7 @@
         <v>776</v>
       </c>
       <c r="B777" t="n">
-        <v>0.5339884968140727</v>
+        <v>0.15492871081780385</v>
       </c>
     </row>
     <row r="778">
@@ -9284,7 +9284,7 @@
         <v>777</v>
       </c>
       <c r="B778" t="n">
-        <v>0.3891371517077042</v>
+        <v>1.5831390636313138</v>
       </c>
     </row>
     <row r="779">
@@ -9292,7 +9292,7 @@
         <v>778</v>
       </c>
       <c r="B779" t="n">
-        <v>0.004828075463463967</v>
+        <v>0.18613817107045877</v>
       </c>
     </row>
     <row r="780">
@@ -9300,7 +9300,7 @@
         <v>779</v>
       </c>
       <c r="B780" t="n">
-        <v>2.2048103075086303</v>
+        <v>1.3212665924175808</v>
       </c>
     </row>
     <row r="781">
@@ -9308,7 +9308,7 @@
         <v>780</v>
       </c>
       <c r="B781" t="n">
-        <v>-1.5486102575334502</v>
+        <v>0.14119782270112358</v>
       </c>
     </row>
     <row r="782">
@@ -9316,7 +9316,7 @@
         <v>781</v>
       </c>
       <c r="B782" t="n">
-        <v>-0.8478021654996786</v>
+        <v>0.9887080887583294</v>
       </c>
     </row>
     <row r="783">
@@ -9324,7 +9324,7 @@
         <v>782</v>
       </c>
       <c r="B783" t="n">
-        <v>0.07815498586497338</v>
+        <v>-0.3117687617645864</v>
       </c>
     </row>
     <row r="784">
@@ -9332,7 +9332,7 @@
         <v>783</v>
       </c>
       <c r="B784" t="n">
-        <v>0.8986261966135184</v>
+        <v>0.28422407579932607</v>
       </c>
     </row>
     <row r="785">
@@ -9340,7 +9340,7 @@
         <v>784</v>
       </c>
       <c r="B785" t="n">
-        <v>1.4704672415251967</v>
+        <v>-1.0800594470296114</v>
       </c>
     </row>
     <row r="786">
@@ -9348,7 +9348,7 @@
         <v>785</v>
       </c>
       <c r="B786" t="n">
-        <v>-1.0163045414771117</v>
+        <v>-1.9476714736856116</v>
       </c>
     </row>
     <row r="787">
@@ -9356,7 +9356,7 @@
         <v>786</v>
       </c>
       <c r="B787" t="n">
-        <v>-0.13969302824225693</v>
+        <v>-1.662260869617427</v>
       </c>
     </row>
     <row r="788">
@@ -9364,7 +9364,7 @@
         <v>787</v>
       </c>
       <c r="B788" t="n">
-        <v>1.6730244155835943</v>
+        <v>-1.5995057362920473</v>
       </c>
     </row>
     <row r="789">
@@ -9372,7 +9372,7 @@
         <v>788</v>
       </c>
       <c r="B789" t="n">
-        <v>-2.683897221912328</v>
+        <v>0.24629698254189256</v>
       </c>
     </row>
     <row r="790">
@@ -9380,7 +9380,7 @@
         <v>789</v>
       </c>
       <c r="B790" t="n">
-        <v>1.5237962003780179</v>
+        <v>1.543247335028102</v>
       </c>
     </row>
     <row r="791">
@@ -9388,7 +9388,7 @@
         <v>790</v>
       </c>
       <c r="B791" t="n">
-        <v>0.5694007479436367</v>
+        <v>0.4955181659037874</v>
       </c>
     </row>
     <row r="792">
@@ -9396,7 +9396,7 @@
         <v>791</v>
       </c>
       <c r="B792" t="n">
-        <v>-1.1655731722769238</v>
+        <v>0.4817516920109643</v>
       </c>
     </row>
     <row r="793">
@@ -9404,7 +9404,7 @@
         <v>792</v>
       </c>
       <c r="B793" t="n">
-        <v>-0.6996842787116108</v>
+        <v>-1.1361568239167532</v>
       </c>
     </row>
     <row r="794">
@@ -9412,7 +9412,7 @@
         <v>793</v>
       </c>
       <c r="B794" t="n">
-        <v>0.5351009191375458</v>
+        <v>1.022231099414824</v>
       </c>
     </row>
     <row r="795">
@@ -9420,7 +9420,7 @@
         <v>794</v>
       </c>
       <c r="B795" t="n">
-        <v>0.229646000092053</v>
+        <v>1.3395623246014243</v>
       </c>
     </row>
     <row r="796">
@@ -9428,7 +9428,7 @@
         <v>795</v>
       </c>
       <c r="B796" t="n">
-        <v>-0.5307218743812198</v>
+        <v>-1.8603907580028942</v>
       </c>
     </row>
     <row r="797">
@@ -9436,7 +9436,7 @@
         <v>796</v>
       </c>
       <c r="B797" t="n">
-        <v>1.794138352031421</v>
+        <v>-0.042768379387988435</v>
       </c>
     </row>
     <row r="798">
@@ -9444,7 +9444,7 @@
         <v>797</v>
       </c>
       <c r="B798" t="n">
-        <v>0.9708305769344016</v>
+        <v>0.03836094152431447</v>
       </c>
     </row>
     <row r="799">
@@ -9452,7 +9452,7 @@
         <v>798</v>
       </c>
       <c r="B799" t="n">
-        <v>-0.6632657868793634</v>
+        <v>0.9245708488125759</v>
       </c>
     </row>
     <row r="800">
@@ -9460,7 +9460,7 @@
         <v>799</v>
       </c>
       <c r="B800" t="n">
-        <v>1.975407513449878</v>
+        <v>0.846804030800796</v>
       </c>
     </row>
     <row r="801">
@@ -9468,7 +9468,7 @@
         <v>800</v>
       </c>
       <c r="B801" t="n">
-        <v>0.4238577476653314</v>
+        <v>-0.032198953271351145</v>
       </c>
     </row>
     <row r="802">
@@ -9476,7 +9476,7 @@
         <v>801</v>
       </c>
       <c r="B802" t="n">
-        <v>0.3404536770719554</v>
+        <v>-0.31003847948993696</v>
       </c>
     </row>
     <row r="803">
@@ -9484,7 +9484,7 @@
         <v>802</v>
       </c>
       <c r="B803" t="n">
-        <v>-1.0883405925520562</v>
+        <v>0.6858998065780966</v>
       </c>
     </row>
     <row r="804">
@@ -9492,7 +9492,7 @@
         <v>803</v>
       </c>
       <c r="B804" t="n">
-        <v>1.0662500627439873</v>
+        <v>-1.781105600231481</v>
       </c>
     </row>
     <row r="805">
@@ -9500,7 +9500,7 @@
         <v>804</v>
       </c>
       <c r="B805" t="n">
-        <v>0.053655118135555346</v>
+        <v>1.5729548037997794</v>
       </c>
     </row>
     <row r="806">
@@ -9508,7 +9508,7 @@
         <v>805</v>
       </c>
       <c r="B806" t="n">
-        <v>0.8576420908519838</v>
+        <v>1.6218349455327876</v>
       </c>
     </row>
     <row r="807">
@@ -9516,7 +9516,7 @@
         <v>806</v>
       </c>
       <c r="B807" t="n">
-        <v>0.448904089060192</v>
+        <v>0.015669235674749593</v>
       </c>
     </row>
     <row r="808">
@@ -9524,7 +9524,7 @@
         <v>807</v>
       </c>
       <c r="B808" t="n">
-        <v>-0.44387608759901964</v>
+        <v>-0.5276910650153155</v>
       </c>
     </row>
     <row r="809">
@@ -9532,7 +9532,7 @@
         <v>808</v>
       </c>
       <c r="B809" t="n">
-        <v>-0.1595497801370245</v>
+        <v>0.655911748227707</v>
       </c>
     </row>
     <row r="810">
@@ -9540,7 +9540,7 @@
         <v>809</v>
       </c>
       <c r="B810" t="n">
-        <v>-1.4298260957091213</v>
+        <v>0.07512662344905804</v>
       </c>
     </row>
     <row r="811">
@@ -9548,7 +9548,7 @@
         <v>810</v>
       </c>
       <c r="B811" t="n">
-        <v>0.8359554664405997</v>
+        <v>-1.1188858953823206</v>
       </c>
     </row>
     <row r="812">
@@ -9556,7 +9556,7 @@
         <v>811</v>
       </c>
       <c r="B812" t="n">
-        <v>0.17813649101564197</v>
+        <v>1.1052925762645172</v>
       </c>
     </row>
     <row r="813">
@@ -9564,7 +9564,7 @@
         <v>812</v>
       </c>
       <c r="B813" t="n">
-        <v>1.2737401757453377</v>
+        <v>-1.4284761111368613</v>
       </c>
     </row>
     <row r="814">
@@ -9572,7 +9572,7 @@
         <v>813</v>
       </c>
       <c r="B814" t="n">
-        <v>-1.0017787660125832</v>
+        <v>-0.7636301707402829</v>
       </c>
     </row>
     <row r="815">
@@ -9580,7 +9580,7 @@
         <v>814</v>
       </c>
       <c r="B815" t="n">
-        <v>0.7036507399634194</v>
+        <v>-0.7761424264462193</v>
       </c>
     </row>
     <row r="816">
@@ -9588,7 +9588,7 @@
         <v>815</v>
       </c>
       <c r="B816" t="n">
-        <v>0.7529243705435595</v>
+        <v>-0.6440849003179651</v>
       </c>
     </row>
     <row r="817">
@@ -9596,7 +9596,7 @@
         <v>816</v>
       </c>
       <c r="B817" t="n">
-        <v>0.47034263088574735</v>
+        <v>-0.5981552675556916</v>
       </c>
     </row>
     <row r="818">
@@ -9604,7 +9604,7 @@
         <v>817</v>
       </c>
       <c r="B818" t="n">
-        <v>-0.8994454069023213</v>
+        <v>-0.6660941969836018</v>
       </c>
     </row>
     <row r="819">
@@ -9612,7 +9612,7 @@
         <v>818</v>
       </c>
       <c r="B819" t="n">
-        <v>-1.0988077974214054</v>
+        <v>0.7336399578753248</v>
       </c>
     </row>
     <row r="820">
@@ -9620,7 +9620,7 @@
         <v>819</v>
       </c>
       <c r="B820" t="n">
-        <v>0.0450904791700529</v>
+        <v>0.40516587856832487</v>
       </c>
     </row>
     <row r="821">
@@ -9628,7 +9628,7 @@
         <v>820</v>
       </c>
       <c r="B821" t="n">
-        <v>0.4396312001371121</v>
+        <v>-1.9233410640356392</v>
       </c>
     </row>
     <row r="822">
@@ -9636,7 +9636,7 @@
         <v>821</v>
       </c>
       <c r="B822" t="n">
-        <v>-0.20436571965239606</v>
+        <v>-1.5294973906317195</v>
       </c>
     </row>
     <row r="823">
@@ -9644,7 +9644,7 @@
         <v>822</v>
       </c>
       <c r="B823" t="n">
-        <v>-1.1384163633166366</v>
+        <v>-1.9559369888485616</v>
       </c>
     </row>
     <row r="824">
@@ -9652,7 +9652,7 @@
         <v>823</v>
       </c>
       <c r="B824" t="n">
-        <v>-0.8479711026933393</v>
+        <v>1.0065340028353524</v>
       </c>
     </row>
     <row r="825">
@@ -9660,7 +9660,7 @@
         <v>824</v>
       </c>
       <c r="B825" t="n">
-        <v>0.9130982556322039</v>
+        <v>0.13009606765215306</v>
       </c>
     </row>
     <row r="826">
@@ -9668,7 +9668,7 @@
         <v>825</v>
       </c>
       <c r="B826" t="n">
-        <v>0.5867465431640196</v>
+        <v>0.44053905792543785</v>
       </c>
     </row>
     <row r="827">
@@ -9676,7 +9676,7 @@
         <v>826</v>
       </c>
       <c r="B827" t="n">
-        <v>0.3203660166252414</v>
+        <v>1.551056899553036</v>
       </c>
     </row>
     <row r="828">
@@ -9684,7 +9684,7 @@
         <v>827</v>
       </c>
       <c r="B828" t="n">
-        <v>-0.8191884097605627</v>
+        <v>-0.7562240018079665</v>
       </c>
     </row>
     <row r="829">
@@ -9692,7 +9692,7 @@
         <v>828</v>
       </c>
       <c r="B829" t="n">
-        <v>-2.032542262841432</v>
+        <v>0.3048217445885574</v>
       </c>
     </row>
     <row r="830">
@@ -9700,7 +9700,7 @@
         <v>829</v>
       </c>
       <c r="B830" t="n">
-        <v>0.20570726656358515</v>
+        <v>1.5771053695078443</v>
       </c>
     </row>
     <row r="831">
@@ -9708,7 +9708,7 @@
         <v>830</v>
       </c>
       <c r="B831" t="n">
-        <v>-0.09515259134134245</v>
+        <v>1.307700044773693</v>
       </c>
     </row>
     <row r="832">
@@ -9716,7 +9716,7 @@
         <v>831</v>
       </c>
       <c r="B832" t="n">
-        <v>-2.3689891376170094</v>
+        <v>-1.1739501845705376</v>
       </c>
     </row>
     <row r="833">
@@ -9724,7 +9724,7 @@
         <v>832</v>
       </c>
       <c r="B833" t="n">
-        <v>0.004495171919111802</v>
+        <v>0.12596270462785417</v>
       </c>
     </row>
     <row r="834">
@@ -9732,7 +9732,7 @@
         <v>833</v>
       </c>
       <c r="B834" t="n">
-        <v>-0.2635342438260944</v>
+        <v>0.47488056433155307</v>
       </c>
     </row>
     <row r="835">
@@ -9740,7 +9740,7 @@
         <v>834</v>
       </c>
       <c r="B835" t="n">
-        <v>-0.799084088204962</v>
+        <v>-0.971487873430107</v>
       </c>
     </row>
     <row r="836">
@@ -9748,7 +9748,7 @@
         <v>835</v>
       </c>
       <c r="B836" t="n">
-        <v>-0.024162415147539893</v>
+        <v>0.1232409301881269</v>
       </c>
     </row>
     <row r="837">
@@ -9756,7 +9756,7 @@
         <v>836</v>
       </c>
       <c r="B837" t="n">
-        <v>-1.011542125590634</v>
+        <v>0.4570584282279884</v>
       </c>
     </row>
     <row r="838">
@@ -9764,7 +9764,7 @@
         <v>837</v>
       </c>
       <c r="B838" t="n">
-        <v>1.5105283080931295</v>
+        <v>-0.06665537343907793</v>
       </c>
     </row>
     <row r="839">
@@ -9772,7 +9772,7 @@
         <v>838</v>
       </c>
       <c r="B839" t="n">
-        <v>1.3084592269906545</v>
+        <v>0.24307047017338654</v>
       </c>
     </row>
     <row r="840">
@@ -9780,7 +9780,7 @@
         <v>839</v>
       </c>
       <c r="B840" t="n">
-        <v>0.4148195538036116</v>
+        <v>0.8638153008105556</v>
       </c>
     </row>
     <row r="841">
@@ -9788,7 +9788,7 @@
         <v>840</v>
       </c>
       <c r="B841" t="n">
-        <v>0.9275007481351234</v>
+        <v>1.4181733947727704</v>
       </c>
     </row>
     <row r="842">
@@ -9796,7 +9796,7 @@
         <v>841</v>
       </c>
       <c r="B842" t="n">
-        <v>1.2032692960872962</v>
+        <v>-1.076748947229664</v>
       </c>
     </row>
     <row r="843">
@@ -9804,7 +9804,7 @@
         <v>842</v>
       </c>
       <c r="B843" t="n">
-        <v>0.343254760960523</v>
+        <v>2.5100546085978213</v>
       </c>
     </row>
     <row r="844">
@@ -9812,7 +9812,7 @@
         <v>843</v>
       </c>
       <c r="B844" t="n">
-        <v>0.752324522396544</v>
+        <v>-0.5537521478163252</v>
       </c>
     </row>
     <row r="845">
@@ -9820,7 +9820,7 @@
         <v>844</v>
       </c>
       <c r="B845" t="n">
-        <v>0.019036654094344973</v>
+        <v>-0.3927779338252209</v>
       </c>
     </row>
     <row r="846">
@@ -9828,7 +9828,7 @@
         <v>845</v>
       </c>
       <c r="B846" t="n">
-        <v>-0.787932992009096</v>
+        <v>-0.8718248399104954</v>
       </c>
     </row>
     <row r="847">
@@ -9836,7 +9836,7 @@
         <v>846</v>
       </c>
       <c r="B847" t="n">
-        <v>-1.4909974338934937</v>
+        <v>0.8974575029672797</v>
       </c>
     </row>
     <row r="848">
@@ -9844,7 +9844,7 @@
         <v>847</v>
       </c>
       <c r="B848" t="n">
-        <v>-0.311682723023945</v>
+        <v>-1.419703438939819</v>
       </c>
     </row>
     <row r="849">
@@ -9852,7 +9852,7 @@
         <v>848</v>
       </c>
       <c r="B849" t="n">
-        <v>-1.2225175220188877</v>
+        <v>-0.12835664260441804</v>
       </c>
     </row>
     <row r="850">
@@ -9860,7 +9860,7 @@
         <v>849</v>
       </c>
       <c r="B850" t="n">
-        <v>-1.738417584667778</v>
+        <v>0.26070764226445275</v>
       </c>
     </row>
     <row r="851">
@@ -9868,7 +9868,7 @@
         <v>850</v>
       </c>
       <c r="B851" t="n">
-        <v>1.252253415153492</v>
+        <v>1.032644047371167</v>
       </c>
     </row>
     <row r="852">
@@ -9876,7 +9876,7 @@
         <v>851</v>
       </c>
       <c r="B852" t="n">
-        <v>-0.47665109264027106</v>
+        <v>-1.0725754406828578</v>
       </c>
     </row>
     <row r="853">
@@ -9884,7 +9884,7 @@
         <v>852</v>
       </c>
       <c r="B853" t="n">
-        <v>0.8844530107578287</v>
+        <v>1.490432686693957</v>
       </c>
     </row>
     <row r="854">
@@ -9892,7 +9892,7 @@
         <v>853</v>
       </c>
       <c r="B854" t="n">
-        <v>-0.14459555891528084</v>
+        <v>0.5732556930358603</v>
       </c>
     </row>
     <row r="855">
@@ -9900,7 +9900,7 @@
         <v>854</v>
       </c>
       <c r="B855" t="n">
-        <v>0.8154671361264741</v>
+        <v>1.4772933420910883</v>
       </c>
     </row>
     <row r="856">
@@ -9908,7 +9908,7 @@
         <v>855</v>
       </c>
       <c r="B856" t="n">
-        <v>1.51721879927485</v>
+        <v>-2.452470833703952</v>
       </c>
     </row>
     <row r="857">
@@ -9916,7 +9916,7 @@
         <v>856</v>
       </c>
       <c r="B857" t="n">
-        <v>0.06681967862843495</v>
+        <v>0.779864767715471</v>
       </c>
     </row>
     <row r="858">
@@ -9924,7 +9924,7 @@
         <v>857</v>
       </c>
       <c r="B858" t="n">
-        <v>0.0230172388051474</v>
+        <v>3.25495399205081</v>
       </c>
     </row>
     <row r="859">
@@ -9932,7 +9932,7 @@
         <v>858</v>
       </c>
       <c r="B859" t="n">
-        <v>0.6593100308480703</v>
+        <v>-0.5897615551771884</v>
       </c>
     </row>
     <row r="860">
@@ -9940,7 +9940,7 @@
         <v>859</v>
       </c>
       <c r="B860" t="n">
-        <v>0.612879697142851</v>
+        <v>-1.505376283261581</v>
       </c>
     </row>
     <row r="861">
@@ -9948,7 +9948,7 @@
         <v>860</v>
       </c>
       <c r="B861" t="n">
-        <v>-1.0895141803308332</v>
+        <v>-0.39730845877887166</v>
       </c>
     </row>
     <row r="862">
@@ -9956,7 +9956,7 @@
         <v>861</v>
       </c>
       <c r="B862" t="n">
-        <v>-0.8484702365941167</v>
+        <v>1.0357844584127234</v>
       </c>
     </row>
     <row r="863">
@@ -9964,7 +9964,7 @@
         <v>862</v>
       </c>
       <c r="B863" t="n">
-        <v>-1.4456692486198457</v>
+        <v>0.4908724876450348</v>
       </c>
     </row>
     <row r="864">
@@ -9972,7 +9972,7 @@
         <v>863</v>
       </c>
       <c r="B864" t="n">
-        <v>0.8076592307631575</v>
+        <v>-0.46627555430311113</v>
       </c>
     </row>
     <row r="865">
@@ -9980,7 +9980,7 @@
         <v>864</v>
       </c>
       <c r="B865" t="n">
-        <v>-0.8829136241292843</v>
+        <v>0.33280897297157563</v>
       </c>
     </row>
     <row r="866">
@@ -9988,7 +9988,7 @@
         <v>865</v>
       </c>
       <c r="B866" t="n">
-        <v>1.112619862834273</v>
+        <v>-0.31952766350021033</v>
       </c>
     </row>
     <row r="867">
@@ -9996,7 +9996,7 @@
         <v>866</v>
       </c>
       <c r="B867" t="n">
-        <v>-1.1142338138250576</v>
+        <v>-1.1699080753341093</v>
       </c>
     </row>
     <row r="868">
@@ -10004,7 +10004,7 @@
         <v>867</v>
       </c>
       <c r="B868" t="n">
-        <v>0.5047558814225418</v>
+        <v>-0.351012198254352</v>
       </c>
     </row>
     <row r="869">
@@ -10012,7 +10012,7 @@
         <v>868</v>
       </c>
       <c r="B869" t="n">
-        <v>-0.8894619166549215</v>
+        <v>-1.521729411727694</v>
       </c>
     </row>
     <row r="870">
@@ -10020,7 +10020,7 @@
         <v>869</v>
       </c>
       <c r="B870" t="n">
-        <v>-0.08363836486099699</v>
+        <v>-0.13803805606045597</v>
       </c>
     </row>
     <row r="871">
@@ -10028,7 +10028,7 @@
         <v>870</v>
       </c>
       <c r="B871" t="n">
-        <v>-0.4047220683918289</v>
+        <v>3.430459268892109</v>
       </c>
     </row>
     <row r="872">
@@ -10036,7 +10036,7 @@
         <v>871</v>
       </c>
       <c r="B872" t="n">
-        <v>0.2709170567394242</v>
+        <v>0.9380635113980552</v>
       </c>
     </row>
     <row r="873">
@@ -10044,7 +10044,7 @@
         <v>872</v>
       </c>
       <c r="B873" t="n">
-        <v>0.6056719151167773</v>
+        <v>-0.48663246335240723</v>
       </c>
     </row>
     <row r="874">
@@ -10052,7 +10052,7 @@
         <v>873</v>
       </c>
       <c r="B874" t="n">
-        <v>0.5055826034242726</v>
+        <v>-1.0790635522629413</v>
       </c>
     </row>
     <row r="875">
@@ -10060,7 +10060,7 @@
         <v>874</v>
       </c>
       <c r="B875" t="n">
-        <v>0.5842723628413211</v>
+        <v>0.3702595806280367</v>
       </c>
     </row>
     <row r="876">
@@ -10068,7 +10068,7 @@
         <v>875</v>
       </c>
       <c r="B876" t="n">
-        <v>0.5425343044392082</v>
+        <v>1.57715153869106</v>
       </c>
     </row>
     <row r="877">
@@ -10076,7 +10076,7 @@
         <v>876</v>
       </c>
       <c r="B877" t="n">
-        <v>0.32058032245874263</v>
+        <v>-0.6301801172590351</v>
       </c>
     </row>
     <row r="878">
@@ -10084,7 +10084,7 @@
         <v>877</v>
       </c>
       <c r="B878" t="n">
-        <v>1.1233716373342233</v>
+        <v>0.2637702857923998</v>
       </c>
     </row>
     <row r="879">
@@ -10092,7 +10092,7 @@
         <v>878</v>
       </c>
       <c r="B879" t="n">
-        <v>-0.9089748935964663</v>
+        <v>-0.7841209143438888</v>
       </c>
     </row>
     <row r="880">
@@ -10100,7 +10100,7 @@
         <v>879</v>
       </c>
       <c r="B880" t="n">
-        <v>0.7496832738998317</v>
+        <v>0.03434660663826934</v>
       </c>
     </row>
     <row r="881">
@@ -10108,7 +10108,7 @@
         <v>880</v>
       </c>
       <c r="B881" t="n">
-        <v>-0.08116502735918375</v>
+        <v>-1.1307002722425434</v>
       </c>
     </row>
     <row r="882">
@@ -10116,7 +10116,7 @@
         <v>881</v>
       </c>
       <c r="B882" t="n">
-        <v>0.05532273004938183</v>
+        <v>0.645160947939144</v>
       </c>
     </row>
     <row r="883">
@@ -10124,7 +10124,7 @@
         <v>882</v>
       </c>
       <c r="B883" t="n">
-        <v>1.0188724600227725</v>
+        <v>-2.662434961973898</v>
       </c>
     </row>
     <row r="884">
@@ -10132,7 +10132,7 @@
         <v>883</v>
       </c>
       <c r="B884" t="n">
-        <v>1.6771376623030894</v>
+        <v>0.024622059188606646</v>
       </c>
     </row>
     <row r="885">
@@ -10140,7 +10140,7 @@
         <v>884</v>
       </c>
       <c r="B885" t="n">
-        <v>-0.6293089791261409</v>
+        <v>1.504345312931496</v>
       </c>
     </row>
     <row r="886">
@@ -10148,7 +10148,7 @@
         <v>885</v>
       </c>
       <c r="B886" t="n">
-        <v>-2.0784923374209856</v>
+        <v>2.0365631328310942</v>
       </c>
     </row>
     <row r="887">
@@ -10156,7 +10156,7 @@
         <v>886</v>
       </c>
       <c r="B887" t="n">
-        <v>-0.2759598532971426</v>
+        <v>-0.13406204224525187</v>
       </c>
     </row>
     <row r="888">
@@ -10164,7 +10164,7 @@
         <v>887</v>
       </c>
       <c r="B888" t="n">
-        <v>0.5138476556360375</v>
+        <v>1.226864482753665</v>
       </c>
     </row>
     <row r="889">
@@ -10172,7 +10172,7 @@
         <v>888</v>
       </c>
       <c r="B889" t="n">
-        <v>-1.281003413407731</v>
+        <v>0.7841341513313409</v>
       </c>
     </row>
     <row r="890">
@@ -10180,7 +10180,7 @@
         <v>889</v>
       </c>
       <c r="B890" t="n">
-        <v>1.5881614644810333</v>
+        <v>-0.23872581119748187</v>
       </c>
     </row>
     <row r="891">
@@ -10188,7 +10188,7 @@
         <v>890</v>
       </c>
       <c r="B891" t="n">
-        <v>0.6055144558040377</v>
+        <v>-0.9935601701818847</v>
       </c>
     </row>
     <row r="892">
@@ -10196,7 +10196,7 @@
         <v>891</v>
       </c>
       <c r="B892" t="n">
-        <v>0.46769010856251436</v>
+        <v>0.13262321080862965</v>
       </c>
     </row>
     <row r="893">
@@ -10204,7 +10204,7 @@
         <v>892</v>
       </c>
       <c r="B893" t="n">
-        <v>1.402212606011988</v>
+        <v>0.4432669204351011</v>
       </c>
     </row>
     <row r="894">
@@ -10212,7 +10212,7 @@
         <v>893</v>
       </c>
       <c r="B894" t="n">
-        <v>1.0495898239534915</v>
+        <v>-0.06458794842327724</v>
       </c>
     </row>
     <row r="895">
@@ -10220,7 +10220,7 @@
         <v>894</v>
       </c>
       <c r="B895" t="n">
-        <v>0.9870899778746227</v>
+        <v>0.2251740531411026</v>
       </c>
     </row>
     <row r="896">
@@ -10228,7 +10228,7 @@
         <v>895</v>
       </c>
       <c r="B896" t="n">
-        <v>-0.17513158192116945</v>
+        <v>-0.17397148081472583</v>
       </c>
     </row>
     <row r="897">
@@ -10236,7 +10236,7 @@
         <v>896</v>
       </c>
       <c r="B897" t="n">
-        <v>0.5569325880871369</v>
+        <v>-1.0570365385941283</v>
       </c>
     </row>
     <row r="898">
@@ -10244,7 +10244,7 @@
         <v>897</v>
       </c>
       <c r="B898" t="n">
-        <v>-0.24559033744173242</v>
+        <v>-1.241002506410133</v>
       </c>
     </row>
     <row r="899">
@@ -10252,7 +10252,7 @@
         <v>898</v>
       </c>
       <c r="B899" t="n">
-        <v>-0.11862428659738573</v>
+        <v>0.5164006113076081</v>
       </c>
     </row>
     <row r="900">
@@ -10260,7 +10260,7 @@
         <v>899</v>
       </c>
       <c r="B900" t="n">
-        <v>-1.4859147479166426</v>
+        <v>0.8484096358122226</v>
       </c>
     </row>
     <row r="901">
@@ -10268,7 +10268,7 @@
         <v>900</v>
       </c>
       <c r="B901" t="n">
-        <v>0.2647533151998345</v>
+        <v>0.23925686760001494</v>
       </c>
     </row>
     <row r="902">
@@ -10276,7 +10276,7 @@
         <v>901</v>
       </c>
       <c r="B902" t="n">
-        <v>0.16093597541819613</v>
+        <v>0.8920750874832852</v>
       </c>
     </row>
     <row r="903">
@@ -10284,7 +10284,7 @@
         <v>902</v>
       </c>
       <c r="B903" t="n">
-        <v>0.1094057179565217</v>
+        <v>0.43771890486327847</v>
       </c>
     </row>
     <row r="904">
@@ -10292,7 +10292,7 @@
         <v>903</v>
       </c>
       <c r="B904" t="n">
-        <v>-0.5504210751178439</v>
+        <v>-0.46229767010777295</v>
       </c>
     </row>
     <row r="905">
@@ -10300,7 +10300,7 @@
         <v>904</v>
       </c>
       <c r="B905" t="n">
-        <v>-0.1627760082642222</v>
+        <v>-1.2773929849470131</v>
       </c>
     </row>
     <row r="906">
@@ -10308,7 +10308,7 @@
         <v>905</v>
       </c>
       <c r="B906" t="n">
-        <v>-0.3603499121606324</v>
+        <v>0.16655819408610548</v>
       </c>
     </row>
     <row r="907">
@@ -10316,7 +10316,7 @@
         <v>906</v>
       </c>
       <c r="B907" t="n">
-        <v>-0.6992566704106382</v>
+        <v>2.7278014789084133</v>
       </c>
     </row>
     <row r="908">
@@ -10324,7 +10324,7 @@
         <v>907</v>
       </c>
       <c r="B908" t="n">
-        <v>1.6304033545931764</v>
+        <v>0.7765868219436252</v>
       </c>
     </row>
     <row r="909">
@@ -10332,7 +10332,7 @@
         <v>908</v>
       </c>
       <c r="B909" t="n">
-        <v>-0.3716890100378663</v>
+        <v>0.3487548542311445</v>
       </c>
     </row>
     <row r="910">
@@ -10340,7 +10340,7 @@
         <v>909</v>
       </c>
       <c r="B910" t="n">
-        <v>0.11203614224986361</v>
+        <v>0.2814971725673935</v>
       </c>
     </row>
     <row r="911">
@@ -10348,7 +10348,7 @@
         <v>910</v>
       </c>
       <c r="B911" t="n">
-        <v>1.4546710057815093</v>
+        <v>0.6845470631962909</v>
       </c>
     </row>
     <row r="912">
@@ -10356,7 +10356,7 @@
         <v>911</v>
       </c>
       <c r="B912" t="n">
-        <v>0.12245903503207825</v>
+        <v>-1.1424266215731176</v>
       </c>
     </row>
     <row r="913">
@@ -10364,7 +10364,7 @@
         <v>912</v>
       </c>
       <c r="B913" t="n">
-        <v>-0.5783077723361383</v>
+        <v>-0.5921742827888585</v>
       </c>
     </row>
     <row r="914">
@@ -10372,7 +10372,7 @@
         <v>913</v>
       </c>
       <c r="B914" t="n">
-        <v>0.8505599637691931</v>
+        <v>1.6266614722839732</v>
       </c>
     </row>
     <row r="915">
@@ -10380,7 +10380,7 @@
         <v>914</v>
       </c>
       <c r="B915" t="n">
-        <v>-0.7417329984145816</v>
+        <v>0.1625225563938672</v>
       </c>
     </row>
     <row r="916">
@@ -10388,7 +10388,7 @@
         <v>915</v>
       </c>
       <c r="B916" t="n">
-        <v>-1.6994120678035571</v>
+        <v>0.39430196085735203</v>
       </c>
     </row>
     <row r="917">
@@ -10396,7 +10396,7 @@
         <v>916</v>
       </c>
       <c r="B917" t="n">
-        <v>-0.014017053165106137</v>
+        <v>0.3499889816026058</v>
       </c>
     </row>
     <row r="918">
@@ -10404,7 +10404,7 @@
         <v>917</v>
       </c>
       <c r="B918" t="n">
-        <v>1.010596994742915</v>
+        <v>1.041072482070607</v>
       </c>
     </row>
     <row r="919">
@@ -10412,7 +10412,7 @@
         <v>918</v>
       </c>
       <c r="B919" t="n">
-        <v>0.9265888356117576</v>
+        <v>0.34359677860896176</v>
       </c>
     </row>
     <row r="920">
@@ -10420,7 +10420,7 @@
         <v>919</v>
       </c>
       <c r="B920" t="n">
-        <v>0.870687579224548</v>
+        <v>-0.8598389629224642</v>
       </c>
     </row>
     <row r="921">
@@ -10428,7 +10428,7 @@
         <v>920</v>
       </c>
       <c r="B921" t="n">
-        <v>1.2416566871120152</v>
+        <v>1.1241984823771276</v>
       </c>
     </row>
     <row r="922">
@@ -10436,7 +10436,7 @@
         <v>921</v>
       </c>
       <c r="B922" t="n">
-        <v>-0.3695237508013387</v>
+        <v>1.494202953335883</v>
       </c>
     </row>
     <row r="923">
@@ -10444,7 +10444,7 @@
         <v>922</v>
       </c>
       <c r="B923" t="n">
-        <v>-0.7058680426589756</v>
+        <v>1.4631795478393244</v>
       </c>
     </row>
     <row r="924">
@@ -10452,7 +10452,7 @@
         <v>923</v>
       </c>
       <c r="B924" t="n">
-        <v>-2.235702372294785</v>
+        <v>-0.10170285572836199</v>
       </c>
     </row>
     <row r="925">
@@ -10460,7 +10460,7 @@
         <v>924</v>
       </c>
       <c r="B925" t="n">
-        <v>-2.2227987388440176</v>
+        <v>-0.46373034855380557</v>
       </c>
     </row>
     <row r="926">
@@ -10468,7 +10468,7 @@
         <v>925</v>
       </c>
       <c r="B926" t="n">
-        <v>0.36074353177824287</v>
+        <v>-0.43575721026548625</v>
       </c>
     </row>
     <row r="927">
@@ -10476,7 +10476,7 @@
         <v>926</v>
       </c>
       <c r="B927" t="n">
-        <v>-0.3684642059319191</v>
+        <v>1.0924503968340906</v>
       </c>
     </row>
     <row r="928">
@@ -10484,7 +10484,7 @@
         <v>927</v>
       </c>
       <c r="B928" t="n">
-        <v>-0.9977111058829525</v>
+        <v>-0.17854303367898106</v>
       </c>
     </row>
     <row r="929">
@@ -10492,7 +10492,7 @@
         <v>928</v>
       </c>
       <c r="B929" t="n">
-        <v>0.8307647153924546</v>
+        <v>0.945665330437715</v>
       </c>
     </row>
     <row r="930">
@@ -10500,7 +10500,7 @@
         <v>929</v>
       </c>
       <c r="B930" t="n">
-        <v>-0.6645928341817015</v>
+        <v>-2.4789488440320477</v>
       </c>
     </row>
     <row r="931">
@@ -10508,7 +10508,7 @@
         <v>930</v>
       </c>
       <c r="B931" t="n">
-        <v>0.6941207185192697</v>
+        <v>0.1911721710935431</v>
       </c>
     </row>
     <row r="932">
@@ -10516,7 +10516,7 @@
         <v>931</v>
       </c>
       <c r="B932" t="n">
-        <v>1.1528152971279817</v>
+        <v>0.28702540773303725</v>
       </c>
     </row>
     <row r="933">
@@ -10524,7 +10524,7 @@
         <v>932</v>
       </c>
       <c r="B933" t="n">
-        <v>-0.3790648041469563</v>
+        <v>1.4625512117401736</v>
       </c>
     </row>
     <row r="934">
@@ -10532,7 +10532,7 @@
         <v>933</v>
       </c>
       <c r="B934" t="n">
-        <v>-0.16574081775855007</v>
+        <v>0.9447456552724546</v>
       </c>
     </row>
     <row r="935">
@@ -10540,7 +10540,7 @@
         <v>934</v>
       </c>
       <c r="B935" t="n">
-        <v>-0.6256478294451084</v>
+        <v>0.1658700293446028</v>
       </c>
     </row>
     <row r="936">
@@ -10548,7 +10548,7 @@
         <v>935</v>
       </c>
       <c r="B936" t="n">
-        <v>-1.869372213821129</v>
+        <v>0.30682120236359983</v>
       </c>
     </row>
     <row r="937">
@@ -10556,7 +10556,7 @@
         <v>936</v>
       </c>
       <c r="B937" t="n">
-        <v>0.9039527005468678</v>
+        <v>0.1365689874296382</v>
       </c>
     </row>
     <row r="938">
@@ -10564,7 +10564,7 @@
         <v>937</v>
       </c>
       <c r="B938" t="n">
-        <v>0.04627684297262762</v>
+        <v>0.038866236977073976</v>
       </c>
     </row>
     <row r="939">
@@ -10572,7 +10572,7 @@
         <v>938</v>
       </c>
       <c r="B939" t="n">
-        <v>0.20556540748089638</v>
+        <v>0.1735105210485609</v>
       </c>
     </row>
     <row r="940">
@@ -10580,7 +10580,7 @@
         <v>939</v>
       </c>
       <c r="B940" t="n">
-        <v>0.693206124491715</v>
+        <v>0.47606855173778173</v>
       </c>
     </row>
     <row r="941">
@@ -10588,7 +10588,7 @@
         <v>940</v>
       </c>
       <c r="B941" t="n">
-        <v>0.41944378262230586</v>
+        <v>-0.9771705617972491</v>
       </c>
     </row>
     <row r="942">
@@ -10596,7 +10596,7 @@
         <v>941</v>
       </c>
       <c r="B942" t="n">
-        <v>0.5648207413286039</v>
+        <v>-0.9802254257297341</v>
       </c>
     </row>
     <row r="943">
@@ -10604,7 +10604,7 @@
         <v>942</v>
       </c>
       <c r="B943" t="n">
-        <v>0.7926547739547081</v>
+        <v>-1.1564338600965536</v>
       </c>
     </row>
     <row r="944">
@@ -10612,7 +10612,7 @@
         <v>943</v>
       </c>
       <c r="B944" t="n">
-        <v>-1.3255798411862185</v>
+        <v>0.10549799511376774</v>
       </c>
     </row>
     <row r="945">
@@ -10620,7 +10620,7 @@
         <v>944</v>
       </c>
       <c r="B945" t="n">
-        <v>0.6420743933619532</v>
+        <v>-0.8230441943445925</v>
       </c>
     </row>
     <row r="946">
@@ -10628,7 +10628,7 @@
         <v>945</v>
       </c>
       <c r="B946" t="n">
-        <v>0.050445501737755964</v>
+        <v>-0.03494498300211102</v>
       </c>
     </row>
     <row r="947">
@@ -10636,7 +10636,7 @@
         <v>946</v>
       </c>
       <c r="B947" t="n">
-        <v>0.9616546191206407</v>
+        <v>-0.7707855884837834</v>
       </c>
     </row>
     <row r="948">
@@ -10644,7 +10644,7 @@
         <v>947</v>
       </c>
       <c r="B948" t="n">
-        <v>0.3382794849872576</v>
+        <v>1.7121114950402427</v>
       </c>
     </row>
     <row r="949">
@@ -10652,7 +10652,7 @@
         <v>948</v>
       </c>
       <c r="B949" t="n">
-        <v>-0.687487558555843</v>
+        <v>-0.4937688553144736</v>
       </c>
     </row>
     <row r="950">
@@ -10660,7 +10660,7 @@
         <v>949</v>
       </c>
       <c r="B950" t="n">
-        <v>2.6036034247560518</v>
+        <v>0.21552276002165924</v>
       </c>
     </row>
     <row r="951">
@@ -10668,7 +10668,7 @@
         <v>950</v>
       </c>
       <c r="B951" t="n">
-        <v>0.019160939216224356</v>
+        <v>-0.12315750883486976</v>
       </c>
     </row>
     <row r="952">
@@ -10676,7 +10676,7 @@
         <v>951</v>
       </c>
       <c r="B952" t="n">
-        <v>-0.13212892433735315</v>
+        <v>0.8697246122614798</v>
       </c>
     </row>
     <row r="953">
@@ -10684,7 +10684,7 @@
         <v>952</v>
       </c>
       <c r="B953" t="n">
-        <v>0.9139869745693939</v>
+        <v>-0.7457465721492383</v>
       </c>
     </row>
     <row r="954">
@@ -10692,7 +10692,7 @@
         <v>953</v>
       </c>
       <c r="B954" t="n">
-        <v>-1.3610922882483405</v>
+        <v>-0.7418001991560075</v>
       </c>
     </row>
     <row r="955">
@@ -10700,7 +10700,7 @@
         <v>954</v>
       </c>
       <c r="B955" t="n">
-        <v>0.8122850941287896</v>
+        <v>1.0745831273768494</v>
       </c>
     </row>
     <row r="956">
@@ -10708,7 +10708,7 @@
         <v>955</v>
       </c>
       <c r="B956" t="n">
-        <v>-2.2954383944184866</v>
+        <v>1.659910259001849</v>
       </c>
     </row>
     <row r="957">
@@ -10716,7 +10716,7 @@
         <v>956</v>
       </c>
       <c r="B957" t="n">
-        <v>0.1914587338264721</v>
+        <v>-0.5578568600982186</v>
       </c>
     </row>
     <row r="958">
@@ -10724,7 +10724,7 @@
         <v>957</v>
       </c>
       <c r="B958" t="n">
-        <v>0.4985205433361321</v>
+        <v>-0.8889985310796715</v>
       </c>
     </row>
     <row r="959">
@@ -10732,7 +10732,7 @@
         <v>958</v>
       </c>
       <c r="B959" t="n">
-        <v>0.3885813134430637</v>
+        <v>-0.9973565631518482</v>
       </c>
     </row>
     <row r="960">
@@ -10740,7 +10740,7 @@
         <v>959</v>
       </c>
       <c r="B960" t="n">
-        <v>1.5836363816561285</v>
+        <v>-1.7808458773712186</v>
       </c>
     </row>
     <row r="961">
@@ -10748,7 +10748,7 @@
         <v>960</v>
       </c>
       <c r="B961" t="n">
-        <v>-0.4853089808922545</v>
+        <v>-0.3452912135521155</v>
       </c>
     </row>
     <row r="962">
@@ -10756,7 +10756,7 @@
         <v>961</v>
       </c>
       <c r="B962" t="n">
-        <v>-0.19909387179612562</v>
+        <v>1.4424843736612474</v>
       </c>
     </row>
     <row r="963">
@@ -10764,7 +10764,7 @@
         <v>962</v>
       </c>
       <c r="B963" t="n">
-        <v>-0.23931499143784868</v>
+        <v>-0.40893004247033443</v>
       </c>
     </row>
     <row r="964">
@@ -10772,7 +10772,7 @@
         <v>963</v>
       </c>
       <c r="B964" t="n">
-        <v>0.45308019595204607</v>
+        <v>0.900045346748124</v>
       </c>
     </row>
     <row r="965">
@@ -10780,7 +10780,7 @@
         <v>964</v>
       </c>
       <c r="B965" t="n">
-        <v>-0.10745419328568233</v>
+        <v>1.4832793746661574</v>
       </c>
     </row>
     <row r="966">
@@ -10788,7 +10788,7 @@
         <v>965</v>
       </c>
       <c r="B966" t="n">
-        <v>-0.37589882715987544</v>
+        <v>0.6432979489716664</v>
       </c>
     </row>
     <row r="967">
@@ -10796,7 +10796,7 @@
         <v>966</v>
       </c>
       <c r="B967" t="n">
-        <v>0.4667892937549125</v>
+        <v>-0.2600306989817909</v>
       </c>
     </row>
     <row r="968">
@@ -10804,7 +10804,7 @@
         <v>967</v>
       </c>
       <c r="B968" t="n">
-        <v>0.6532479999855406</v>
+        <v>0.7243118084154946</v>
       </c>
     </row>
     <row r="969">
@@ -10812,7 +10812,7 @@
         <v>968</v>
       </c>
       <c r="B969" t="n">
-        <v>0.8351260164746771</v>
+        <v>2.497114285183995</v>
       </c>
     </row>
     <row r="970">
@@ -10820,7 +10820,7 @@
         <v>969</v>
       </c>
       <c r="B970" t="n">
-        <v>-1.7831680995919736</v>
+        <v>0.8570226725233275</v>
       </c>
     </row>
     <row r="971">
@@ -10828,7 +10828,7 @@
         <v>970</v>
       </c>
       <c r="B971" t="n">
-        <v>0.3911460090215742</v>
+        <v>0.919404292571412</v>
       </c>
     </row>
     <row r="972">
@@ -10836,7 +10836,7 @@
         <v>971</v>
       </c>
       <c r="B972" t="n">
-        <v>-1.766771156130941</v>
+        <v>1.6835276514043693</v>
       </c>
     </row>
     <row r="973">
@@ -10844,7 +10844,7 @@
         <v>972</v>
       </c>
       <c r="B973" t="n">
-        <v>-0.3431602018702821</v>
+        <v>-1.009124178649384</v>
       </c>
     </row>
     <row r="974">
@@ -10852,7 +10852,7 @@
         <v>973</v>
       </c>
       <c r="B974" t="n">
-        <v>0.01515489443416147</v>
+        <v>0.3469537608377029</v>
       </c>
     </row>
     <row r="975">
@@ -10860,7 +10860,7 @@
         <v>974</v>
       </c>
       <c r="B975" t="n">
-        <v>0.0570626391027562</v>
+        <v>0.07878144105036894</v>
       </c>
     </row>
     <row r="976">
@@ -10868,7 +10868,7 @@
         <v>975</v>
       </c>
       <c r="B976" t="n">
-        <v>-0.06973618484029274</v>
+        <v>0.8391764328635672</v>
       </c>
     </row>
     <row r="977">
@@ -10876,7 +10876,7 @@
         <v>976</v>
       </c>
       <c r="B977" t="n">
-        <v>-1.2355303994076776</v>
+        <v>-1.6005922979742244</v>
       </c>
     </row>
     <row r="978">
@@ -10884,7 +10884,7 @@
         <v>977</v>
       </c>
       <c r="B978" t="n">
-        <v>-0.24223873081576328</v>
+        <v>-1.2100407236922393</v>
       </c>
     </row>
     <row r="979">
@@ -10892,7 +10892,7 @@
         <v>978</v>
       </c>
       <c r="B979" t="n">
-        <v>0.23760139344991327</v>
+        <v>-0.24080365599902803</v>
       </c>
     </row>
     <row r="980">
@@ -10900,7 +10900,7 @@
         <v>979</v>
       </c>
       <c r="B980" t="n">
-        <v>0.98260007712688</v>
+        <v>0.934159524436367</v>
       </c>
     </row>
     <row r="981">
@@ -10908,7 +10908,7 @@
         <v>980</v>
       </c>
       <c r="B981" t="n">
-        <v>-0.6089149513440678</v>
+        <v>-1.2607189286188345</v>
       </c>
     </row>
     <row r="982">
@@ -10916,7 +10916,7 @@
         <v>981</v>
       </c>
       <c r="B982" t="n">
-        <v>-1.3779786788570834</v>
+        <v>0.676445193234501</v>
       </c>
     </row>
     <row r="983">
@@ -10924,7 +10924,7 @@
         <v>982</v>
       </c>
       <c r="B983" t="n">
-        <v>1.266259188242629</v>
+        <v>-1.4807988164211046</v>
       </c>
     </row>
     <row r="984">
@@ -10932,7 +10932,7 @@
         <v>983</v>
       </c>
       <c r="B984" t="n">
-        <v>-0.23924880614888697</v>
+        <v>-0.724309437491448</v>
       </c>
     </row>
     <row r="985">
@@ -10940,7 +10940,7 @@
         <v>984</v>
       </c>
       <c r="B985" t="n">
-        <v>0.586632468295505</v>
+        <v>0.7885315482357056</v>
       </c>
     </row>
     <row r="986">
@@ -10948,7 +10948,7 @@
         <v>985</v>
       </c>
       <c r="B986" t="n">
-        <v>0.23029708725266324</v>
+        <v>0.8835811973947922</v>
       </c>
     </row>
     <row r="987">
@@ -10956,7 +10956,7 @@
         <v>986</v>
       </c>
       <c r="B987" t="n">
-        <v>-0.2987497101012054</v>
+        <v>-0.784997498431553</v>
       </c>
     </row>
     <row r="988">
@@ -10964,7 +10964,7 @@
         <v>987</v>
       </c>
       <c r="B988" t="n">
-        <v>0.833959457460885</v>
+        <v>0.5180197520401133</v>
       </c>
     </row>
     <row r="989">
@@ -10972,7 +10972,7 @@
         <v>988</v>
       </c>
       <c r="B989" t="n">
-        <v>-0.04159349758455495</v>
+        <v>-0.9480254154235707</v>
       </c>
     </row>
     <row r="990">
@@ -10980,7 +10980,7 @@
         <v>989</v>
       </c>
       <c r="B990" t="n">
-        <v>-0.11120760161764025</v>
+        <v>1.5708834789737602</v>
       </c>
     </row>
     <row r="991">
@@ -10988,7 +10988,7 @@
         <v>990</v>
       </c>
       <c r="B991" t="n">
-        <v>-0.004583066582843858</v>
+        <v>2.1300699450749527</v>
       </c>
     </row>
     <row r="992">
@@ -10996,7 +10996,7 @@
         <v>991</v>
       </c>
       <c r="B992" t="n">
-        <v>0.6222616170870106</v>
+        <v>0.30516621520476095</v>
       </c>
     </row>
     <row r="993">
@@ -11004,7 +11004,7 @@
         <v>992</v>
       </c>
       <c r="B993" t="n">
-        <v>0.42371896634322403</v>
+        <v>0.8605869663376146</v>
       </c>
     </row>
     <row r="994">
@@ -11012,7 +11012,7 @@
         <v>993</v>
       </c>
       <c r="B994" t="n">
-        <v>-0.8589941368552938</v>
+        <v>-2.273361813711318</v>
       </c>
     </row>
     <row r="995">
@@ -11020,7 +11020,7 @@
         <v>994</v>
       </c>
       <c r="B995" t="n">
-        <v>0.36920774989947</v>
+        <v>-0.3482462577917011</v>
       </c>
     </row>
     <row r="996">
@@ -11028,7 +11028,7 @@
         <v>995</v>
       </c>
       <c r="B996" t="n">
-        <v>-1.0807089237141376</v>
+        <v>-0.27368384913870447</v>
       </c>
     </row>
     <row r="997">
@@ -11036,7 +11036,7 @@
         <v>996</v>
       </c>
       <c r="B997" t="n">
-        <v>-0.7739267150324319</v>
+        <v>-0.6561523784540829</v>
       </c>
     </row>
     <row r="998">
@@ -11044,7 +11044,7 @@
         <v>997</v>
       </c>
       <c r="B998" t="n">
-        <v>-0.5443225979432137</v>
+        <v>0.3930646961997517</v>
       </c>
     </row>
     <row r="999">
@@ -11052,7 +11052,7 @@
         <v>998</v>
       </c>
       <c r="B999" t="n">
-        <v>-0.9525696116591047</v>
+        <v>-1.1508580373091692</v>
       </c>
     </row>
     <row r="1000">
@@ -11060,7 +11060,7 @@
         <v>999</v>
       </c>
       <c r="B1000" t="n">
-        <v>1.039916459586205</v>
+        <v>-0.1330223150215404</v>
       </c>
     </row>
     <row r="1001">
@@ -11068,7 +11068,7 @@
         <v>1000</v>
       </c>
       <c r="B1001" t="n">
-        <v>0.11151563132336213</v>
+        <v>1.3789473824926783</v>
       </c>
     </row>
   </sheetData>
